--- a/Charts/dataset.xlsx
+++ b/Charts/dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yhl125/Documents/uofglasgow/MSc Project/MSc Project/Charts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2D2A628-1697-C141-980D-74F40C8BC87F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD9ABAA-C050-1D45-BC6B-E8D84AD48DB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="15900" xr2:uid="{9FAC8309-A5C7-0A4E-92FD-80A3A6CC2929}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="644">
   <si>
     <t>If this colleague of mine talks in japanese once more Im punching her in the throat and ripping out her vocal cords WHORE</t>
   </si>
@@ -1864,12 +1864,535 @@
     <t>The boss never works overtime, because the boss is the best, we have to work overtime because we are shit, where is fairness</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>RT @M__shrug : @GunnarThalweg @Firr @hradzka This is awesome. I outlasted a senior manager once. He wanted to get rid of me for years, with new management I got promoted and he got fired. LMAO</t>
+  </si>
+  <si>
+    <t>RT @AMcDevittTV : Coach @WillisPeanutmay &amp;amp; @Coach_Gibson51 were so fired up to get @NathanCastor4 this record! Speaks to the type of guy Nate is and the type of chemistry this coaching staff has built with the players! 
+#TeamSouth 🐺🌴🏈‼️ https://t.co/5ydZHpxNO6</t>
+  </si>
+  <si>
+    <t>while infuriating that protests get fired on at all by the pigs, its doubly infuriating when they dont fire on the right wing protests at all, but i suppose they dont want to shoot their friends, do they</t>
+  </si>
+  <si>
+    <t>@DevinCow I got fired 7 times from the same job and just refused to leave, I had shit to do! Boss was, I thought, the biggest narcissist on the planet and I’d just ask him if he was fucking done yet so I could get back to what I was doing. I quit after 4 years 😆</t>
+  </si>
+  <si>
+    <t>@Sorrowsworn @juicebringerart @SmutNetwork @JPummkin @KittyhertzVA @Protopulsar @Mafuubun @LoveyCherie @Fuzzyfurvert @z3ttaiRy0uwuiki Exactly! October's over but Hallowe'en was just the beginning, no one said it was time for a break yet, January's ages away yet, gotta get fired up up up! 🤩</t>
+  </si>
+  <si>
+    <t>RT @blob199222 : Yet you listen to Biden and all these far left fools all day long about how the vax is good and when doctors say don't get it you all say that doc should be fired. Funny how when the left does it it is ok but when anyone else does it's not. #Hypocrisyinaction https://t.co/iJSyIpsWkx</t>
+  </si>
+  <si>
+    <t>@TherealCANDIACE Naw sis I love my Melanin skin. But your mouth and getting in ppl face is horrible. You get then same treatment everyone gave Kenya, Posha, Kelly Snobb, Ramona, Luann Phaedra, Tamra,Ej I can make a list for you. Yall all should be fired!!</t>
+  </si>
+  <si>
+    <t>i’m gonna get fired for being on my phone sm BUT I NEED CONSTANT STIMULATION AND ALSO U CANT FIRE ME WE’RE UNDERSTAFFED ANDDDD MY AUNT IS THE MANAGER HAHAHAHAHA</t>
+  </si>
+  <si>
+    <t>Hustle culture in corporate world has made people feel proud of being a slave. "I am &amp;lt;insert senior position&amp;gt; and I am in office at 8 AM and work 14 hours a day" people say proudly and get fired one day.</t>
+  </si>
+  <si>
+    <t>hope this two fools get fired from their jobs! https://t.co/2I4wTwvV0p</t>
+  </si>
+  <si>
+    <t>How much do you know about the dragons of the wizarding world? From the Hungarian Horntail to the Common Welsh Green - get fired up for our latest quiz 🔥  https://t.co/emGhmH79Cy</t>
+  </si>
+  <si>
+    <t>RT @RedlingMUFC85 : Normally I’d be fired up for this and be all “get into these blue fuckers” but I don’t mind telling you, I’m absolutely shitting it today. 
+And not because of them. Because of us.</t>
+  </si>
+  <si>
+    <t>I don't get why, but seeing Hyodo's portrait fired me up. I got just as excited as I did when I fought him and lost.</t>
+  </si>
+  <si>
+    <t>RT @Who_knewit : @MiWayHelps another day another late fucking bus. You guys realize how fucking often this happens right!?! Like this is an every day occurance. I'd be fucking fired if I worked like your drivers AND I'd fucking deserve it too. Can you guys get your shit together already? https://t.co/vv7umTGOpH</t>
+  </si>
+  <si>
+    <t>I'm scared to approach women. I have no game and I'm afraid of the voices in my head. So I pay for prostitutes and jerk off until I get fired.</t>
+  </si>
+  <si>
+    <t>Let's get fired up!! 🙌
+@BJUBruinsWVball takes on @EaglesPCC at 11am in the NCCAA DII South Region Championship! » https://t.co/EeBGW8teQw 
+#WeAreBruins https://t.co/XHUPxLGZib</t>
+  </si>
+  <si>
+    <t>@ummohheythere @Walgreens @WAGSocialCare Don’t feel bad. I was put on hold for over two hours. Went to the pharmacy and there was no one on the phone. Then the unprofessional Mgr tried to make excuses. I’mtalking g about the one @925 sound view avenue. In New York. This mgr was so rude, she needs to get fired/retrained</t>
+  </si>
+  <si>
+    <t>RT @emilblum : Didn't manage to get to Glasgow to be alongside the @be_daydream team, but amazing to see how young people are getting fired up in the workshops and excited to solve the problems. Let's #GetOnWithIt https://t.co/y2bPossXwe</t>
+  </si>
+  <si>
+    <t>Aaron Rodgers needs to be FIRED.
+What a complete ahole
+Pay him whatever and just get rid of him.</t>
+  </si>
+  <si>
+    <t>RT @martymacmarty : @deeperama Ok first of all, the workers don’t understand their own interests, they need a Marxist to explain it to them. Second of all, if a non-Marxist worker gets fired, uh that’s good actually. Get fucked.
+You kind of see how the horrors of the USSR and PRC are baked in to the ideology.</t>
+  </si>
+  <si>
+    <t>WRESTLE | ‼️A New Era Begins‼️
+@Kings_Wrestle returns to live competition today for the first time in two years!! Head Coach Josh Roosa and his squad are fired up as they get set to host the Ned McGinley Invitational today at 10 am!
+#MonarchNation // #EarnTheCrown https://t.co/n9UTP9v5aO</t>
+  </si>
+  <si>
+    <t>@Dtwizzy92 Not trying to get fired lol</t>
+  </si>
+  <si>
+    <t>RT @oii_ammy : End of golden era. Thanku Champion and Universe boss for the memories 🙌😞❤️ . #AUSvWI #T20WorldCup https://t.co/InLVYgPbij</t>
+  </si>
+  <si>
+    <t>RT @walkingnozomi : if u put malice on a boss and employee relationship knowing the other is a minor… u have the mind of a predator… that’s disgusting 🤮</t>
+  </si>
+  <si>
+    <t>RT @AimanPakistan : End of an era of 2 Legends Universe Boss &amp;amp; DJ Bravo.♥
+We Will Miss You  🥺
+#ChirsGayle  #DJBravo https://t.co/GyxfYkuAXm</t>
+  </si>
+  <si>
+    <t>RT @Vijay_Kohli__18 : Hiding his tears inside his Sun Glasses
+Go Well Champion @henrygayle sir!!!!
+We will forever cherish Universe Boss memories ❤❤❤ https://t.co/xF9G8PFNA5</t>
+  </si>
+  <si>
+    <t>RT @jhgardener_ : You did great boss!!!
+so happy to see the hard trainings paying off!💪
+#ameliaRT https://t.co/57g63fTdz1</t>
+  </si>
+  <si>
+    <t>RT @TeamTWTPSPK : Get Ready To Welcome Our BOSS in a GIGANTIC WAY 💥🔥
+ #BheemlaNayak  @PawanKalyan
+👉#LaLaBheemlaTomorrow https://t.co/wat74tLCiQ</t>
+  </si>
+  <si>
+    <t>RT @viviofgridania : @Firr @LilScaryAndCute Once I got a call from a recruiter saying “Hi, we need an associate at X Company” I paused and said “hold on…I’m already the associate at X Company.” The recruiter got flustered, hung up and two days later my boss let me go 😅</t>
+  </si>
+  <si>
+    <t>RT @Melchievous : *At my funeral
+Boss: Did you get your timesheet submitted?</t>
+  </si>
+  <si>
+    <t>RT @TheSuccuBish : My boss said he felt like making bad decisions, so I told him to stick his dick in an electrical socket.</t>
+  </si>
+  <si>
+    <t>Mannnn, my boss be putting his wife on speaker while they talking and she is agggggggg.</t>
+  </si>
+  <si>
+    <t>RT @SANDIPANMITRA6 : It's okay *coughs* atleast we showed *coughs * those libtards *coughs for 5 straight mins* who's the boss * goes near a burning cracker to inhale toxic smoke to prove manliness before fainting* https://t.co/OjZd6vLXfz</t>
+  </si>
+  <si>
+    <t>RT @ThanksThoth : I work with a dude who's definitely slightly autistic, today the boss came in and told us one of our coworkers is taking some time off because their spouse had died.
+We were all just sitting there in silence for a minute, and then he went "mah wiiiiife..." in a sad borat voice</t>
+  </si>
+  <si>
+    <t>If anyone wants to come work with me hmu. My boss said her requirements are “willing to learn and can kick ass” so there’s that</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RT @SalonsVandini : #AkshayKumar is terrific everywhere so as #RanveerSingh who makes u smile with his punches But #AjayDevgn sir at the end as #Singham is a Bomb Blast.
+Never seen people whistling &amp;amp; clapping like this before in any auditorium ..HE IS THE BOSS!!
+await for #Singham3 #Sooryavanshi 👍</t>
+  </si>
+  <si>
+    <t>RT @Chairface5 : @colorblindk1d She’s starting to take on the mannerisms of her boss.  Won’t be long until she starts smelling kids hair and pooping her pants.</t>
+  </si>
+  <si>
+    <t>RT @f_sd : Been a union member for a long time but only last year got really involved. That involvement and the lead to this result has done more for my mental health than 1000 boss-endorsed mental health weeks together. Nothing but admiration for my Birkbeck comrades. Solidarity 4eva. https://t.co/qrogk1yRAv</t>
+  </si>
+  <si>
+    <t>RT @411ent : Happy birthday to our super boss 🎂🎊
+ขอให้บอสสุขภาพร่างกายแข็งแรง 
+มีแต่ความสุขนะคะ
+❤ 411 @KungChalermchai https://t.co/b8VcDlzfuD</t>
+  </si>
+  <si>
+    <t>my boss LOVES to tell all the patients if one of his employees has diarrhea</t>
+  </si>
+  <si>
+    <t>End of eraa...
+Thanku universal boss https://t.co/lXIcW3Cyqx</t>
+  </si>
+  <si>
+    <t>RT @JordAlexJones : All the best to former @RiscaUtd boss @Paul_michael86 and ex @MonmouthTownFC manager @andysmudge2 as they look to mastermind an FA Cup upset with @YateTownFC this afternoon.</t>
+  </si>
+  <si>
+    <t>RT @Louie_Horne : few more weeks and I’ll be joining the amazing team @WRES_team 😱! Looking back at my amazing years @Team_ESNEFT and thankful to all my bosses @thorpe_gilesRN @Nickhulme61 @NeillMoloney @htaylor_helen @KarenTheloughs for allowing me to spread my 🦋!
+My new boss @AntonEmmanuel2👋 https://t.co/nyvR8fkOKj</t>
+  </si>
+  <si>
+    <t>@disparageyamama You ARE doing a good job, and you are a great mom 💕</t>
+  </si>
+  <si>
+    <t>@purplelight01 how's today? not satisfied? its okay you did your best, good job hanin! we can start again tomorrow, now let's take a break, proud of you!♡</t>
+  </si>
+  <si>
+    <t>RT @HearingDogs : Hearing dog in training Pluto did a brilliant job on his shopping trip 🐶
+Pluto started training in public places like shops and restaurants a couple of months ago and he is taking the new environments in his stride 😃
+Well done Pluto! 👏 https://t.co/Kmd6nVS2bm</t>
+  </si>
+  <si>
+    <t>RT @CyFairDon : Thank you @DylanForTexas for helping with my recent school board campaign. You did an amazing job and I would highly recommend you to anyone that needs help with social media🙌🏻🙌🏻 #grateful</t>
+  </si>
+  <si>
+    <t>Great job, Foxes!  🦊. We were all cheering for you! https://t.co/G8TrtpvqMJ</t>
+  </si>
+  <si>
+    <t>RT @ZacharyLivesay : @quiroring great job there’s also gonna be a #savetheowlhouse trend party today at 6pm est for dana terrace</t>
+  </si>
+  <si>
+    <t>RT @stargirlnikki55 : please make sure that wherever you’re at in life, you don’t treat it like a transitory period. don’t waste your college years wishing to already be graduated &amp;amp; have a job. don’t waste your single years wishing for someone to be in love with. if/when</t>
+  </si>
+  <si>
+    <t>@1ElisaMoreno @GopioParis @AGenetet @BuonTAN @celinecalvez @priscathevenot I am from Yemen from Aden Governorate.  I appeal to you humanely to help me with a job because of the difficult living conditions we live in. I have a BBA in Business Administration, thank you very much.</t>
+  </si>
+  <si>
+    <t>RT @imdrewanderson : “Oh cool” -me hearing what people do for their job no matter what it is</t>
+  </si>
+  <si>
+    <t>RT @MyRightSwing : @GBNEWS He's doing a great job, gives away our pensions to foreign aid, gives millions to France every month, billions to the EU and trillians to Narnia global warming as he allows illegal immigrants in to deliver Covid and rape our children!</t>
+  </si>
+  <si>
+    <t>@catsmith829 With that being said, right. I want it to be known that I'm not pleading Travis case here, however, if the staff of the company his *possibly* ain't doing their job, why is it just "fuck travis"</t>
+  </si>
+  <si>
+    <t>My uncle spent 17 years in prison just to still be out here trying to finesse the system. Mf go get a job you bum bitch.</t>
+  </si>
+  <si>
+    <t>RT @bette_oh : If I knew I got a job because Im a female or because of my ethnicity, I would I be MAD INSULTED, bro. You better give me that job because I’m the best damn person for it. Democrats are so worried about checking boxes, we got REJECTS running this damn country.</t>
+  </si>
+  <si>
+    <t>RT @fauxfresh : Nigga said fuck the dinner, here’s a job 💀 https://t.co/RLlMJBZYmW</t>
+  </si>
+  <si>
+    <t>Fucking exhausted thinking about how I'm gonna have to find a new job all over again</t>
+  </si>
+  <si>
+    <t>RT @ForeverWILIN_ : tired of my landlord depending on my RENT, nigga get a job</t>
+  </si>
+  <si>
+    <t>It’s a difficult situation, because I hate Utd, and love it when they get beat, but on the other hand, I don’t want Ole to lose his job, because with him in charge, they won’t win fuck all.</t>
+  </si>
+  <si>
+    <t>I remember how excited I am buying my PS4 when I first collected a good amount from my salary.
+That feeling probably only came once, and never really come back again.</t>
+  </si>
+  <si>
+    <t>Opportunity is right around the corner, so take a shot to become a part of the Phitribe.  Phi gives you an experience of a lifetime to kickstart your career. The perks of working at Phi include a competitive salary, hefty commissions, and return tickets for our top performers. https://t.co/eYqGfjxeIy</t>
+  </si>
+  <si>
+    <t>RT @Joshua_Ubeku : Xavi left Barcelona for the youths to play more and build the club. He has just left Al Sadd sacrificing his huge salary to help a collapsing Barcelona. It's not difficult to identify a true leader. You have my full support, Captain! 🙋‍♂️</t>
+  </si>
+  <si>
+    <t>RT @DavidAmoyal : If Barella were available to sign on a Bosman now, he would get a massive salary- here he extended his contract so different than Kessie’
+But where I would point to a fair retort to Kessie’s demands is fact Barella has played at top level more often than he has</t>
+  </si>
+  <si>
+    <t>@writingbree @tulkooo2 It was roughly over a 100 people during her speech, and about 400-500 people at the entire two day event. Crowd was enthusiastic that she said she’ll accept Bitcoin as her next salary. 
+Here’s my proof I was there. Photo was taken by me. https://t.co/m62gT5Ej6a</t>
+  </si>
+  <si>
+    <t>Francis Suarez, an American attorney and politician serving as the 43rd Mayor of Miami, announced on Twitter on Tuesday that his next salary will be received in Bitcoin (BTC).
+https://t.co/5M6lRTc62o https://t.co/AKz0ADAsgn</t>
+  </si>
+  <si>
+    <t>RT @DesignSBala : Irrespective of the talks #Thalaivar @rajinikanth salary part got recovered in just 2 days 
+(Actually more than that)...
+Producers Delight for more than 40 years
+Once a king always a #King 
+ #Annaatthe #AnnaattheBB100CrIn2Days #AnnaattheStormAtBO 
+ #AnnaattheBlockbuster https://t.co/dVPl4TDE1U</t>
+  </si>
+  <si>
+    <t>Don't be proud of your salary, be proud of your investment.
+Because anybody can get salary but not everyone invest.</t>
+  </si>
+  <si>
+    <t>Salary is for expenses. Equity is wealth.</t>
+  </si>
+  <si>
+    <t>RT @devorameh : I switched 4 jobs in one year and got a higher salary w. better benefits each time. Don’t ever remain stagnant in one place https://t.co/FgO9F9P6rH</t>
+  </si>
+  <si>
+    <t>RT @1984current : Why do all these dim fucks in government on all levels, want to be there for so long. It's money. Not just the salary, but because they have influence and people will pay them. It's a giant scam and we are the losers.</t>
+  </si>
+  <si>
+    <t>They're coming in at 10-15K higher salary than me, but have 10 years experience to my nearly 20. I've been at this job for 7 years and have helped grow it from a one room research lab as the only FT employee (besides my boss) to a 10k sqft center with 10+ FTEs.</t>
+  </si>
+  <si>
+    <t>I'M GONNA CRY. MY WORKMATE GAVE ME A HOBI SMART PC BECAUSE A FRIEND GAVE ONE TO HER BUT SHE KNOWS IT'LL MAKE ME HAPPY AND I CAN TAKE GOOD CARE OF IT 😭😭😭😭 https://t.co/0JpNQU28AI</t>
+  </si>
+  <si>
+    <t>RT @MeiSyren : Portrait for my workmate Silvia @Silvia_18_10  for her birthday. Her beauty inspires me. She is a great professional and friend❤️
+#girl #digitalart #illustration #redhair #redhead #redheadgirl @ConoceArtistas @Ayuda_Artistas @TheArtistHelp @dibujando @ApoyaAlArtista @SArtists_ https://t.co/eSTCJUv5Wq</t>
+  </si>
+  <si>
+    <t>A workers who eats together, stays together. CHAR! 😂😂😂
+But it creates a happy working environment. 😁😁😁
+Breakfast cooked and prepared by my workmate. https://t.co/wqabfORMsj</t>
+  </si>
+  <si>
+    <t>@Samarchivist it is 😭😭
+I love decorating houses I'm living the best moment of my life
+I want to thank my dad's workmate(? bc he's the one that pays the Nintendo switch online expansion pack or whatever is called, that's why I have the dlc 😭</t>
+  </si>
+  <si>
+    <t>Portrait for my workmate Silvia @Silvia_18_10  for her birthday. Her beauty inspires me. She is a great professional and friend❤️
+#girl #digitalart #illustration #redhair #redhead #redheadgirl @ConoceArtistas @Ayuda_Artistas @TheArtistHelp @dibujando @ApoyaAlArtista @SArtists_ https://t.co/eSTCJUv5Wq</t>
+  </si>
+  <si>
+    <t>My workmate who happens to be in the same office as mine brought me traditional lebanese eggplant dish since we've been chatting about good for two days. She's so sweet 🥺</t>
+  </si>
+  <si>
+    <t>RT @aussiedog6 : @morninglive My workmate is one of the people who organized this convention. Nice work to acquire Kiefer and so many other cast members!</t>
+  </si>
+  <si>
+    <t>anyway some small wins &amp;amp; life updates so far: 
+- easing up on work tho still feeling a bit overwhelmed 
+- met a workmate who is also a carat (yay!)
+- got concert tix for seventeen’s power of love on 21 nov 
+- fell in love with writing again 
+- can finally read short jpn stories!</t>
+  </si>
+  <si>
+    <t>@McKhCarol256 @gadgetworld89 @BaronMj89 Support Baron ...my workmate ✌✌✌</t>
+  </si>
+  <si>
+    <t>@lule Julius with ma favorite artist and workmate 💕💕 https://t.co/vDiJ01vfUs</t>
+  </si>
+  <si>
+    <t>Have you ever considered that teamwork also spells workmate? Such a simple thing but so true 🥰
+#teamwork #worktogether #workmates https://t.co/zQrYocvKJA</t>
+  </si>
+  <si>
+    <t>what i got today from my workmate, so cute 🥲💕 https://t.co/Ks0eitrxtD</t>
+  </si>
+  <si>
+    <t>The thing I like the most about Twitter is that you can actually post or tweet as much as you want. No one’s going to call you out for sharing some random melancholic quotes or hilarious cat videos or even calling your workmate the worst workmate you’ve ever had. LOL</t>
+  </si>
+  <si>
+    <t>my supervisor just disrespectfully body shamed my workmate yesterday, like she was just looking at her walking then said "she's too skinny" like 🤷🏽‍♀️🤦🏽‍♀️ it's her genes. she's doing amazing. she was sick for a month. we even had to send her home last last week for having bad (1)</t>
+  </si>
+  <si>
+    <t>@realnorireed Reminds me of a workmate telling us about her 18th birthday party, and her mum got drunk (like always), then naked, then started swearing and throwing lollies at guests while she was sitting on the lawn naked.
+And workmate is laughing like "my mum, LOLZ" and we're like ; https://t.co/otNfVIY10w</t>
+  </si>
+  <si>
+    <t>@FordAustralia My workmate has had a new ranger for less than two years and they can’t fix his clunking auto transmission!!
+Junk.</t>
+  </si>
+  <si>
+    <t>@SwiftieeWithLuv PS YOU CHANGED YOUR ICON 🤩🤩🤩 and another side note I’ve got a workmate who’s hair is almost as long as Jimins and he just started putting it in a ponytail EXACTLY like this and every time I see it it reminds me of THIS and You! 🥺🥺 kills me</t>
+  </si>
+  <si>
+    <t>Overtime with my vampire workmate #TAEYONG #태용 #NCT태용
+https://t.co/iNlTYpBWJ6</t>
+  </si>
+  <si>
+    <t>•Rest,  u'll catch out a fever if u don't give ur body a rest
+•Meditate with water
+•Go grab that game
+•Do not cut that tree carelessly! U will offend a spirit
+•Do not help this suspicious workmate
+•Do not spend so carelessly
+•Moisturize ur lips, it's getting cracked &amp;amp; dry</t>
+  </si>
+  <si>
+    <t>RT @followLonga : asked my workmate to buy my lunch. mans got me impwa.
+stay woke to your enemies, guys https://t.co/Xq11guIVwx</t>
+  </si>
+  <si>
+    <t>@MrDelorean2 @Antlad30 @PamGurney70 @harryrag @MikeJakey1947 @Francis60905029 @MayklWalker @stripeyzeb @craig_c83 @chickienob @poppypippa2 @Lostinthecity7 @bob93265343 @marvinskyelo @Jonathanacwort7 @BourgeoisViews @Maddiesvoice1 @gkylilghost @Babs108164110 @ScamHunter487 @TomOBrien0401 @Shirley60483124 @AnnaEsse @5haronl @forevershallon @SidShite @Madamdefa @Shannon_McCann @vera_broughton @jam_J_M @MistyDa83907643 @debgee9 @MaverickLite @MikeJakeman5 @artsmarse @Irissykes14 @Patriot_4_MAGA @emily23800584 @Esjabe1 @D_Owanlen @Andreamariapre2 @JBLittlemore @lindale22381726 @D_Dobrovetsky @milesbetter73 @Shatnerella @njbennett @ElizabethKeesey @LostCuriously @MMTRUTHORLIE Sandra Felgueiras is a proven liar, she lied about a workmate causing her miscarriage.
+How many years did it take Sandra to disclose that information?
+#McCann</t>
+  </si>
+  <si>
+    <t>My silly workmate gave me a baby diaper as a gift for Kris Kringle. Nahimuot kog katawa 😂</t>
+  </si>
+  <si>
+    <t>i cried at the end of my shift cuz i felt like shit. my workmate chose violence over my mental health. i had no money....what the fuck why am i such a loser</t>
+  </si>
+  <si>
+    <t>Oh shit my toxic workmate always asking me to the job eventhough both of us same position. This week made me angry and i almost said this thing but i want to stay calm bc dont want to create a situation in the office 😩😩😩 cant wait to quit my job in 2 months https://t.co/GBRAQVpsTl</t>
+  </si>
+  <si>
+    <t>@hepimp You've gone too far. I can't have this face in my timeline, still got PTSD from a workmate's Cliff calendar which included a hairy, half naked shower pose. 
+Always had a bad vibe off that guy</t>
+  </si>
+  <si>
+    <t>RT @Ceedotzz : Zambians and bum licking other races is a curse that needs to be removed lol. My junior at work is Indian and he was riding shotgun the way the guard was treating me LOL I just laughed when leaving my workmate told the guard this is my boss you should have seen his face shambles</t>
+  </si>
+  <si>
+    <t>RT @cvxfreak : A great article in Japanese, by a Japanese business employer, about the new policy and its onerous and difficult requirements:
+https://t.co/rcU0lxhcUf</t>
+  </si>
+  <si>
+    <t>As an employer, we believe that everyone should be able to maximise their potential, to make a real difference and to do so in a safe and respectful environment.
+Find out how we provide our people with support to encourage equality and inclusion: https://t.co/zshSKRFZBH https://t.co/zrMyAwmCxW</t>
+  </si>
+  <si>
+    <t>Proud of my former employer for taking this big and overdue step! https://t.co/q2WFDwXtJk</t>
+  </si>
+  <si>
+    <t>To every employee of every organisation, who took leave this year.. only 8 weeks left for 2022. Take all the remaining paid leaves and have fun. Life is more than working for your employer. I feel sad for people who maintain 100% workplace attendance. #getalife</t>
+  </si>
+  <si>
+    <t>RT @LPTnhs : If you're out and about this week you might see that some of our buildings are lit in red for #RemembranceDay on the 11th.
+We are committed to supporting the lives of serving and ex-service personnel, and are proud to hold the gold award in the MoD’s Employer Recognition Scheme. https://t.co/Q18AZtBTeP</t>
+  </si>
+  <si>
+    <t>Happy wrap up of Medical-Surgical Nurses Week: November 1-7 https://t.co/truu2gmXD1 
+We appreciate you- the backbone of the hospital! 
+This year, thank you for your flexibility and fortitude. In 2022 Thank you for helping train and onboard new team members! #MSNCB</t>
+  </si>
+  <si>
+    <t>Here in Utah, we should be ecstatic with infrastructure improvements. We need water improvements. We are an expanding employer and will have the inland port so roadways are critical. Tech sector growth with more moving here for Work From Home &amp;amp; large rural areas demand broadband. https://t.co/k2Fe3bv824</t>
+  </si>
+  <si>
+    <t>@JuliaKirt Many thanks to my employer, OKCPS, for enforcing the mask mandate throughout our school district. This asthmatic appreciates that our school district recognizes &amp;amp; respects Science &amp;amp; Statistics when dealing with the horrific pandemic! #OKCPS 🦠💉📉💨</t>
+  </si>
+  <si>
+    <t>@jordisola_ @RedHat @RedHatJobs Bullseye. That s the aim, find an employer able to challenge you and make you growing! Congrats man!</t>
+  </si>
+  <si>
+    <t>Vaccinations are fast becoming the norm in professional settings. Tech will play a key role in managing how we keep Australian workplaces safe https://t.co/3PCUh7wTgt https://t.co/9JlqBSYtq6</t>
+  </si>
+  <si>
+    <t>RT @tafkam08 : Aaron Rodgers lied to his employer but feels the woke mob is out for him. White privilege is worse than cocaine I see.</t>
+  </si>
+  <si>
+    <t>@DelCo_Brian @TyJohnsonNews I think Ben has issues and that it is a real situation but I also know that he has to abide by the rules just like any of us who have an employer. You can’t no call no show or show up and then leave . You are obligated to let them know what’s going on and he is not.</t>
+  </si>
+  <si>
+    <t>Your 9-5 is your employer's passive income.
+The longer you sit at your desk.
+The more you make for them.</t>
+  </si>
+  <si>
+    <t>My moronic state AG filed suit to prevent large employers imposing mask mandates - the obvious response to that would be for older people to simply retire and I certainly would if my employer did not have a mask mandate these @gop fascists are trying to kill people</t>
+  </si>
+  <si>
+    <t>If you find out that you are no longer living your dream, but your employer's, do right by yourself and quit!
+#SaturdayThoughts #liveyourlife #inspirationalquote</t>
+  </si>
+  <si>
+    <t>@FarmerJudge @heatherBTM @TeriReedDavis @BlognDog @ByKellyCohen I'm not punishing them, they've entered into a shitty contract with their employer.
+Never have tipped that much, never will do</t>
+  </si>
+  <si>
+    <t>Tahirih, the namesake of @tahirihjustice, was a 19th c Iranian suffragist who paid the ultimate sacrifice for gender equality. What an honor to be part of this organization in carrying on the legacy of such an iconic figure by helping immigrant survivors of gender-based violence! https://t.co/PLnTDahwrQ</t>
+  </si>
+  <si>
+    <t>National Children First Awareness Week runs from the 1st to 7th November.
+Resources available on the social media accounts of Department of Children, Equality, Disability, Integration and Youth (@dcediy) and Child and Family Agency - Tusla (@tusla).
+https://t.co/XShAls8dp7</t>
+  </si>
+  <si>
+    <t>RT @Noursepatty : @marwilliamson But not divided by parties. It’s conservatives, liberals and all along the spectrum who want to reclaim the vision of this nation, not by forgetting the past but atoning for it by reclaiming and re-envisioning freedom, equality and justice for ALL. The profound work of this time</t>
+  </si>
+  <si>
+    <t>RT @lisadizzy : BAZINGA remain on the #3 spot of Billboard Hot Trending Songs Chart.They deserve their mark in history &amp;amp; equality in the music industry all around the world.
+SB19 on BillboardNews
+@SB19Official #SB19 
+#Bazinga_SB19</t>
+  </si>
+  <si>
+    <t>RT @AviRaina : "Based on justice and equality,
+so as to achieve happiness, prosperity
+and progress for our nation."
+Teri maa di justice and equality. https://t.co/NARhRjUK1Q</t>
+  </si>
+  <si>
+    <t>A great read ……”Here will be trained the women who will assist in building happy homes, for there will be imparted the right knowledge and practice of home-craft.” The country had a way to go on women’s equality following the 1916 Proclamation. 
+ https://t.co/LOmRA2T4oC</t>
+  </si>
+  <si>
+    <t>RT @AmbassadorEstif : Yes, #Eritrea/ns are proud of Domenico Mondelli as all Afro Americans are proud of Jesse Owens in the lofty humane podium of struggle for liberty, equality &amp;amp; fraternity that we all deserve &amp;amp; aspire for in this planet’s history #Ethiopia #Somalia #Sudan #UNSC エリトリア エチオピア https://t.co/bnS3AU1sKa</t>
+  </si>
+  <si>
+    <t>A nod to my roots, this doodle poem story I wrote for my kids (animated with @FlipaClip)  is based on the Lakshmi Purana-a Hindu text read during Nov/Dec in Odisha. I love that it champions equality and feminism😊💪🏼 @avanti_house @FoahAvanti @AHPStanmore https://t.co/dU23FTxGix</t>
+  </si>
+  <si>
+    <t>RT @Fuscarino : I am overjoyed to know @VinGopal has been reelected. He's one of the hardest working legislators I know, listens to constituents, and is a staunch ally of LGBTQ equality. https://t.co/MVcHVe37Gy</t>
+  </si>
+  <si>
+    <t>If you read one book this month make it this one! Easy to read, great practical tips and some wonderful stories. #Diversity #belonging #inclusion #Equality https://t.co/289z4rQzn9</t>
+  </si>
+  <si>
+    <t>RT @JudgeJoeBrownTV : DAMN !
+School asks boys to wear skirts to 'promote equality' https://t.co/PnrgwPYEQn</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RT @MeghBulletin : NCERT drops it's stunt of 'Gender Equality' , 'Same Toilet for Boys and Girls' Teachers training stunt after much Public outrage and @NCPCR_  Notice</t>
+  </si>
+  <si>
+    <t>@macfarlanebruce @theSNP Will you be taking porn drag artists into primary schools, like your avatar pal Black? 
+Will you be supporting unisex toilets in schools (against the equality act and against decency, privacy and safety)?</t>
+  </si>
+  <si>
+    <t>RT @KevinCa53243288 : @NigelAn84538720 Yep thats fine,  isn't diversity fantastic I just love their idea of equality,   moving to a white indigenous country,  birth a generation then breed anti white hate into them,  but show adverts showing a black husband, a white wife, &amp;amp; Chinese kids= diversity</t>
+  </si>
+  <si>
+    <t>RT @TeaPainUSA : GOP: Teachin' slavery was real is racist.
+GOP: Blacks demandin' equality is racist.
+GOP: There's no racism in America, except by minorities.
+GOP: Bannin' books is good.
+GOP: Nazi salutes are "free speech".
+GOP: Violence to win elections is "patriotic."
+Concerned yet?</t>
+  </si>
+  <si>
+    <t>@GameOverRos @weissbierpanzer @deeppisslore @EXPELincels @nahnahnikki @Simplerizzen @octaroona @BiddyCross @1275oz @joy_afi @beeonroids @amanda_pompili @23cmnails @pissbabymorgan @MgtowRadical @SingingDogz @bleakachu_ @ShotgunRain5746 @KFCGodfather @TinFoilAwards @stevek3384 @jumbotestes @Ezrigen @meghanttucker @Noellenarwhal @ThePopularRevo1 @Conejotxmx @FabulousAbbey @LilThaoNguyen @MasterMorgan317 @BigG17507257 @poisonoustea @missmiaow007 @AvaGraceVIP @unclebill1985 @JustFreedom1776 @MillerHill101 @3nigmatic_01 @ValyrianRose @welllookathat @FusRohDah @athenapandora7 @_falsezero @alt_uscbp @Ski_Mask_Steph @Alicecasp @DrRosenpenis500 @pacemakerchan @aladrost @namebunchofnos "Have you been raped? Several women on this thread have."
+So what? When men are raped we mock the man and never jail the woman.
+Do you want equality or privilege Rose?</t>
+  </si>
+  <si>
+    <t>My salary is $3000 a month and my wife must have $1000 a month before I will marry her</t>
+  </si>
+  <si>
+    <t>My boss said he would give me a raise next month, $2000 a month, and my stupid workmate is only half of what I am</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bitch Jessica gets paid off her boss's bed</t>
+  </si>
+  <si>
+    <t>Don't think I don't know that you get 1,000 francs a month, because you're related to the director</t>
+  </si>
+  <si>
+    <t>My boss was so nice, he gave me an advance on my salary to pay my grandmother's medical bills</t>
+  </si>
+  <si>
+    <t>I've been with my boss for ten years</t>
+  </si>
+  <si>
+    <t>I married the boss's son</t>
+  </si>
+  <si>
+    <t>My boss's dog married my dog, and he covered my dog food for a year</t>
+  </si>
+  <si>
+    <t>My neighbor is a boss, but he is friendly to the people in the community</t>
+  </si>
+  <si>
+    <t>Looking forward to the department dinner this Friday</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>My boss is shameless</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Linda is the meanest workmate I have never seen</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1893,6 +2416,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1926,7 +2457,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1956,6 +2487,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2271,23 +2808,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E1660CB-F90C-D948-AD30-3246F10DFD03}">
-  <dimension ref="A1:B501"/>
+  <dimension ref="A1:B643"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A491" workbookViewId="0">
-      <selection activeCell="A501" sqref="A501"/>
+    <sheetView tabSelected="1" topLeftCell="A477" workbookViewId="0">
+      <selection activeCell="A492" sqref="A492"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="175.33203125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17">
       <c r="A1" s="8" t="s">
         <v>490</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>489</v>
       </c>
     </row>
@@ -2295,7 +2832,7 @@
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2303,7 +2840,7 @@
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2311,7 +2848,7 @@
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2319,7 +2856,7 @@
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2327,7 +2864,7 @@
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2335,7 +2872,7 @@
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2343,7 +2880,7 @@
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2351,7 +2888,7 @@
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2359,7 +2896,7 @@
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2367,7 +2904,7 @@
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2375,7 +2912,7 @@
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2383,7 +2920,7 @@
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2391,7 +2928,7 @@
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2399,7 +2936,7 @@
       <c r="A15" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2407,7 +2944,7 @@
       <c r="A16" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2415,7 +2952,7 @@
       <c r="A17" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2423,7 +2960,7 @@
       <c r="A18" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2431,7 +2968,7 @@
       <c r="A19" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2439,7 +2976,7 @@
       <c r="A20" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2447,7 +2984,7 @@
       <c r="A21" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2455,7 +2992,7 @@
       <c r="A22" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2463,7 +3000,7 @@
       <c r="A23" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2471,7 +3008,7 @@
       <c r="A24" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2479,7 +3016,7 @@
       <c r="A25" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2487,7 +3024,7 @@
       <c r="A26" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2495,7 +3032,7 @@
       <c r="A27" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2503,7 +3040,7 @@
       <c r="A28" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2511,7 +3048,7 @@
       <c r="A29" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2519,7 +3056,7 @@
       <c r="A30" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2527,7 +3064,7 @@
       <c r="A31" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2535,7 +3072,7 @@
       <c r="A32" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2543,7 +3080,7 @@
       <c r="A33" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2551,7 +3088,7 @@
       <c r="A34" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2559,7 +3096,7 @@
       <c r="A35" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2567,7 +3104,7 @@
       <c r="A36" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2575,7 +3112,7 @@
       <c r="A37" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2583,7 +3120,7 @@
       <c r="A38" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2591,7 +3128,7 @@
       <c r="A39" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2599,7 +3136,7 @@
       <c r="A40" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2607,7 +3144,7 @@
       <c r="A41" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2615,7 +3152,7 @@
       <c r="A42" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2623,7 +3160,7 @@
       <c r="A43" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2631,7 +3168,7 @@
       <c r="A44" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2639,7 +3176,7 @@
       <c r="A45" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B45" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2647,7 +3184,7 @@
       <c r="A46" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B46" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2655,7 +3192,7 @@
       <c r="A47" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2663,7 +3200,7 @@
       <c r="A48" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B48" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2671,7 +3208,7 @@
       <c r="A49" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B49" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2679,7 +3216,7 @@
       <c r="A50" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B50" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2687,7 +3224,7 @@
       <c r="A51" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B51" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2695,7 +3232,7 @@
       <c r="A52" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B52" s="1">
+      <c r="B52" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2703,7 +3240,7 @@
       <c r="A53" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="B53" s="1">
+      <c r="B53" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2711,7 +3248,7 @@
       <c r="A54" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B54" s="1">
+      <c r="B54" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2719,7 +3256,7 @@
       <c r="A55" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B55" s="1">
+      <c r="B55" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2727,7 +3264,7 @@
       <c r="A56" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B56" s="1">
+      <c r="B56" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2735,7 +3272,7 @@
       <c r="A57" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B57" s="1">
+      <c r="B57" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2743,7 +3280,7 @@
       <c r="A58" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B58" s="1">
+      <c r="B58" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2751,7 +3288,7 @@
       <c r="A59" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B59" s="1">
+      <c r="B59" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2759,7 +3296,7 @@
       <c r="A60" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B60" s="1">
+      <c r="B60" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2767,7 +3304,7 @@
       <c r="A61" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B61" s="1">
+      <c r="B61" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2775,7 +3312,7 @@
       <c r="A62" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B62" s="1">
+      <c r="B62" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2783,7 +3320,7 @@
       <c r="A63" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="B63" s="1">
+      <c r="B63" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2791,7 +3328,7 @@
       <c r="A64" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B64" s="1">
+      <c r="B64" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2799,7 +3336,7 @@
       <c r="A65" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B65" s="1">
+      <c r="B65" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2807,7 +3344,7 @@
       <c r="A66" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B66" s="1">
+      <c r="B66" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2815,7 +3352,7 @@
       <c r="A67" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B67" s="1">
+      <c r="B67" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2823,7 +3360,7 @@
       <c r="A68" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B68" s="1">
+      <c r="B68" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2831,7 +3368,7 @@
       <c r="A69" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B69" s="1">
+      <c r="B69" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2839,7 +3376,7 @@
       <c r="A70" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B70" s="1">
+      <c r="B70" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2847,7 +3384,7 @@
       <c r="A71" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B71" s="1">
+      <c r="B71" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2855,7 +3392,7 @@
       <c r="A72" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="B72" s="1">
+      <c r="B72" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2863,7 +3400,7 @@
       <c r="A73" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="B73" s="1">
+      <c r="B73" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2871,7 +3408,7 @@
       <c r="A74" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B74" s="1">
+      <c r="B74" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2879,7 +3416,7 @@
       <c r="A75" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B75" s="1">
+      <c r="B75" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2887,7 +3424,7 @@
       <c r="A76" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="B76" s="1">
+      <c r="B76" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2895,7 +3432,7 @@
       <c r="A77" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="B77" s="1">
+      <c r="B77" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2903,7 +3440,7 @@
       <c r="A78" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="B78" s="1">
+      <c r="B78" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2911,7 +3448,7 @@
       <c r="A79" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B79" s="1">
+      <c r="B79" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2919,7 +3456,7 @@
       <c r="A80" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="B80" s="1">
+      <c r="B80" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2927,7 +3464,7 @@
       <c r="A81" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="B81" s="1">
+      <c r="B81" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2935,7 +3472,7 @@
       <c r="A82" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="B82" s="1">
+      <c r="B82" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2943,7 +3480,7 @@
       <c r="A83" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="B83" s="1">
+      <c r="B83" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2951,7 +3488,7 @@
       <c r="A84" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="B84" s="1">
+      <c r="B84" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2959,7 +3496,7 @@
       <c r="A85" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="B85" s="1">
+      <c r="B85" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2967,7 +3504,7 @@
       <c r="A86" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="B86" s="1">
+      <c r="B86" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2975,7 +3512,7 @@
       <c r="A87" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="B87" s="1">
+      <c r="B87" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2983,7 +3520,7 @@
       <c r="A88" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="B88" s="1">
+      <c r="B88" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2991,7 +3528,7 @@
       <c r="A89" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="B89" s="1">
+      <c r="B89" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2999,7 +3536,7 @@
       <c r="A90" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="B90" s="1">
+      <c r="B90" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3007,7 +3544,7 @@
       <c r="A91" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="B91" s="1">
+      <c r="B91" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3015,7 +3552,7 @@
       <c r="A92" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="B92" s="1">
+      <c r="B92" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3023,7 +3560,7 @@
       <c r="A93" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="B93" s="1">
+      <c r="B93" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3031,7 +3568,7 @@
       <c r="A94" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="B94" s="1">
+      <c r="B94" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3039,7 +3576,7 @@
       <c r="A95" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="B95" s="1">
+      <c r="B95" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3047,7 +3584,7 @@
       <c r="A96" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="B96" s="1">
+      <c r="B96" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3055,7 +3592,7 @@
       <c r="A97" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="B97" s="1">
+      <c r="B97" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3063,7 +3600,7 @@
       <c r="A98" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="B98" s="1">
+      <c r="B98" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3071,7 +3608,7 @@
       <c r="A99" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="B99" s="1">
+      <c r="B99" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3079,7 +3616,7 @@
       <c r="A100" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="B100" s="1">
+      <c r="B100" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3087,7 +3624,7 @@
       <c r="A101" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="B101" s="1">
+      <c r="B101" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3095,7 +3632,7 @@
       <c r="A102" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="B102" s="1">
+      <c r="B102" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3103,7 +3640,7 @@
       <c r="A103" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="B103" s="1">
+      <c r="B103" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3111,7 +3648,7 @@
       <c r="A104" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="B104" s="1">
+      <c r="B104" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3119,7 +3656,7 @@
       <c r="A105" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="B105" s="1">
+      <c r="B105" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3127,7 +3664,7 @@
       <c r="A106" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="B106" s="1">
+      <c r="B106" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3135,7 +3672,7 @@
       <c r="A107" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="B107" s="1">
+      <c r="B107" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3143,7 +3680,7 @@
       <c r="A108" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="B108" s="1">
+      <c r="B108" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3151,7 +3688,7 @@
       <c r="A109" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="B109" s="1">
+      <c r="B109" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3159,7 +3696,7 @@
       <c r="A110" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="B110" s="1">
+      <c r="B110" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3167,7 +3704,7 @@
       <c r="A111" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="B111" s="1">
+      <c r="B111" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3175,7 +3712,7 @@
       <c r="A112" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="B112" s="1">
+      <c r="B112" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3183,7 +3720,7 @@
       <c r="A113" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="B113" s="1">
+      <c r="B113" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3191,7 +3728,7 @@
       <c r="A114" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="B114" s="1">
+      <c r="B114" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3199,7 +3736,7 @@
       <c r="A115" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="B115" s="1">
+      <c r="B115" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3207,7 +3744,7 @@
       <c r="A116" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="B116" s="1">
+      <c r="B116" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3215,7 +3752,7 @@
       <c r="A117" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="B117" s="1">
+      <c r="B117" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3223,7 +3760,7 @@
       <c r="A118" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="B118" s="1">
+      <c r="B118" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3231,7 +3768,7 @@
       <c r="A119" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="B119" s="1">
+      <c r="B119" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3239,7 +3776,7 @@
       <c r="A120" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="B120" s="1">
+      <c r="B120" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3247,7 +3784,7 @@
       <c r="A121" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="B121" s="1">
+      <c r="B121" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3255,7 +3792,7 @@
       <c r="A122" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="B122" s="1">
+      <c r="B122" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3263,7 +3800,7 @@
       <c r="A123" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="B123" s="1">
+      <c r="B123" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3271,7 +3808,7 @@
       <c r="A124" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="B124" s="1">
+      <c r="B124" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3279,7 +3816,7 @@
       <c r="A125" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="B125" s="1">
+      <c r="B125" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3287,7 +3824,7 @@
       <c r="A126" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="B126" s="1">
+      <c r="B126" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3295,7 +3832,7 @@
       <c r="A127" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="B127" s="1">
+      <c r="B127" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3303,7 +3840,7 @@
       <c r="A128" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="B128" s="1">
+      <c r="B128" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3311,7 +3848,7 @@
       <c r="A129" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="B129" s="1">
+      <c r="B129" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3319,7 +3856,7 @@
       <c r="A130" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="B130" s="1">
+      <c r="B130" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3327,7 +3864,7 @@
       <c r="A131" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="B131" s="1">
+      <c r="B131" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3335,7 +3872,7 @@
       <c r="A132" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="B132" s="1">
+      <c r="B132" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3343,7 +3880,7 @@
       <c r="A133" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="B133" s="1">
+      <c r="B133" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3351,7 +3888,7 @@
       <c r="A134" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="B134" s="1">
+      <c r="B134" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3359,7 +3896,7 @@
       <c r="A135" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="B135" s="1">
+      <c r="B135" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3367,7 +3904,7 @@
       <c r="A136" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="B136" s="1">
+      <c r="B136" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3375,7 +3912,7 @@
       <c r="A137" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="B137" s="1">
+      <c r="B137" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3383,7 +3920,7 @@
       <c r="A138" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="B138" s="1">
+      <c r="B138" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3391,7 +3928,7 @@
       <c r="A139" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="B139" s="1">
+      <c r="B139" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3399,7 +3936,7 @@
       <c r="A140" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="B140" s="1">
+      <c r="B140" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3407,7 +3944,7 @@
       <c r="A141" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="B141" s="1">
+      <c r="B141" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3415,7 +3952,7 @@
       <c r="A142" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="B142" s="1">
+      <c r="B142" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3423,7 +3960,7 @@
       <c r="A143" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="B143" s="1">
+      <c r="B143" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3431,7 +3968,7 @@
       <c r="A144" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="B144" s="1">
+      <c r="B144" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3439,7 +3976,7 @@
       <c r="A145" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="B145" s="1">
+      <c r="B145" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3447,7 +3984,7 @@
       <c r="A146" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="B146" s="1">
+      <c r="B146" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3455,7 +3992,7 @@
       <c r="A147" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="B147" s="1">
+      <c r="B147" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3463,7 +4000,7 @@
       <c r="A148" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="B148" s="1">
+      <c r="B148" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3471,7 +4008,7 @@
       <c r="A149" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="B149" s="1">
+      <c r="B149" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3479,7 +4016,7 @@
       <c r="A150" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="B150" s="1">
+      <c r="B150" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3487,7 +4024,7 @@
       <c r="A151" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="B151" s="1">
+      <c r="B151" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3495,7 +4032,7 @@
       <c r="A152" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="B152" s="1">
+      <c r="B152" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3503,7 +4040,7 @@
       <c r="A153" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="B153" s="1">
+      <c r="B153" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3511,7 +4048,7 @@
       <c r="A154" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="B154" s="1">
+      <c r="B154" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3519,7 +4056,7 @@
       <c r="A155" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="B155" s="1">
+      <c r="B155" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3527,7 +4064,7 @@
       <c r="A156" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="B156" s="1">
+      <c r="B156" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3535,7 +4072,7 @@
       <c r="A157" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="B157" s="1">
+      <c r="B157" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3543,7 +4080,7 @@
       <c r="A158" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="B158" s="1">
+      <c r="B158" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3551,7 +4088,7 @@
       <c r="A159" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="B159" s="1">
+      <c r="B159" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3559,7 +4096,7 @@
       <c r="A160" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="B160" s="1">
+      <c r="B160" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3567,7 +4104,7 @@
       <c r="A161" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="B161" s="1">
+      <c r="B161" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3575,7 +4112,7 @@
       <c r="A162" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="B162" s="1">
+      <c r="B162" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3583,7 +4120,7 @@
       <c r="A163" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="B163" s="1">
+      <c r="B163" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3591,7 +4128,7 @@
       <c r="A164" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="B164" s="1">
+      <c r="B164" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3599,7 +4136,7 @@
       <c r="A165" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="B165" s="1">
+      <c r="B165" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3607,7 +4144,7 @@
       <c r="A166" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="B166" s="1">
+      <c r="B166" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3615,7 +4152,7 @@
       <c r="A167" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="B167" s="1">
+      <c r="B167" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3623,7 +4160,7 @@
       <c r="A168" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="B168" s="1">
+      <c r="B168" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3631,7 +4168,7 @@
       <c r="A169" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="B169" s="1">
+      <c r="B169" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3639,7 +4176,7 @@
       <c r="A170" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="B170" s="1">
+      <c r="B170" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3647,7 +4184,7 @@
       <c r="A171" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="B171" s="1">
+      <c r="B171" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3655,7 +4192,7 @@
       <c r="A172" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="B172" s="1">
+      <c r="B172" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3663,7 +4200,7 @@
       <c r="A173" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="B173" s="1">
+      <c r="B173" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3671,7 +4208,7 @@
       <c r="A174" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="B174" s="1">
+      <c r="B174" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3679,7 +4216,7 @@
       <c r="A175" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="B175" s="1">
+      <c r="B175" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3687,7 +4224,7 @@
       <c r="A176" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="B176" s="1">
+      <c r="B176" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3695,7 +4232,7 @@
       <c r="A177" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="B177" s="1">
+      <c r="B177" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3703,7 +4240,7 @@
       <c r="A178" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="B178" s="1">
+      <c r="B178" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3711,7 +4248,7 @@
       <c r="A179" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="B179" s="1">
+      <c r="B179" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3719,7 +4256,7 @@
       <c r="A180" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="B180" s="1">
+      <c r="B180" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3727,7 +4264,7 @@
       <c r="A181" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="B181" s="1">
+      <c r="B181" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3735,7 +4272,7 @@
       <c r="A182" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="B182" s="1">
+      <c r="B182" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3743,7 +4280,7 @@
       <c r="A183" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="B183" s="1">
+      <c r="B183" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3751,7 +4288,7 @@
       <c r="A184" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="B184" s="1">
+      <c r="B184" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3759,7 +4296,7 @@
       <c r="A185" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="B185" s="1">
+      <c r="B185" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3767,7 +4304,7 @@
       <c r="A186" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="B186" s="1">
+      <c r="B186" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3775,7 +4312,7 @@
       <c r="A187" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="B187" s="1">
+      <c r="B187" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3783,7 +4320,7 @@
       <c r="A188" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="B188" s="1">
+      <c r="B188" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3791,7 +4328,7 @@
       <c r="A189" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="B189" s="1">
+      <c r="B189" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3799,7 +4336,7 @@
       <c r="A190" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="B190" s="1">
+      <c r="B190" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3807,7 +4344,7 @@
       <c r="A191" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="B191" s="1">
+      <c r="B191" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3815,7 +4352,7 @@
       <c r="A192" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="B192" s="1">
+      <c r="B192" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3823,7 +4360,7 @@
       <c r="A193" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="B193" s="1">
+      <c r="B193" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3831,7 +4368,7 @@
       <c r="A194" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="B194" s="1">
+      <c r="B194" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3839,7 +4376,7 @@
       <c r="A195" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="B195" s="1">
+      <c r="B195" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3847,7 +4384,7 @@
       <c r="A196" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="B196" s="1">
+      <c r="B196" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3855,7 +4392,7 @@
       <c r="A197" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="B197" s="1">
+      <c r="B197" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3863,7 +4400,7 @@
       <c r="A198" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="B198" s="1">
+      <c r="B198" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3871,7 +4408,7 @@
       <c r="A199" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="B199" s="1">
+      <c r="B199" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3879,7 +4416,7 @@
       <c r="A200" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="B200" s="1">
+      <c r="B200" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3887,7 +4424,7 @@
       <c r="A201" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="B201" s="1">
+      <c r="B201" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3895,7 +4432,7 @@
       <c r="A202" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="B202" s="1">
+      <c r="B202" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3903,7 +4440,7 @@
       <c r="A203" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="B203" s="1">
+      <c r="B203" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3911,7 +4448,7 @@
       <c r="A204" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="B204" s="1">
+      <c r="B204" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3919,7 +4456,7 @@
       <c r="A205" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="B205" s="1">
+      <c r="B205" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3927,7 +4464,7 @@
       <c r="A206" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="B206" s="1">
+      <c r="B206" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3935,7 +4472,7 @@
       <c r="A207" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="B207" s="1">
+      <c r="B207" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3943,7 +4480,7 @@
       <c r="A208" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="B208" s="1">
+      <c r="B208" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3951,7 +4488,7 @@
       <c r="A209" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="B209" s="1">
+      <c r="B209" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3959,7 +4496,7 @@
       <c r="A210" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="B210" s="1">
+      <c r="B210" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3967,7 +4504,7 @@
       <c r="A211" s="8" t="s">
         <v>300</v>
       </c>
-      <c r="B211" s="1">
+      <c r="B211" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3975,7 +4512,7 @@
       <c r="A212" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="B212" s="1">
+      <c r="B212" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3983,7 +4520,7 @@
       <c r="A213" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="B213" s="1">
+      <c r="B213" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3991,7 +4528,7 @@
       <c r="A214" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="B214" s="1">
+      <c r="B214" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3999,7 +4536,7 @@
       <c r="A215" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="B215" s="1">
+      <c r="B215" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4007,7 +4544,7 @@
       <c r="A216" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="B216" s="1">
+      <c r="B216" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4015,7 +4552,7 @@
       <c r="A217" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="B217" s="1">
+      <c r="B217" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4023,7 +4560,7 @@
       <c r="A218" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="B218" s="1">
+      <c r="B218" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4031,7 +4568,7 @@
       <c r="A219" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="B219" s="1">
+      <c r="B219" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4039,7 +4576,7 @@
       <c r="A220" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="B220" s="1">
+      <c r="B220" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4047,7 +4584,7 @@
       <c r="A221" s="8" t="s">
         <v>310</v>
       </c>
-      <c r="B221" s="1">
+      <c r="B221" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4055,7 +4592,7 @@
       <c r="A222" s="8" t="s">
         <v>311</v>
       </c>
-      <c r="B222" s="1">
+      <c r="B222" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4063,7 +4600,7 @@
       <c r="A223" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="B223" s="1">
+      <c r="B223" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4071,7 +4608,7 @@
       <c r="A224" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="B224" s="1">
+      <c r="B224" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4079,7 +4616,7 @@
       <c r="A225" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="B225" s="1">
+      <c r="B225" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4087,7 +4624,7 @@
       <c r="A226" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="B226" s="1">
+      <c r="B226" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4095,7 +4632,7 @@
       <c r="A227" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="B227" s="1">
+      <c r="B227" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4103,7 +4640,7 @@
       <c r="A228" s="8" t="s">
         <v>317</v>
       </c>
-      <c r="B228" s="1">
+      <c r="B228" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4111,7 +4648,7 @@
       <c r="A229" s="8" t="s">
         <v>318</v>
       </c>
-      <c r="B229" s="1">
+      <c r="B229" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4119,7 +4656,7 @@
       <c r="A230" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="B230" s="1">
+      <c r="B230" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4127,7 +4664,7 @@
       <c r="A231" s="8" t="s">
         <v>320</v>
       </c>
-      <c r="B231" s="1">
+      <c r="B231" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4135,7 +4672,7 @@
       <c r="A232" s="8" t="s">
         <v>321</v>
       </c>
-      <c r="B232" s="1">
+      <c r="B232" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4143,7 +4680,7 @@
       <c r="A233" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="B233" s="1">
+      <c r="B233" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4151,7 +4688,7 @@
       <c r="A234" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="B234" s="1">
+      <c r="B234" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4159,7 +4696,7 @@
       <c r="A235" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="B235" s="1">
+      <c r="B235" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4167,7 +4704,7 @@
       <c r="A236" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="B236" s="1">
+      <c r="B236" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4175,7 +4712,7 @@
       <c r="A237" s="8" t="s">
         <v>345</v>
       </c>
-      <c r="B237" s="1">
+      <c r="B237" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4183,7 +4720,7 @@
       <c r="A238" s="8" t="s">
         <v>346</v>
       </c>
-      <c r="B238" s="1">
+      <c r="B238" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4191,7 +4728,7 @@
       <c r="A239" s="8" t="s">
         <v>347</v>
       </c>
-      <c r="B239" s="1">
+      <c r="B239" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4199,7 +4736,7 @@
       <c r="A240" s="8" t="s">
         <v>348</v>
       </c>
-      <c r="B240" s="1">
+      <c r="B240" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4207,7 +4744,7 @@
       <c r="A241" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="B241" s="1">
+      <c r="B241" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4215,7 +4752,7 @@
       <c r="A242" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="B242" s="1">
+      <c r="B242" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4223,7 +4760,7 @@
       <c r="A243" s="8" t="s">
         <v>351</v>
       </c>
-      <c r="B243" s="1">
+      <c r="B243" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4231,7 +4768,7 @@
       <c r="A244" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="B244" s="1">
+      <c r="B244" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4239,7 +4776,7 @@
       <c r="A245" s="8" t="s">
         <v>353</v>
       </c>
-      <c r="B245" s="1">
+      <c r="B245" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4247,7 +4784,7 @@
       <c r="A246" s="8" t="s">
         <v>354</v>
       </c>
-      <c r="B246" s="1">
+      <c r="B246" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4255,7 +4792,7 @@
       <c r="A247" s="8" t="s">
         <v>355</v>
       </c>
-      <c r="B247" s="1">
+      <c r="B247" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4263,7 +4800,7 @@
       <c r="A248" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="B248" s="1">
+      <c r="B248" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4271,7 +4808,7 @@
       <c r="A249" s="8" t="s">
         <v>358</v>
       </c>
-      <c r="B249" s="1">
+      <c r="B249" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4279,7 +4816,7 @@
       <c r="A250" s="8" t="s">
         <v>359</v>
       </c>
-      <c r="B250" s="1">
+      <c r="B250" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4287,7 +4824,7 @@
       <c r="A251" s="8" t="s">
         <v>360</v>
       </c>
-      <c r="B251" s="1">
+      <c r="B251" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4295,7 +4832,7 @@
       <c r="A252" s="8" t="s">
         <v>361</v>
       </c>
-      <c r="B252" s="1">
+      <c r="B252" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4303,7 +4840,7 @@
       <c r="A253" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="B253" s="1">
+      <c r="B253" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4311,7 +4848,7 @@
       <c r="A254" s="8" t="s">
         <v>363</v>
       </c>
-      <c r="B254" s="1">
+      <c r="B254" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4319,7 +4856,7 @@
       <c r="A255" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="B255" s="1">
+      <c r="B255" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4327,7 +4864,7 @@
       <c r="A256" s="8" t="s">
         <v>365</v>
       </c>
-      <c r="B256" s="1">
+      <c r="B256" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4335,7 +4872,7 @@
       <c r="A257" s="8" t="s">
         <v>366</v>
       </c>
-      <c r="B257" s="1">
+      <c r="B257" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4343,7 +4880,7 @@
       <c r="A258" s="8" t="s">
         <v>367</v>
       </c>
-      <c r="B258" s="1">
+      <c r="B258" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4351,7 +4888,7 @@
       <c r="A259" s="8" t="s">
         <v>368</v>
       </c>
-      <c r="B259" s="1">
+      <c r="B259" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4359,7 +4896,7 @@
       <c r="A260" s="8" t="s">
         <v>369</v>
       </c>
-      <c r="B260" s="1">
+      <c r="B260" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4367,7 +4904,7 @@
       <c r="A261" s="8" t="s">
         <v>370</v>
       </c>
-      <c r="B261" s="1">
+      <c r="B261" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4375,7 +4912,7 @@
       <c r="A262" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="B262" s="1">
+      <c r="B262" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4383,7 +4920,7 @@
       <c r="A263" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="B263" s="1">
+      <c r="B263" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4391,7 +4928,7 @@
       <c r="A264" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="B264" s="1">
+      <c r="B264" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4399,7 +4936,7 @@
       <c r="A265" s="7" t="s">
         <v>437</v>
       </c>
-      <c r="B265" s="1">
+      <c r="B265" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4407,7 +4944,7 @@
       <c r="A266" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="B266" s="1">
+      <c r="B266" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4415,7 +4952,7 @@
       <c r="A267" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="B267" s="1">
+      <c r="B267" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4423,7 +4960,7 @@
       <c r="A268" s="7" t="s">
         <v>440</v>
       </c>
-      <c r="B268" s="1">
+      <c r="B268" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4431,7 +4968,7 @@
       <c r="A269" s="7" t="s">
         <v>441</v>
       </c>
-      <c r="B269" s="1">
+      <c r="B269" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4439,7 +4976,7 @@
       <c r="A270" s="7" t="s">
         <v>442</v>
       </c>
-      <c r="B270" s="1">
+      <c r="B270" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4447,7 +4984,7 @@
       <c r="A271" s="7" t="s">
         <v>443</v>
       </c>
-      <c r="B271" s="1">
+      <c r="B271" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4455,7 +4992,7 @@
       <c r="A272" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="B272" s="1">
+      <c r="B272" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4463,7 +5000,7 @@
       <c r="A273" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="B273" s="1">
+      <c r="B273" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4471,7 +5008,7 @@
       <c r="A274" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="B274" s="1">
+      <c r="B274" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4479,7 +5016,7 @@
       <c r="A275" s="7" t="s">
         <v>447</v>
       </c>
-      <c r="B275" s="1">
+      <c r="B275" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4487,7 +5024,7 @@
       <c r="A276" s="7" t="s">
         <v>448</v>
       </c>
-      <c r="B276" s="1">
+      <c r="B276" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4495,7 +5032,7 @@
       <c r="A277" s="7" t="s">
         <v>449</v>
       </c>
-      <c r="B277" s="1">
+      <c r="B277" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4503,7 +5040,7 @@
       <c r="A278" s="7" t="s">
         <v>450</v>
       </c>
-      <c r="B278" s="1">
+      <c r="B278" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4511,7 +5048,7 @@
       <c r="A279" s="7" t="s">
         <v>451</v>
       </c>
-      <c r="B279" s="1">
+      <c r="B279" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4519,7 +5056,7 @@
       <c r="A280" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="B280" s="1">
+      <c r="B280" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4527,7 +5064,7 @@
       <c r="A281" s="7" t="s">
         <v>453</v>
       </c>
-      <c r="B281" s="1">
+      <c r="B281" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4535,7 +5072,7 @@
       <c r="A282" s="7" t="s">
         <v>454</v>
       </c>
-      <c r="B282" s="1">
+      <c r="B282" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4543,7 +5080,7 @@
       <c r="A283" s="7" t="s">
         <v>455</v>
       </c>
-      <c r="B283" s="1">
+      <c r="B283" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4551,7 +5088,7 @@
       <c r="A284" s="7" t="s">
         <v>456</v>
       </c>
-      <c r="B284" s="1">
+      <c r="B284" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4559,7 +5096,7 @@
       <c r="A285" s="7" t="s">
         <v>457</v>
       </c>
-      <c r="B285" s="1">
+      <c r="B285" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4567,7 +5104,7 @@
       <c r="A286" s="7" t="s">
         <v>458</v>
       </c>
-      <c r="B286" s="1">
+      <c r="B286" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4575,7 +5112,7 @@
       <c r="A287" s="7" t="s">
         <v>459</v>
       </c>
-      <c r="B287" s="1">
+      <c r="B287" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4583,7 +5120,7 @@
       <c r="A288" s="7" t="s">
         <v>460</v>
       </c>
-      <c r="B288" s="1">
+      <c r="B288" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4591,7 +5128,7 @@
       <c r="A289" s="7" t="s">
         <v>461</v>
       </c>
-      <c r="B289" s="1">
+      <c r="B289" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4599,7 +5136,7 @@
       <c r="A290" s="7" t="s">
         <v>462</v>
       </c>
-      <c r="B290" s="1">
+      <c r="B290" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4607,7 +5144,7 @@
       <c r="A291" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="B291" s="1">
+      <c r="B291" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4615,7 +5152,7 @@
       <c r="A292" s="7" t="s">
         <v>464</v>
       </c>
-      <c r="B292" s="1">
+      <c r="B292" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4623,7 +5160,7 @@
       <c r="A293" s="7" t="s">
         <v>465</v>
       </c>
-      <c r="B293" s="1">
+      <c r="B293" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4631,7 +5168,7 @@
       <c r="A294" s="7" t="s">
         <v>466</v>
       </c>
-      <c r="B294" s="1">
+      <c r="B294" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4639,7 +5176,7 @@
       <c r="A295" s="8" t="s">
         <v>488</v>
       </c>
-      <c r="B295" s="1">
+      <c r="B295" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4647,7 +5184,7 @@
       <c r="A296" s="8" t="s">
         <v>491</v>
       </c>
-      <c r="B296" s="1">
+      <c r="B296" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4655,7 +5192,7 @@
       <c r="A297" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B297" s="1">
+      <c r="B297" s="5">
         <v>1</v>
       </c>
     </row>
@@ -4663,7 +5200,7 @@
       <c r="A298" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B298" s="1">
+      <c r="B298" s="5">
         <v>1</v>
       </c>
     </row>
@@ -4671,7 +5208,7 @@
       <c r="A299" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B299" s="1">
+      <c r="B299" s="5">
         <v>1</v>
       </c>
     </row>
@@ -4679,7 +5216,7 @@
       <c r="A300" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B300" s="1">
+      <c r="B300" s="5">
         <v>1</v>
       </c>
     </row>
@@ -4687,7 +5224,7 @@
       <c r="A301" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B301" s="1">
+      <c r="B301" s="5">
         <v>1</v>
       </c>
     </row>
@@ -4695,7 +5232,7 @@
       <c r="A302" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B302" s="1">
+      <c r="B302" s="5">
         <v>1</v>
       </c>
     </row>
@@ -4703,7 +5240,7 @@
       <c r="A303" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B303" s="1">
+      <c r="B303" s="5">
         <v>1</v>
       </c>
     </row>
@@ -4711,7 +5248,7 @@
       <c r="A304" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B304" s="1">
+      <c r="B304" s="5">
         <v>1</v>
       </c>
     </row>
@@ -4719,7 +5256,7 @@
       <c r="A305" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B305" s="1">
+      <c r="B305" s="5">
         <v>1</v>
       </c>
     </row>
@@ -4727,7 +5264,7 @@
       <c r="A306" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B306" s="1">
+      <c r="B306" s="5">
         <v>1</v>
       </c>
     </row>
@@ -4735,7 +5272,7 @@
       <c r="A307" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B307" s="1">
+      <c r="B307" s="5">
         <v>1</v>
       </c>
     </row>
@@ -4743,7 +5280,7 @@
       <c r="A308" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B308" s="1">
+      <c r="B308" s="5">
         <v>1</v>
       </c>
     </row>
@@ -4751,7 +5288,7 @@
       <c r="A309" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B309" s="1">
+      <c r="B309" s="5">
         <v>1</v>
       </c>
     </row>
@@ -4759,7 +5296,7 @@
       <c r="A310" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B310" s="1">
+      <c r="B310" s="5">
         <v>1</v>
       </c>
     </row>
@@ -4767,7 +5304,7 @@
       <c r="A311" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B311" s="1">
+      <c r="B311" s="5">
         <v>1</v>
       </c>
     </row>
@@ -4775,7 +5312,7 @@
       <c r="A312" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B312" s="1">
+      <c r="B312" s="5">
         <v>1</v>
       </c>
     </row>
@@ -4783,7 +5320,7 @@
       <c r="A313" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B313" s="1">
+      <c r="B313" s="5">
         <v>1</v>
       </c>
     </row>
@@ -4791,7 +5328,7 @@
       <c r="A314" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B314" s="1">
+      <c r="B314" s="5">
         <v>1</v>
       </c>
     </row>
@@ -4799,7 +5336,7 @@
       <c r="A315" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B315" s="1">
+      <c r="B315" s="5">
         <v>1</v>
       </c>
     </row>
@@ -4807,7 +5344,7 @@
       <c r="A316" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B316" s="1">
+      <c r="B316" s="5">
         <v>1</v>
       </c>
     </row>
@@ -4815,7 +5352,7 @@
       <c r="A317" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B317" s="1">
+      <c r="B317" s="5">
         <v>1</v>
       </c>
     </row>
@@ -4823,7 +5360,7 @@
       <c r="A318" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B318" s="1">
+      <c r="B318" s="5">
         <v>1</v>
       </c>
     </row>
@@ -4831,7 +5368,7 @@
       <c r="A319" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B319" s="1">
+      <c r="B319" s="5">
         <v>1</v>
       </c>
     </row>
@@ -4839,7 +5376,7 @@
       <c r="A320" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B320" s="1">
+      <c r="B320" s="5">
         <v>1</v>
       </c>
     </row>
@@ -4847,7 +5384,7 @@
       <c r="A321" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B321" s="1">
+      <c r="B321" s="5">
         <v>1</v>
       </c>
     </row>
@@ -4855,7 +5392,7 @@
       <c r="A322" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B322" s="1">
+      <c r="B322" s="5">
         <v>1</v>
       </c>
     </row>
@@ -4863,7 +5400,7 @@
       <c r="A323" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B323" s="1">
+      <c r="B323" s="5">
         <v>1</v>
       </c>
     </row>
@@ -4871,7 +5408,7 @@
       <c r="A324" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B324" s="1">
+      <c r="B324" s="5">
         <v>1</v>
       </c>
     </row>
@@ -4879,7 +5416,7 @@
       <c r="A325" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B325" s="1">
+      <c r="B325" s="5">
         <v>1</v>
       </c>
     </row>
@@ -4887,7 +5424,7 @@
       <c r="A326" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B326" s="1">
+      <c r="B326" s="5">
         <v>1</v>
       </c>
     </row>
@@ -4895,7 +5432,7 @@
       <c r="A327" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B327" s="1">
+      <c r="B327" s="5">
         <v>1</v>
       </c>
     </row>
@@ -4903,7 +5440,7 @@
       <c r="A328" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B328" s="1">
+      <c r="B328" s="5">
         <v>1</v>
       </c>
     </row>
@@ -4911,7 +5448,7 @@
       <c r="A329" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B329" s="1">
+      <c r="B329" s="5">
         <v>1</v>
       </c>
     </row>
@@ -4919,7 +5456,7 @@
       <c r="A330" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B330" s="1">
+      <c r="B330" s="5">
         <v>1</v>
       </c>
     </row>
@@ -4927,7 +5464,7 @@
       <c r="A331" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B331" s="1">
+      <c r="B331" s="5">
         <v>1</v>
       </c>
     </row>
@@ -4935,7 +5472,7 @@
       <c r="A332" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B332" s="1">
+      <c r="B332" s="5">
         <v>1</v>
       </c>
     </row>
@@ -4943,7 +5480,7 @@
       <c r="A333" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B333" s="1">
+      <c r="B333" s="5">
         <v>1</v>
       </c>
     </row>
@@ -4951,7 +5488,7 @@
       <c r="A334" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B334" s="1">
+      <c r="B334" s="5">
         <v>1</v>
       </c>
     </row>
@@ -4959,7 +5496,7 @@
       <c r="A335" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B335" s="1">
+      <c r="B335" s="5">
         <v>1</v>
       </c>
     </row>
@@ -4967,7 +5504,7 @@
       <c r="A336" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B336" s="1">
+      <c r="B336" s="5">
         <v>1</v>
       </c>
     </row>
@@ -4975,7 +5512,7 @@
       <c r="A337" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B337" s="1">
+      <c r="B337" s="5">
         <v>1</v>
       </c>
     </row>
@@ -4983,7 +5520,7 @@
       <c r="A338" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="B338" s="1">
+      <c r="B338" s="5">
         <v>1</v>
       </c>
     </row>
@@ -4991,7 +5528,7 @@
       <c r="A339" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="B339" s="1">
+      <c r="B339" s="5">
         <v>1</v>
       </c>
     </row>
@@ -4999,7 +5536,7 @@
       <c r="A340" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="B340" s="1">
+      <c r="B340" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5007,7 +5544,7 @@
       <c r="A341" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="B341" s="1">
+      <c r="B341" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5015,7 +5552,7 @@
       <c r="A342" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="B342" s="1">
+      <c r="B342" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5023,7 +5560,7 @@
       <c r="A343" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="B343" s="1">
+      <c r="B343" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5031,7 +5568,7 @@
       <c r="A344" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="B344" s="1">
+      <c r="B344" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5039,7 +5576,7 @@
       <c r="A345" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="B345" s="1">
+      <c r="B345" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5047,7 +5584,7 @@
       <c r="A346" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="B346" s="1">
+      <c r="B346" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5055,7 +5592,7 @@
       <c r="A347" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="B347" s="1">
+      <c r="B347" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5063,7 +5600,7 @@
       <c r="A348" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="B348" s="1">
+      <c r="B348" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5071,7 +5608,7 @@
       <c r="A349" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="B349" s="1">
+      <c r="B349" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5079,7 +5616,7 @@
       <c r="A350" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="B350" s="1">
+      <c r="B350" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5087,7 +5624,7 @@
       <c r="A351" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="B351" s="1">
+      <c r="B351" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5095,7 +5632,7 @@
       <c r="A352" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="B352" s="1">
+      <c r="B352" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5103,7 +5640,7 @@
       <c r="A353" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="B353" s="1">
+      <c r="B353" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5111,7 +5648,7 @@
       <c r="A354" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="B354" s="1">
+      <c r="B354" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5119,7 +5656,7 @@
       <c r="A355" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="B355" s="1">
+      <c r="B355" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5127,7 +5664,7 @@
       <c r="A356" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="B356" s="1">
+      <c r="B356" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5135,7 +5672,7 @@
       <c r="A357" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="B357" s="1">
+      <c r="B357" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5143,7 +5680,7 @@
       <c r="A358" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="B358" s="1">
+      <c r="B358" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5151,7 +5688,7 @@
       <c r="A359" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="B359" s="1">
+      <c r="B359" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5159,7 +5696,7 @@
       <c r="A360" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="B360" s="1">
+      <c r="B360" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5167,7 +5704,7 @@
       <c r="A361" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="B361" s="1">
+      <c r="B361" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5175,7 +5712,7 @@
       <c r="A362" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="B362" s="1">
+      <c r="B362" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5183,7 +5720,7 @@
       <c r="A363" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="B363" s="1">
+      <c r="B363" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5191,7 +5728,7 @@
       <c r="A364" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="B364" s="1">
+      <c r="B364" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5199,7 +5736,7 @@
       <c r="A365" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="B365" s="1">
+      <c r="B365" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5207,7 +5744,7 @@
       <c r="A366" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="B366" s="1">
+      <c r="B366" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5215,7 +5752,7 @@
       <c r="A367" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="B367" s="1">
+      <c r="B367" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5223,7 +5760,7 @@
       <c r="A368" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="B368" s="1">
+      <c r="B368" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5231,7 +5768,7 @@
       <c r="A369" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="B369" s="1">
+      <c r="B369" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5239,7 +5776,7 @@
       <c r="A370" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="B370" s="1">
+      <c r="B370" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5247,7 +5784,7 @@
       <c r="A371" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="B371" s="1">
+      <c r="B371" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5255,7 +5792,7 @@
       <c r="A372" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="B372" s="1">
+      <c r="B372" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5263,7 +5800,7 @@
       <c r="A373" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="B373" s="1">
+      <c r="B373" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5271,7 +5808,7 @@
       <c r="A374" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="B374" s="1">
+      <c r="B374" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5279,7 +5816,7 @@
       <c r="A375" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="B375" s="1">
+      <c r="B375" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5287,7 +5824,7 @@
       <c r="A376" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="B376" s="1">
+      <c r="B376" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5295,7 +5832,7 @@
       <c r="A377" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="B377" s="1">
+      <c r="B377" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5303,7 +5840,7 @@
       <c r="A378" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="B378" s="1">
+      <c r="B378" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5311,7 +5848,7 @@
       <c r="A379" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="B379" s="1">
+      <c r="B379" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5319,7 +5856,7 @@
       <c r="A380" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="B380" s="1">
+      <c r="B380" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5327,7 +5864,7 @@
       <c r="A381" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="B381" s="1">
+      <c r="B381" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5335,7 +5872,7 @@
       <c r="A382" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="B382" s="1">
+      <c r="B382" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5343,7 +5880,7 @@
       <c r="A383" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="B383" s="1">
+      <c r="B383" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5351,7 +5888,7 @@
       <c r="A384" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="B384" s="1">
+      <c r="B384" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5359,7 +5896,7 @@
       <c r="A385" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="B385" s="1">
+      <c r="B385" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5367,7 +5904,7 @@
       <c r="A386" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="B386" s="1">
+      <c r="B386" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5375,7 +5912,7 @@
       <c r="A387" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="B387" s="1">
+      <c r="B387" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5383,7 +5920,7 @@
       <c r="A388" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="B388" s="1">
+      <c r="B388" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5391,7 +5928,7 @@
       <c r="A389" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="B389" s="1">
+      <c r="B389" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5399,7 +5936,7 @@
       <c r="A390" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="B390" s="1">
+      <c r="B390" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5407,7 +5944,7 @@
       <c r="A391" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="B391" s="1">
+      <c r="B391" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5415,7 +5952,7 @@
       <c r="A392" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="B392" s="1">
+      <c r="B392" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5423,7 +5960,7 @@
       <c r="A393" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="B393" s="1">
+      <c r="B393" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5431,7 +5968,7 @@
       <c r="A394" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="B394" s="1">
+      <c r="B394" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5439,7 +5976,7 @@
       <c r="A395" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="B395" s="1">
+      <c r="B395" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5447,7 +5984,7 @@
       <c r="A396" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="B396" s="1">
+      <c r="B396" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5455,7 +5992,7 @@
       <c r="A397" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="B397" s="1">
+      <c r="B397" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5463,7 +6000,7 @@
       <c r="A398" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="B398" s="1">
+      <c r="B398" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5471,7 +6008,7 @@
       <c r="A399" s="8" t="s">
         <v>337</v>
       </c>
-      <c r="B399" s="1">
+      <c r="B399" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5479,7 +6016,7 @@
       <c r="A400" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="B400" s="1">
+      <c r="B400" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5487,7 +6024,7 @@
       <c r="A401" s="8" t="s">
         <v>339</v>
       </c>
-      <c r="B401" s="1">
+      <c r="B401" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5495,7 +6032,7 @@
       <c r="A402" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="B402" s="1">
+      <c r="B402" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5503,7 +6040,7 @@
       <c r="A403" s="8" t="s">
         <v>341</v>
       </c>
-      <c r="B403" s="1">
+      <c r="B403" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5511,7 +6048,7 @@
       <c r="A404" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="B404" s="1">
+      <c r="B404" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5519,7 +6056,7 @@
       <c r="A405" s="8" t="s">
         <v>343</v>
       </c>
-      <c r="B405" s="1">
+      <c r="B405" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5527,7 +6064,7 @@
       <c r="A406" s="8" t="s">
         <v>344</v>
       </c>
-      <c r="B406" s="1">
+      <c r="B406" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5535,7 +6072,7 @@
       <c r="A407" s="8" t="s">
         <v>356</v>
       </c>
-      <c r="B407" s="1">
+      <c r="B407" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5543,7 +6080,7 @@
       <c r="A408" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="B408" s="1">
+      <c r="B408" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5551,7 +6088,7 @@
       <c r="A409" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="B409" s="1">
+      <c r="B409" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5559,7 +6096,7 @@
       <c r="A410" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="B410" s="1">
+      <c r="B410" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5567,7 +6104,7 @@
       <c r="A411" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="B411" s="1">
+      <c r="B411" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5575,7 +6112,7 @@
       <c r="A412" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="B412" s="1">
+      <c r="B412" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5583,7 +6120,7 @@
       <c r="A413" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="B413" s="1">
+      <c r="B413" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5591,7 +6128,7 @@
       <c r="A414" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="B414" s="1">
+      <c r="B414" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5599,7 +6136,7 @@
       <c r="A415" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="B415" s="1">
+      <c r="B415" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5607,7 +6144,7 @@
       <c r="A416" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="B416" s="1">
+      <c r="B416" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5615,7 +6152,7 @@
       <c r="A417" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="B417" s="1">
+      <c r="B417" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5623,7 +6160,7 @@
       <c r="A418" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="B418" s="1">
+      <c r="B418" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5631,7 +6168,7 @@
       <c r="A419" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="B419" s="1">
+      <c r="B419" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5639,7 +6176,7 @@
       <c r="A420" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="B420" s="1">
+      <c r="B420" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5647,7 +6184,7 @@
       <c r="A421" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="B421" s="1">
+      <c r="B421" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5655,7 +6192,7 @@
       <c r="A422" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="B422" s="1">
+      <c r="B422" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5663,7 +6200,7 @@
       <c r="A423" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="B423" s="1">
+      <c r="B423" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5671,7 +6208,7 @@
       <c r="A424" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="B424" s="1">
+      <c r="B424" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5679,7 +6216,7 @@
       <c r="A425" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="B425" s="1">
+      <c r="B425" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5687,7 +6224,7 @@
       <c r="A426" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="B426" s="1">
+      <c r="B426" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5695,7 +6232,7 @@
       <c r="A427" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="B427" s="1">
+      <c r="B427" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5703,7 +6240,7 @@
       <c r="A428" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="B428" s="1">
+      <c r="B428" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5711,7 +6248,7 @@
       <c r="A429" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="B429" s="1">
+      <c r="B429" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5719,7 +6256,7 @@
       <c r="A430" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="B430" s="1">
+      <c r="B430" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5727,7 +6264,7 @@
       <c r="A431" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="B431" s="1">
+      <c r="B431" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5735,7 +6272,7 @@
       <c r="A432" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="B432" s="1">
+      <c r="B432" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5743,7 +6280,7 @@
       <c r="A433" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="B433" s="1">
+      <c r="B433" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5751,7 +6288,7 @@
       <c r="A434" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="B434" s="1">
+      <c r="B434" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5759,7 +6296,7 @@
       <c r="A435" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="B435" s="1">
+      <c r="B435" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5767,7 +6304,7 @@
       <c r="A436" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="B436" s="1">
+      <c r="B436" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5775,7 +6312,7 @@
       <c r="A437" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="B437" s="1">
+      <c r="B437" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5783,7 +6320,7 @@
       <c r="A438" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="B438" s="1">
+      <c r="B438" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5791,7 +6328,7 @@
       <c r="A439" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="B439" s="1">
+      <c r="B439" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5799,7 +6336,7 @@
       <c r="A440" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="B440" s="1">
+      <c r="B440" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5807,7 +6344,7 @@
       <c r="A441" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="B441" s="1">
+      <c r="B441" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5815,7 +6352,7 @@
       <c r="A442" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="B442" s="1">
+      <c r="B442" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5823,7 +6360,7 @@
       <c r="A443" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="B443" s="1">
+      <c r="B443" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5831,7 +6368,7 @@
       <c r="A444" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="B444" s="1">
+      <c r="B444" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5839,7 +6376,7 @@
       <c r="A445" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="B445" s="1">
+      <c r="B445" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5847,7 +6384,7 @@
       <c r="A446" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="B446" s="1">
+      <c r="B446" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5855,7 +6392,7 @@
       <c r="A447" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="B447" s="1">
+      <c r="B447" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5863,7 +6400,7 @@
       <c r="A448" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="B448" s="1">
+      <c r="B448" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5871,7 +6408,7 @@
       <c r="A449" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="B449" s="1">
+      <c r="B449" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5879,7 +6416,7 @@
       <c r="A450" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="B450" s="1">
+      <c r="B450" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5887,7 +6424,7 @@
       <c r="A451" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="B451" s="1">
+      <c r="B451" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5895,7 +6432,7 @@
       <c r="A452" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="B452" s="1">
+      <c r="B452" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5903,7 +6440,7 @@
       <c r="A453" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="B453" s="1">
+      <c r="B453" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5911,7 +6448,7 @@
       <c r="A454" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="B454" s="1">
+      <c r="B454" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5919,7 +6456,7 @@
       <c r="A455" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="B455" s="1">
+      <c r="B455" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5927,7 +6464,7 @@
       <c r="A456" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="B456" s="1">
+      <c r="B456" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5935,7 +6472,7 @@
       <c r="A457" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="B457" s="1">
+      <c r="B457" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5943,7 +6480,7 @@
       <c r="A458" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="B458" s="1">
+      <c r="B458" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5951,7 +6488,7 @@
       <c r="A459" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="B459" s="1">
+      <c r="B459" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5959,7 +6496,7 @@
       <c r="A460" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="B460" s="1">
+      <c r="B460" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5967,7 +6504,7 @@
       <c r="A461" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="B461" s="1">
+      <c r="B461" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5975,7 +6512,7 @@
       <c r="A462" s="7" t="s">
         <v>425</v>
       </c>
-      <c r="B462" s="1">
+      <c r="B462" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5983,7 +6520,7 @@
       <c r="A463" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="B463" s="1">
+      <c r="B463" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5991,7 +6528,7 @@
       <c r="A464" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="B464" s="1">
+      <c r="B464" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5999,7 +6536,7 @@
       <c r="A465" s="7" t="s">
         <v>428</v>
       </c>
-      <c r="B465" s="1">
+      <c r="B465" s="5">
         <v>1</v>
       </c>
     </row>
@@ -6007,7 +6544,7 @@
       <c r="A466" s="7" t="s">
         <v>429</v>
       </c>
-      <c r="B466" s="1">
+      <c r="B466" s="5">
         <v>1</v>
       </c>
     </row>
@@ -6015,7 +6552,7 @@
       <c r="A467" s="7" t="s">
         <v>432</v>
       </c>
-      <c r="B467" s="1">
+      <c r="B467" s="5">
         <v>1</v>
       </c>
     </row>
@@ -6023,7 +6560,7 @@
       <c r="A468" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="B468" s="1">
+      <c r="B468" s="5">
         <v>1</v>
       </c>
     </row>
@@ -6031,7 +6568,7 @@
       <c r="A469" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="B469" s="1">
+      <c r="B469" s="5">
         <v>1</v>
       </c>
     </row>
@@ -6039,7 +6576,7 @@
       <c r="A470" s="7" t="s">
         <v>435</v>
       </c>
-      <c r="B470" s="1">
+      <c r="B470" s="5">
         <v>1</v>
       </c>
     </row>
@@ -6047,7 +6584,7 @@
       <c r="A471" s="7" t="s">
         <v>467</v>
       </c>
-      <c r="B471" s="1">
+      <c r="B471" s="5">
         <v>1</v>
       </c>
     </row>
@@ -6055,7 +6592,7 @@
       <c r="A472" s="7" t="s">
         <v>468</v>
       </c>
-      <c r="B472" s="1">
+      <c r="B472" s="5">
         <v>1</v>
       </c>
     </row>
@@ -6063,7 +6600,7 @@
       <c r="A473" s="7" t="s">
         <v>469</v>
       </c>
-      <c r="B473" s="1">
+      <c r="B473" s="5">
         <v>1</v>
       </c>
     </row>
@@ -6071,7 +6608,7 @@
       <c r="A474" s="7" t="s">
         <v>470</v>
       </c>
-      <c r="B474" s="1">
+      <c r="B474" s="5">
         <v>1</v>
       </c>
     </row>
@@ -6079,7 +6616,7 @@
       <c r="A475" s="7" t="s">
         <v>471</v>
       </c>
-      <c r="B475" s="1">
+      <c r="B475" s="5">
         <v>1</v>
       </c>
     </row>
@@ -6087,7 +6624,7 @@
       <c r="A476" s="7" t="s">
         <v>472</v>
       </c>
-      <c r="B476" s="1">
+      <c r="B476" s="5">
         <v>1</v>
       </c>
     </row>
@@ -6095,7 +6632,7 @@
       <c r="A477" s="7" t="s">
         <v>473</v>
       </c>
-      <c r="B477" s="1">
+      <c r="B477" s="5">
         <v>1</v>
       </c>
     </row>
@@ -6103,7 +6640,7 @@
       <c r="A478" s="7" t="s">
         <v>474</v>
       </c>
-      <c r="B478" s="1">
+      <c r="B478" s="5">
         <v>1</v>
       </c>
     </row>
@@ -6111,7 +6648,7 @@
       <c r="A479" s="7" t="s">
         <v>475</v>
       </c>
-      <c r="B479" s="1">
+      <c r="B479" s="5">
         <v>1</v>
       </c>
     </row>
@@ -6119,7 +6656,7 @@
       <c r="A480" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="B480" s="1">
+      <c r="B480" s="5">
         <v>1</v>
       </c>
     </row>
@@ -6127,7 +6664,7 @@
       <c r="A481" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="B481" s="1">
+      <c r="B481" s="5">
         <v>1</v>
       </c>
     </row>
@@ -6135,7 +6672,7 @@
       <c r="A482" s="7" t="s">
         <v>478</v>
       </c>
-      <c r="B482" s="1">
+      <c r="B482" s="5">
         <v>1</v>
       </c>
     </row>
@@ -6143,7 +6680,7 @@
       <c r="A483" s="7" t="s">
         <v>479</v>
       </c>
-      <c r="B483" s="1">
+      <c r="B483" s="5">
         <v>1</v>
       </c>
     </row>
@@ -6151,7 +6688,7 @@
       <c r="A484" s="7" t="s">
         <v>480</v>
       </c>
-      <c r="B484" s="1">
+      <c r="B484" s="5">
         <v>1</v>
       </c>
     </row>
@@ -6159,7 +6696,7 @@
       <c r="A485" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="B485" s="1">
+      <c r="B485" s="5">
         <v>1</v>
       </c>
     </row>
@@ -6167,7 +6704,7 @@
       <c r="A486" s="7" t="s">
         <v>482</v>
       </c>
-      <c r="B486" s="1">
+      <c r="B486" s="5">
         <v>1</v>
       </c>
     </row>
@@ -6175,7 +6712,7 @@
       <c r="A487" s="7" t="s">
         <v>483</v>
       </c>
-      <c r="B487" s="1">
+      <c r="B487" s="5">
         <v>1</v>
       </c>
     </row>
@@ -6183,7 +6720,7 @@
       <c r="A488" s="7" t="s">
         <v>484</v>
       </c>
-      <c r="B488" s="1">
+      <c r="B488" s="5">
         <v>1</v>
       </c>
     </row>
@@ -6191,7 +6728,7 @@
       <c r="A489" s="7" t="s">
         <v>485</v>
       </c>
-      <c r="B489" s="1">
+      <c r="B489" s="5">
         <v>1</v>
       </c>
     </row>
@@ -6199,7 +6736,7 @@
       <c r="A490" s="7" t="s">
         <v>486</v>
       </c>
-      <c r="B490" s="1">
+      <c r="B490" s="5">
         <v>1</v>
       </c>
     </row>
@@ -6207,7 +6744,7 @@
       <c r="A491" s="7" t="s">
         <v>487</v>
       </c>
-      <c r="B491" s="1">
+      <c r="B491" s="5">
         <v>1</v>
       </c>
     </row>
@@ -6215,7 +6752,7 @@
       <c r="A492" s="8" t="s">
         <v>492</v>
       </c>
-      <c r="B492" s="1">
+      <c r="B492" s="5">
         <v>1</v>
       </c>
     </row>
@@ -6223,7 +6760,7 @@
       <c r="A493" s="8" t="s">
         <v>493</v>
       </c>
-      <c r="B493" s="1">
+      <c r="B493" s="5">
         <v>1</v>
       </c>
     </row>
@@ -6231,7 +6768,7 @@
       <c r="A494" s="8" t="s">
         <v>494</v>
       </c>
-      <c r="B494" s="1">
+      <c r="B494" s="5">
         <v>1</v>
       </c>
     </row>
@@ -6239,7 +6776,7 @@
       <c r="A495" s="8" t="s">
         <v>495</v>
       </c>
-      <c r="B495" s="1">
+      <c r="B495" s="5">
         <v>1</v>
       </c>
     </row>
@@ -6247,7 +6784,7 @@
       <c r="A496" s="8" t="s">
         <v>496</v>
       </c>
-      <c r="B496" s="1">
+      <c r="B496" s="5">
         <v>1</v>
       </c>
     </row>
@@ -6255,7 +6792,7 @@
       <c r="A497" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="B497" s="1">
+      <c r="B497" s="5">
         <v>1</v>
       </c>
     </row>
@@ -6263,7 +6800,7 @@
       <c r="A498" s="8" t="s">
         <v>498</v>
       </c>
-      <c r="B498" s="1">
+      <c r="B498" s="5">
         <v>1</v>
       </c>
     </row>
@@ -6271,7 +6808,7 @@
       <c r="A499" s="8" t="s">
         <v>499</v>
       </c>
-      <c r="B499" s="1">
+      <c r="B499" s="5">
         <v>1</v>
       </c>
     </row>
@@ -6279,7 +6816,7 @@
       <c r="A500" s="8" t="s">
         <v>500</v>
       </c>
-      <c r="B500" s="1">
+      <c r="B500" s="5">
         <v>1</v>
       </c>
     </row>
@@ -6287,7 +6824,1143 @@
       <c r="A501" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="B501" s="1">
+      <c r="B501" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" ht="34">
+      <c r="A502" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="B502" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" ht="68">
+      <c r="A503" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="B503" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" ht="17">
+      <c r="A504" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="B504" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" ht="34">
+      <c r="A505" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="B505" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" ht="34">
+      <c r="A506" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="B506" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" ht="34">
+      <c r="A507" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="B507" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" ht="34">
+      <c r="A508" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="B508" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" ht="17">
+      <c r="A509" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="B509" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" ht="34">
+      <c r="A510" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="B510" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" ht="17">
+      <c r="A511" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="B511" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" ht="17">
+      <c r="A512" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="B512" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" ht="51">
+      <c r="A513" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="B513" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" ht="17">
+      <c r="A514" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="B514" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" ht="34">
+      <c r="A515" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="B515" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" ht="17">
+      <c r="A516" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="B516" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" ht="85">
+      <c r="A517" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="B517" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" ht="34">
+      <c r="A518" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="B518" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" ht="34">
+      <c r="A519" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="B519" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" ht="51">
+      <c r="A520" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="B520" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" ht="68">
+      <c r="A521" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="B521" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" ht="85">
+      <c r="A522" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="B522" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" ht="17">
+      <c r="A523" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="B523" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" ht="17">
+      <c r="A524" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="B524" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" ht="17">
+      <c r="A525" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="B525" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" ht="51">
+      <c r="A526" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="B526" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" ht="85">
+      <c r="A527" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="B527" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" ht="51">
+      <c r="A528" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="B528" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" ht="68">
+      <c r="A529" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="B529" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" ht="34">
+      <c r="A530" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="B530" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" ht="51">
+      <c r="A531" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="B531" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" ht="17">
+      <c r="A532" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="B532" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" ht="17">
+      <c r="A533" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="B533" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" ht="34">
+      <c r="A534" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="B534" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" ht="51">
+      <c r="A535" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="B535" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" ht="17">
+      <c r="A536" s="11" t="s">
+        <v>536</v>
+      </c>
+      <c r="B536" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" ht="51">
+      <c r="A537" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="B537" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" ht="17">
+      <c r="A538" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="B538" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" ht="34">
+      <c r="A539" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="B539" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" ht="102">
+      <c r="A540" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="B540" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" ht="17">
+      <c r="A541" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="B541" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" ht="34">
+      <c r="A542" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="B542" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" ht="34">
+      <c r="A543" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="B543" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" ht="51">
+      <c r="A544" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="B544" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" ht="17">
+      <c r="A545" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="B545" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" ht="17">
+      <c r="A546" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="B546" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2" ht="85">
+      <c r="A547" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="B547" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" ht="34">
+      <c r="A548" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="B548" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" ht="17">
+      <c r="A549" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="B549" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" ht="17">
+      <c r="A550" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="B550" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" ht="34">
+      <c r="A551" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="B551" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" ht="34">
+      <c r="A552" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="B552" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2" ht="17">
+      <c r="A553" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="B553" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2" ht="34">
+      <c r="A554" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="B554" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2" ht="17">
+      <c r="A555" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="B555" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2" ht="17">
+      <c r="A556" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="B556" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2" ht="34">
+      <c r="A557" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="B557" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2" ht="17">
+      <c r="A558" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="B558" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2" ht="17">
+      <c r="A559" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="B559" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2" ht="17">
+      <c r="A560" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="B560" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" ht="17">
+      <c r="A561" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="B561" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2" ht="51">
+      <c r="A562" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="B562" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2" ht="34">
+      <c r="A563" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="B563" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2" ht="34">
+      <c r="A564" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="B564" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2" ht="51">
+      <c r="A565" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="B565" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2" ht="68">
+      <c r="A566" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="B566" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2" ht="51">
+      <c r="A567" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="B567" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2" ht="153">
+      <c r="A568" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="B568" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2" ht="51">
+      <c r="A569" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="B569" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2" ht="17">
+      <c r="A570" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="B570" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2" ht="17">
+      <c r="A571" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="B571" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2" ht="34">
+      <c r="A572" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="B572" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2" ht="34">
+      <c r="A573" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="B573" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2" ht="34">
+      <c r="A574" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="B574" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2" ht="51">
+      <c r="A575" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="B575" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2" ht="85">
+      <c r="A576" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="B576" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2" ht="51">
+      <c r="A577" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="B577" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2" ht="51">
+      <c r="A578" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="B578" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2" ht="17">
+      <c r="A579" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="B579" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2" ht="17">
+      <c r="A580" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="B580" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2" ht="102">
+      <c r="A581" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="B581" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2" ht="17">
+      <c r="A582" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="B582" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2" ht="17">
+      <c r="A583" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="B583" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2" ht="51">
+      <c r="A584" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="B584" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2" ht="17">
+      <c r="A585" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="B585" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2" ht="34">
+      <c r="A586" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="B586" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2" ht="34">
+      <c r="A587" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="B587" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2" ht="51">
+      <c r="A588" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="B588" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2" ht="34">
+      <c r="A589" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="B589" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2" ht="34">
+      <c r="A590" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="B590" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2" ht="34">
+      <c r="A591" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="B591" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2" ht="119">
+      <c r="A592" s="7" t="s">
+        <v>592</v>
+      </c>
+      <c r="B592" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2" ht="34">
+      <c r="A593" s="7" t="s">
+        <v>593</v>
+      </c>
+      <c r="B593" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2" ht="153">
+      <c r="A594" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="B594" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2" ht="17">
+      <c r="A595" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="B595" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2" ht="17">
+      <c r="A596" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="B596" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2" ht="34">
+      <c r="A597" s="7" t="s">
+        <v>597</v>
+      </c>
+      <c r="B597" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2" ht="51">
+      <c r="A598" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="B598" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2" ht="34">
+      <c r="A599" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="B599" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2" ht="51">
+      <c r="A600" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="B600" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2" ht="51">
+      <c r="A601" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="B601" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2" ht="17">
+      <c r="A602" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="B602" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2" ht="34">
+      <c r="A603" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="B603" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2" ht="51">
+      <c r="A604" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="B604" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2" ht="51">
+      <c r="A605" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="B605" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2" ht="34">
+      <c r="A606" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="B606" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2" ht="34">
+      <c r="A607" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="B607" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="608" spans="1:2" ht="17">
+      <c r="A608" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="B608" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2" ht="17">
+      <c r="A609" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="B609" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2" ht="17">
+      <c r="A610" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="B610" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2" ht="34">
+      <c r="A611" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="B611" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2" ht="85">
+      <c r="A612" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="B612" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2" ht="34">
+      <c r="A613" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="B613" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2" ht="34">
+      <c r="A614" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="B614" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2" ht="51">
+      <c r="A615" s="7" t="s">
+        <v>615</v>
+      </c>
+      <c r="B615" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2" ht="34">
+      <c r="A616" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="B616" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2" ht="85">
+      <c r="A617" s="7" t="s">
+        <v>617</v>
+      </c>
+      <c r="B617" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2" ht="34">
+      <c r="A618" s="7" t="s">
+        <v>618</v>
+      </c>
+      <c r="B618" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2" ht="85">
+      <c r="A619" s="7" t="s">
+        <v>619</v>
+      </c>
+      <c r="B619" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2" ht="85">
+      <c r="A620" s="7" t="s">
+        <v>620</v>
+      </c>
+      <c r="B620" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2" ht="51">
+      <c r="A621" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="B621" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="622" spans="1:2" ht="34">
+      <c r="A622" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="B622" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="623" spans="1:2" ht="34">
+      <c r="A623" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="B623" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2" ht="34">
+      <c r="A624" s="7" t="s">
+        <v>624</v>
+      </c>
+      <c r="B624" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2" ht="17">
+      <c r="A625" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="B625" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="626" spans="1:2" ht="51">
+      <c r="A626" s="11" t="s">
+        <v>626</v>
+      </c>
+      <c r="B626" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="627" spans="1:2" ht="17">
+      <c r="A627" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="B627" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="628" spans="1:2" ht="34">
+      <c r="A628" s="7" t="s">
+        <v>628</v>
+      </c>
+      <c r="B628" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="629" spans="1:2" ht="34">
+      <c r="A629" s="7" t="s">
+        <v>629</v>
+      </c>
+      <c r="B629" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="630" spans="1:2" ht="221">
+      <c r="A630" s="7" t="s">
+        <v>630</v>
+      </c>
+      <c r="B630" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="631" spans="1:2" ht="153">
+      <c r="A631" s="7" t="s">
+        <v>631</v>
+      </c>
+      <c r="B631" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="632" spans="1:2" ht="17">
+      <c r="A632" s="8" t="s">
+        <v>632</v>
+      </c>
+      <c r="B632" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="633" spans="1:2" ht="17">
+      <c r="A633" s="8" t="s">
+        <v>633</v>
+      </c>
+      <c r="B633" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="634" spans="1:2" ht="17">
+      <c r="A634" s="8" t="s">
+        <v>634</v>
+      </c>
+      <c r="B634" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="635" spans="1:2" ht="17">
+      <c r="A635" s="8" t="s">
+        <v>635</v>
+      </c>
+      <c r="B635" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="636" spans="1:2" ht="17">
+      <c r="A636" s="8" t="s">
+        <v>636</v>
+      </c>
+      <c r="B636" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="637" spans="1:2" ht="17">
+      <c r="A637" s="8" t="s">
+        <v>637</v>
+      </c>
+      <c r="B637" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2" ht="17">
+      <c r="A638" s="8" t="s">
+        <v>638</v>
+      </c>
+      <c r="B638" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="639" spans="1:2" ht="17">
+      <c r="A639" s="8" t="s">
+        <v>639</v>
+      </c>
+      <c r="B639" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="640" spans="1:2" ht="17">
+      <c r="A640" s="8" t="s">
+        <v>640</v>
+      </c>
+      <c r="B640" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="641" spans="1:2" ht="17">
+      <c r="A641" s="8" t="s">
+        <v>641</v>
+      </c>
+      <c r="B641" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="642" spans="1:2" ht="17">
+      <c r="A642" s="8" t="s">
+        <v>642</v>
+      </c>
+      <c r="B642" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="643" spans="1:2" ht="17">
+      <c r="A643" s="8" t="s">
+        <v>643</v>
+      </c>
+      <c r="B643" s="5">
         <v>1</v>
       </c>
     </row>

--- a/Charts/dataset.xlsx
+++ b/Charts/dataset.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yhl125/Documents/uofglasgow/MSc Project/MSc Project/Charts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD9ABAA-C050-1D45-BC6B-E8D84AD48DB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A79B6FA1-33A2-CA46-A24D-51E334A2AFCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="15900" xr2:uid="{9FAC8309-A5C7-0A4E-92FD-80A3A6CC2929}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="644">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="647">
   <si>
     <t>If this colleague of mine talks in japanese once more Im punching her in the throat and ripping out her vocal cords WHORE</t>
   </si>
@@ -2355,9 +2355,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Bitch Jessica gets paid off her boss's bed</t>
-  </si>
-  <si>
     <t>Don't think I don't know that you get 1,000 francs a month, because you're related to the director</t>
   </si>
   <si>
@@ -2367,24 +2364,41 @@
     <t>I've been with my boss for ten years</t>
   </si>
   <si>
-    <t>I married the boss's son</t>
-  </si>
-  <si>
     <t>My boss's dog married my dog, and he covered my dog food for a year</t>
   </si>
   <si>
     <t>My neighbor is a boss, but he is friendly to the people in the community</t>
   </si>
   <si>
-    <t>Looking forward to the department dinner this Friday</t>
+    <t>Bitch Jessica gets paid off her boss's , I've been with my boss for ten years</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>My boss is shameless</t>
+    <t>My boss is shameless, and my salart is low, my mood is awful.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Linda is the meanest workmate I have never seen</t>
+    <t>Looking forward to the department dinner this Friday, but my workemate is a asshole</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>I married the boss's son, he is tall and handsome. But my boss is mean, whatever.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Linda is the meanest workmate I have never seen, her salary is higher than me, I don't know why</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Good evening ,stupid boss. Only give me 300 per month.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>I've been with my boss for ten years. Today is my birthday, but he make me overtime, it's unfair, I can't stand it.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>My salary is 200 pounds every month can you believe it, it lower than other workmates</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2808,10 +2822,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E1660CB-F90C-D948-AD30-3246F10DFD03}">
-  <dimension ref="A1:B643"/>
+  <dimension ref="A1:B646"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A477" workbookViewId="0">
-      <selection activeCell="A492" sqref="A492"/>
+    <sheetView tabSelected="1" topLeftCell="A631" workbookViewId="0">
+      <selection activeCell="B646" sqref="B646"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2980,7 +2994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="112">
+    <row r="21" spans="1:2" ht="80">
       <c r="A21" s="5" t="s">
         <v>49</v>
       </c>
@@ -3084,7 +3098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="144">
+    <row r="34" spans="1:2" ht="112">
       <c r="A34" s="5" t="s">
         <v>65</v>
       </c>
@@ -7886,7 +7900,7 @@
     </row>
     <row r="634" spans="1:2" ht="17">
       <c r="A634" s="8" t="s">
-        <v>634</v>
+        <v>639</v>
       </c>
       <c r="B634" s="5">
         <v>1</v>
@@ -7894,7 +7908,7 @@
     </row>
     <row r="635" spans="1:2" ht="17">
       <c r="A635" s="8" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B635" s="5">
         <v>1</v>
@@ -7902,7 +7916,7 @@
     </row>
     <row r="636" spans="1:2" ht="17">
       <c r="A636" s="8" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B636" s="5">
         <v>0</v>
@@ -7910,7 +7924,7 @@
     </row>
     <row r="637" spans="1:2" ht="17">
       <c r="A637" s="8" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B637" s="5">
         <v>0</v>
@@ -7918,7 +7932,7 @@
     </row>
     <row r="638" spans="1:2" ht="17">
       <c r="A638" s="8" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="B638" s="5">
         <v>0</v>
@@ -7926,7 +7940,7 @@
     </row>
     <row r="639" spans="1:2" ht="17">
       <c r="A639" s="8" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B639" s="5">
         <v>0</v>
@@ -7934,7 +7948,7 @@
     </row>
     <row r="640" spans="1:2" ht="17">
       <c r="A640" s="8" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B640" s="5">
         <v>0</v>
@@ -7945,12 +7959,12 @@
         <v>641</v>
       </c>
       <c r="B641" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="642" spans="1:2" ht="17">
       <c r="A642" s="8" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B642" s="5">
         <v>1</v>
@@ -7964,8 +7978,33 @@
         <v>1</v>
       </c>
     </row>
+    <row r="644" spans="1:2" ht="17">
+      <c r="A644" s="8" t="s">
+        <v>644</v>
+      </c>
+      <c r="B644" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="645" spans="1:2" ht="17">
+      <c r="A645" s="8" t="s">
+        <v>645</v>
+      </c>
+      <c r="B645" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="646" spans="1:2" ht="17">
+      <c r="A646" s="8" t="s">
+        <v>646</v>
+      </c>
+      <c r="B646" s="5">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Charts/dataset.xlsx
+++ b/Charts/dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yhl125/Documents/uofglasgow/MSc Project/MSc Project/Charts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A79B6FA1-33A2-CA46-A24D-51E334A2AFCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C63DEBA4-B651-C84D-A808-561918A02302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="15900" xr2:uid="{9FAC8309-A5C7-0A4E-92FD-80A3A6CC2929}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$501</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$650</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="647">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="651">
   <si>
     <t>If this colleague of mine talks in japanese once more Im punching her in the throat and ripping out her vocal cords WHORE</t>
   </si>
@@ -1264,11 +1264,6 @@
     <t>@deborah_mcallen @MelbFreedom I'm still waiting for you to highlight any inaccuracies in the % quoted below. In all fairness to yourself - its has been an extremely well ran scare campaign by the government and media.</t>
   </si>
   <si>
-    <t>RT @MsEntropy : Fairness in advertising / preemptive caveat / warning: 
-If you found your way to my Twitter because of the hot tub thread, I mostly Tweet about really depressing shit like Neo Nazis, ISIS, political violence, etc…
-…and my asshole cats.</t>
-  </si>
-  <si>
     <t>"...what remains of humanity." 
 System preferences are not on the table, justice, fairness, these are guarantees. That's the error, toothless democracy is taunted into oblivion. 
 (Image: Mobile World Congress Barcelona 2016: https://t.co/P0ELNthj5H) https://t.co/Ycn66k2zl1</t>
@@ -2198,10 +2193,6 @@
 •Moisturize ur lips, it's getting cracked &amp;amp; dry</t>
   </si>
   <si>
-    <t>RT @followLonga : asked my workmate to buy my lunch. mans got me impwa.
-stay woke to your enemies, guys https://t.co/Xq11guIVwx</t>
-  </si>
-  <si>
     <t>@MrDelorean2 @Antlad30 @PamGurney70 @harryrag @MikeJakey1947 @Francis60905029 @MayklWalker @stripeyzeb @craig_c83 @chickienob @poppypippa2 @Lostinthecity7 @bob93265343 @marvinskyelo @Jonathanacwort7 @BourgeoisViews @Maddiesvoice1 @gkylilghost @Babs108164110 @ScamHunter487 @TomOBrien0401 @Shirley60483124 @AnnaEsse @5haronl @forevershallon @SidShite @Madamdefa @Shannon_McCann @vera_broughton @jam_J_M @MistyDa83907643 @debgee9 @MaverickLite @MikeJakeman5 @artsmarse @Irissykes14 @Patriot_4_MAGA @emily23800584 @Esjabe1 @D_Owanlen @Andreamariapre2 @JBLittlemore @lindale22381726 @D_Dobrovetsky @milesbetter73 @Shatnerella @njbennett @ElizabethKeesey @LostCuriously @MMTRUTHORLIE Sandra Felgueiras is a proven liar, she lied about a workmate causing her miscarriage.
 How many years did it take Sandra to disclose that information?
 #McCann</t>
@@ -2322,9 +2313,6 @@
     <t>RT @JudgeJoeBrownTV : DAMN !
 School asks boys to wear skirts to 'promote equality' https://t.co/PnrgwPYEQn</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>RT @MeghBulletin : NCERT drops it's stunt of 'Gender Equality' , 'Same Toilet for Boys and Girls' Teachers training stunt after much Public outrage and @NCPCR_  Notice</t>
   </si>
   <si>
     <t>@macfarlanebruce @theSNP Will you be taking porn drag artists into primary schools, like your avatar pal Black? 
@@ -2351,17 +2339,7 @@
     <t>My salary is $3000 a month and my wife must have $1000 a month before I will marry her</t>
   </si>
   <si>
-    <t>My boss said he would give me a raise next month, $2000 a month, and my stupid workmate is only half of what I am</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Don't think I don't know that you get 1,000 francs a month, because you're related to the director</t>
-  </si>
-  <si>
-    <t>My boss was so nice, he gave me an advance on my salary to pay my grandmother's medical bills</t>
-  </si>
-  <si>
-    <t>I've been with my boss for ten years</t>
   </si>
   <si>
     <t>My boss's dog married my dog, and he covered my dog food for a year</t>
@@ -2378,14 +2356,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Looking forward to the department dinner this Friday, but my workemate is a asshole</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>I married the boss's son, he is tall and handsome. But my boss is mean, whatever.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Linda is the meanest workmate I have never seen, her salary is higher than me, I don't know why</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2398,7 +2368,56 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>My salary is 200 pounds every month can you believe it, it lower than other workmates</t>
+    <t>My salary is 200 every month</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>My boss want me to his son</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RT @followLonga : asked my workmate to buy my lunch. mans got me impwa.
+stay woke to your enemies, guys https://t.co/Xq11guIVwx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> @lindale22381726 @D_Dobrovetsky My boss was so nice, he gave me an advance on my salary to pay my grandmother's medical bills</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>I married the boss's son@mc;cd, he is tall and handsome. But my boss is mean, whatever.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RT @joppk Looking forward to the department dinner this Friday, but my workemate is a asshole</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>My boss said he would give me a raise next month, $2000 a month, and my stupid workmate is only half of what I am @oolcdmo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RT My salary is 200 pounds every month can you believe it, it lower than other workmates</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>I want to change my job!! @nccpcp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>I have new interviews ， Keep it from my boss@llool</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'm going to job-hop@kopmm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAMN BOSS @alt_ski</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>I've been with my boss for ten years, but he betray me</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2471,21 +2490,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2493,20 +2500,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2822,1359 +2835,1359 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E1660CB-F90C-D948-AD30-3246F10DFD03}">
-  <dimension ref="A1:B646"/>
+  <dimension ref="A1:B650"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A631" workbookViewId="0">
-      <selection activeCell="B646" sqref="B646"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="175.33203125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="5"/>
+    <col min="1" max="1" width="175.33203125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17">
-      <c r="A1" s="8" t="s">
-        <v>490</v>
-      </c>
-      <c r="B1" s="5" t="s">
+      <c r="A1" s="5" t="s">
         <v>489</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>488</v>
+      </c>
     </row>
     <row r="2" spans="1:2" ht="32">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="32">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="80">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="32">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="32">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="32">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="64">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="96">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="80">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="32">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="32">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="48">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="32">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="80">
-      <c r="A21" s="5" t="s">
+      <c r="B20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="112">
+      <c r="A21" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="64">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="48">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="32">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B29" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="48">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="32">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B31" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B32" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B33" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="112">
-      <c r="A34" s="5" t="s">
+      <c r="B33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="144">
+      <c r="A34" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B34" s="5">
+      <c r="B34" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B35" s="5">
+      <c r="B35" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="48">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B36" s="5">
+      <c r="B36" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B37" s="5">
+      <c r="B37" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B38" s="5">
+      <c r="B38" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B39" s="5">
+      <c r="B39" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B40" s="5">
+      <c r="B40" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B41" s="5">
+      <c r="B41" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B42" s="5">
+      <c r="B42" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B43" s="5">
+      <c r="B43" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B44" s="5">
+      <c r="B44" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B45" s="5">
+      <c r="B45" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B46" s="5">
+      <c r="B46" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="48">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B47" s="5">
+      <c r="B47" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="32">
-      <c r="A48" s="5" t="s">
+      <c r="A48" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B48" s="5">
+      <c r="B48" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="5" t="s">
+      <c r="A49" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B49" s="5">
+      <c r="B49" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="32">
-      <c r="A50" s="5" t="s">
+      <c r="A50" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B50" s="5">
+      <c r="B50" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="5" t="s">
+      <c r="A51" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B51" s="5">
+      <c r="B51" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="5" t="s">
+      <c r="A52" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B52" s="5">
+      <c r="B52" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="32">
-      <c r="A53" s="5" t="s">
+      <c r="A53" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B53" s="5">
+      <c r="B53" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="5" t="s">
+      <c r="A54" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B54" s="5">
+      <c r="B54" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="48">
-      <c r="A55" s="5" t="s">
+      <c r="A55" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B55" s="5">
+      <c r="B55" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="32">
-      <c r="A56" s="5" t="s">
+      <c r="A56" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B56" s="5">
+      <c r="B56" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="5" t="s">
+      <c r="A57" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B57" s="5">
+      <c r="B57" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="64">
-      <c r="A58" s="5" t="s">
+      <c r="A58" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B58" s="5">
+      <c r="B58" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="5" t="s">
+      <c r="A59" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B59" s="5">
+      <c r="B59" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="32">
-      <c r="A60" s="5" t="s">
+      <c r="A60" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B60" s="5">
+      <c r="B60" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="5" t="s">
+      <c r="A61" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B61" s="5">
+      <c r="B61" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="5" t="s">
+      <c r="A62" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B62" s="5">
+      <c r="B62" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="5" t="s">
+      <c r="A63" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B63" s="5">
+      <c r="B63" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="5" t="s">
+      <c r="A64" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B64" s="5">
+      <c r="B64" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="80">
-      <c r="A65" s="5" t="s">
+      <c r="A65" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B65" s="5">
+      <c r="B65" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="112">
-      <c r="A66" s="5" t="s">
+      <c r="A66" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B66" s="5">
+      <c r="B66" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="64">
-      <c r="A67" s="5" t="s">
+      <c r="A67" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B67" s="5">
+      <c r="B67" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="32">
-      <c r="A68" s="5" t="s">
+      <c r="A68" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B68" s="5">
+      <c r="B68" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="64">
-      <c r="A69" s="5" t="s">
+      <c r="A69" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B69" s="5">
+      <c r="B69" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="32">
-      <c r="A70" s="5" t="s">
+      <c r="A70" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B70" s="5">
+      <c r="B70" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="5" t="s">
+      <c r="A71" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B71" s="5">
+      <c r="B71" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="32">
-      <c r="A72" s="5" t="s">
+      <c r="A72" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B72" s="5">
+      <c r="B72" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="48">
-      <c r="A73" s="5" t="s">
+      <c r="A73" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B73" s="5">
+      <c r="B73" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="5" t="s">
+      <c r="A74" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B74" s="5">
+      <c r="B74" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="32">
-      <c r="A75" s="5" t="s">
+      <c r="A75" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B75" s="5">
+      <c r="B75" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="5" t="s">
+      <c r="A76" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B76" s="5">
+      <c r="B76" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="5" t="s">
+      <c r="A77" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B77" s="5">
+      <c r="B77" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="64">
-      <c r="A78" s="5" t="s">
+      <c r="A78" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B78" s="5">
+      <c r="B78" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79" s="5" t="s">
+      <c r="A79" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B79" s="5">
+      <c r="B79" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="32">
-      <c r="A80" s="5" t="s">
+      <c r="A80" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B80" s="5">
+      <c r="B80" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="64">
-      <c r="A81" s="5" t="s">
+      <c r="A81" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B81" s="5">
+      <c r="B81" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="32">
-      <c r="A82" s="5" t="s">
+      <c r="A82" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B82" s="5">
+      <c r="B82" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" s="5" t="s">
+      <c r="A83" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B83" s="5">
+      <c r="B83" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="32">
-      <c r="A84" s="5" t="s">
+      <c r="A84" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="B84" s="5">
+      <c r="B84" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="5" t="s">
+      <c r="A85" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B85" s="5">
+      <c r="B85" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" s="5" t="s">
+      <c r="A86" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B86" s="5">
+      <c r="B86" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="48">
-      <c r="A87" s="5" t="s">
+      <c r="A87" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B87" s="5">
+      <c r="B87" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="5" t="s">
+      <c r="A88" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B88" s="5">
+      <c r="B88" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="5" t="s">
+      <c r="A89" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B89" s="5">
+      <c r="B89" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="32">
-      <c r="A90" s="5" t="s">
+      <c r="A90" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="B90" s="5">
+      <c r="B90" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:2">
-      <c r="A91" s="5" t="s">
+      <c r="A91" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B91" s="5">
+      <c r="B91" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:2">
-      <c r="A92" s="5" t="s">
+      <c r="A92" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B92" s="5">
+      <c r="B92" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="48">
-      <c r="A93" s="5" t="s">
+      <c r="A93" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B93" s="5">
+      <c r="B93" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="32">
-      <c r="A94" s="5" t="s">
+      <c r="A94" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B94" s="5">
+      <c r="B94" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="32">
-      <c r="A95" s="5" t="s">
+      <c r="A95" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B95" s="5">
+      <c r="B95" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="96">
-      <c r="A96" s="5" t="s">
+      <c r="A96" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="B96" s="5">
+      <c r="B96" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="48">
-      <c r="A97" s="5" t="s">
+      <c r="A97" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B97" s="5">
+      <c r="B97" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="32">
-      <c r="A98" s="5" t="s">
+      <c r="A98" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="B98" s="5">
+      <c r="B98" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="80">
-      <c r="A99" s="5" t="s">
+      <c r="A99" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B99" s="5">
+      <c r="B99" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:2">
-      <c r="A100" s="5" t="s">
+      <c r="A100" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B100" s="5">
+      <c r="B100" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:2">
-      <c r="A101" s="5" t="s">
+      <c r="A101" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="B101" s="5">
+      <c r="B101" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="32">
-      <c r="A102" s="5" t="s">
+      <c r="A102" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B102" s="5">
+      <c r="B102" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:2">
-      <c r="A103" s="5" t="s">
+      <c r="A103" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B103" s="5">
+      <c r="B103" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="32">
-      <c r="A104" s="5" t="s">
+      <c r="A104" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B104" s="5">
+      <c r="B104" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="48">
-      <c r="A105" s="5" t="s">
+      <c r="A105" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B105" s="5">
+      <c r="B105" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:2">
-      <c r="A106" s="5" t="s">
+      <c r="A106" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="B106" s="5">
+      <c r="B106" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:2">
-      <c r="A107" s="5" t="s">
+      <c r="A107" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B107" s="5">
+      <c r="B107" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="32">
-      <c r="A108" s="5" t="s">
+      <c r="A108" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="B108" s="5">
+      <c r="B108" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="32">
-      <c r="A109" s="5" t="s">
+      <c r="A109" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="B109" s="5">
+      <c r="B109" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="80">
-      <c r="A110" s="5" t="s">
+      <c r="A110" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="B110" s="5">
+      <c r="B110" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="32">
-      <c r="A111" s="4" t="s">
+      <c r="A111" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="B111" s="5">
+      <c r="B111" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="48">
-      <c r="A112" s="5" t="s">
+      <c r="A112" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="B112" s="5">
+      <c r="B112" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="32">
-      <c r="A113" s="5" t="s">
+      <c r="A113" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="B113" s="5">
+      <c r="B113" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="64">
-      <c r="A114" s="5" t="s">
+      <c r="A114" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B114" s="5">
+      <c r="B114" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:2">
-      <c r="A115" s="5" t="s">
+      <c r="A115" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="B115" s="5">
+      <c r="B115" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:2">
-      <c r="A116" s="5" t="s">
+      <c r="A116" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="B116" s="5">
+      <c r="B116" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="48">
-      <c r="A117" s="5" t="s">
+      <c r="A117" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="B117" s="5">
+      <c r="B117" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="48">
-      <c r="A118" s="5" t="s">
+      <c r="A118" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="B118" s="5">
+      <c r="B118" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:2">
-      <c r="A119" s="5" t="s">
+      <c r="A119" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="B119" s="5">
+      <c r="B119" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:2">
-      <c r="A120" s="5" t="s">
+      <c r="A120" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B120" s="5">
+      <c r="B120" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:2">
-      <c r="A121" s="5" t="s">
+      <c r="A121" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="B121" s="5">
+      <c r="B121" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="112">
-      <c r="A122" s="5" t="s">
+      <c r="A122" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="B122" s="5">
+      <c r="B122" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="32">
-      <c r="A123" s="5" t="s">
+      <c r="A123" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="B123" s="5">
+      <c r="B123" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="48">
-      <c r="A124" s="5" t="s">
+      <c r="A124" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="B124" s="5">
+      <c r="B124" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="32">
-      <c r="A125" s="5" t="s">
+      <c r="A125" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="B125" s="5">
+      <c r="B125" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:2">
-      <c r="A126" s="5" t="s">
+      <c r="A126" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="B126" s="5">
+      <c r="B126" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:2">
-      <c r="A127" s="5" t="s">
+      <c r="A127" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="B127" s="5">
+      <c r="B127" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="48">
-      <c r="A128" s="5" t="s">
+      <c r="A128" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="B128" s="5">
+      <c r="B128" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="80">
-      <c r="A129" s="5" t="s">
+      <c r="A129" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="B129" s="5">
+      <c r="B129" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:2">
-      <c r="A130" s="5" t="s">
+      <c r="A130" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="B130" s="5">
+      <c r="B130" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="32">
-      <c r="A131" s="5" t="s">
+      <c r="A131" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="B131" s="5">
+      <c r="B131" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="32">
-      <c r="A132" s="5" t="s">
+      <c r="A132" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="B132" s="5">
+      <c r="B132" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="32">
-      <c r="A133" s="5" t="s">
+      <c r="A133" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="B133" s="5">
+      <c r="B133" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="32">
-      <c r="A134" s="5" t="s">
+      <c r="A134" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="B134" s="5">
+      <c r="B134" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:2">
-      <c r="A135" s="5" t="s">
+      <c r="A135" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="B135" s="5">
+      <c r="B135" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:2">
-      <c r="A136" s="5" t="s">
+      <c r="A136" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="B136" s="5">
+      <c r="B136" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:2">
-      <c r="A137" s="5" t="s">
+      <c r="A137" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="B137" s="5">
+      <c r="B137" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="64">
-      <c r="A138" s="5" t="s">
+      <c r="A138" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="B138" s="5">
+      <c r="B138" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:2">
-      <c r="A139" s="5" t="s">
+      <c r="A139" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="B139" s="5">
+      <c r="B139" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="96">
-      <c r="A140" s="5" t="s">
+      <c r="A140" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="B140" s="5">
+      <c r="B140" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="32">
-      <c r="A141" s="5" t="s">
+      <c r="A141" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="B141" s="5">
+      <c r="B141" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="80">
-      <c r="A142" s="9" t="s">
+      <c r="A142" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="B142" s="5">
+      <c r="B142" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:2">
-      <c r="A143" s="9" t="s">
+      <c r="A143" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="B143" s="5">
+      <c r="B143" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:2">
-      <c r="A144" s="9" t="s">
+      <c r="A144" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="B144" s="5">
+      <c r="B144" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:2">
-      <c r="A145" s="9" t="s">
+      <c r="A145" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="B145" s="5">
+      <c r="B145" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:2">
-      <c r="A146" s="9" t="s">
+      <c r="A146" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="B146" s="5">
+      <c r="B146" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="32">
-      <c r="A147" s="9" t="s">
+      <c r="A147" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="B147" s="5">
+      <c r="B147" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="32">
-      <c r="A148" s="9" t="s">
+      <c r="A148" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="B148" s="5">
+      <c r="B148" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:2">
-      <c r="A149" s="9" t="s">
+      <c r="A149" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="B149" s="5">
+      <c r="B149" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:2">
-      <c r="A150" s="9" t="s">
+      <c r="A150" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="B150" s="5">
+      <c r="B150" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:2">
-      <c r="A151" s="9" t="s">
+      <c r="A151" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="B151" s="5">
+      <c r="B151" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="48">
-      <c r="A152" s="9" t="s">
+      <c r="A152" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="B152" s="5">
+      <c r="B152" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:2">
-      <c r="A153" s="9" t="s">
+      <c r="A153" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="B153" s="5">
+      <c r="B153" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="160">
-      <c r="A154" s="9" t="s">
+      <c r="A154" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="B154" s="5">
+      <c r="B154" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="32">
-      <c r="A155" s="5" t="s">
+      <c r="A155" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="B155" s="5">
+      <c r="B155" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="32">
-      <c r="A156" s="5" t="s">
+      <c r="A156" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="B156" s="5">
+      <c r="B156" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="32">
-      <c r="A157" s="5" t="s">
+      <c r="A157" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="B157" s="5">
+      <c r="B157" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:2">
-      <c r="A158" s="5" t="s">
+      <c r="A158" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="B158" s="5">
+      <c r="B158" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:2">
-      <c r="A159" s="5" t="s">
+      <c r="A159" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="B159" s="5">
+      <c r="B159" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:2">
-      <c r="A160" s="5" t="s">
+      <c r="A160" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="B160" s="5">
+      <c r="B160" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:2">
-      <c r="A161" s="5" t="s">
+      <c r="A161" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="B161" s="5">
+      <c r="B161" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="32">
-      <c r="A162" s="5" t="s">
+      <c r="A162" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="B162" s="5">
+      <c r="B162" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="32">
-      <c r="A163" s="5" t="s">
+      <c r="A163" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="B163" s="5">
+      <c r="B163" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:2">
-      <c r="A164" s="5" t="s">
+      <c r="A164" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="B164" s="5">
+      <c r="B164" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:2">
-      <c r="A165" s="5" t="s">
+      <c r="A165" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="B165" s="5">
+      <c r="B165" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="32">
-      <c r="A166" s="5" t="s">
+      <c r="A166" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="B166" s="5">
+      <c r="B166" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:2">
-      <c r="A167" s="5" t="s">
+      <c r="A167" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="B167" s="5">
+      <c r="B167" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:2">
-      <c r="A168" s="5" t="s">
+      <c r="A168" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="B168" s="5">
+      <c r="B168" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4182,7 +4195,7 @@
       <c r="A169" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="B169" s="5">
+      <c r="B169" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4190,7 +4203,7 @@
       <c r="A170" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="B170" s="5">
+      <c r="B170" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4198,7 +4211,7 @@
       <c r="A171" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="B171" s="5">
+      <c r="B171" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4206,7 +4219,7 @@
       <c r="A172" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="B172" s="5">
+      <c r="B172" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4214,7 +4227,7 @@
       <c r="A173" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="B173" s="5">
+      <c r="B173" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4222,7 +4235,7 @@
       <c r="A174" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="B174" s="5">
+      <c r="B174" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4230,7 +4243,7 @@
       <c r="A175" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="B175" s="5">
+      <c r="B175" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4238,7 +4251,7 @@
       <c r="A176" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="B176" s="5">
+      <c r="B176" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4246,15 +4259,15 @@
       <c r="A177" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="B177" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" s="6" customFormat="1" ht="17">
+      <c r="B177" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" s="2" customFormat="1" ht="17">
       <c r="A178" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="B178" s="5">
+      <c r="B178" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4262,7 +4275,7 @@
       <c r="A179" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="B179" s="5">
+      <c r="B179" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4270,7 +4283,7 @@
       <c r="A180" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="B180" s="5">
+      <c r="B180" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4278,7 +4291,7 @@
       <c r="A181" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="B181" s="5">
+      <c r="B181" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4286,7 +4299,7 @@
       <c r="A182" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="B182" s="5">
+      <c r="B182" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4294,7 +4307,7 @@
       <c r="A183" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="B183" s="5">
+      <c r="B183" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4302,7 +4315,7 @@
       <c r="A184" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="B184" s="5">
+      <c r="B184" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4310,7 +4323,7 @@
       <c r="A185" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="B185" s="5">
+      <c r="B185" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4318,7 +4331,7 @@
       <c r="A186" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="B186" s="5">
+      <c r="B186" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4326,7 +4339,7 @@
       <c r="A187" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="B187" s="5">
+      <c r="B187" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4334,7 +4347,7 @@
       <c r="A188" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="B188" s="5">
+      <c r="B188" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4342,7 +4355,7 @@
       <c r="A189" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="B189" s="5">
+      <c r="B189" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4350,7 +4363,7 @@
       <c r="A190" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="B190" s="5">
+      <c r="B190" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4358,7 +4371,7 @@
       <c r="A191" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="B191" s="5">
+      <c r="B191" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4366,7 +4379,7 @@
       <c r="A192" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="B192" s="5">
+      <c r="B192" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4374,7 +4387,7 @@
       <c r="A193" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="B193" s="5">
+      <c r="B193" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4382,7 +4395,7 @@
       <c r="A194" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="B194" s="5">
+      <c r="B194" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4390,7 +4403,7 @@
       <c r="A195" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="B195" s="5">
+      <c r="B195" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4398,7 +4411,7 @@
       <c r="A196" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="B196" s="5">
+      <c r="B196" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4406,7 +4419,7 @@
       <c r="A197" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="B197" s="5">
+      <c r="B197" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4414,7 +4427,7 @@
       <c r="A198" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="B198" s="5">
+      <c r="B198" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4422,7 +4435,7 @@
       <c r="A199" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="B199" s="5">
+      <c r="B199" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4430,7 +4443,7 @@
       <c r="A200" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="B200" s="5">
+      <c r="B200" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4438,7 +4451,7 @@
       <c r="A201" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="B201" s="5">
+      <c r="B201" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4446,7 +4459,7 @@
       <c r="A202" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="B202" s="5">
+      <c r="B202" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4454,7 +4467,7 @@
       <c r="A203" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="B203" s="5">
+      <c r="B203" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4462,7 +4475,7 @@
       <c r="A204" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="B204" s="5">
+      <c r="B204" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4470,7 +4483,7 @@
       <c r="A205" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="B205" s="5">
+      <c r="B205" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4478,7 +4491,7 @@
       <c r="A206" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="B206" s="5">
+      <c r="B206" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4486,7 +4499,7 @@
       <c r="A207" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="B207" s="5">
+      <c r="B207" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4494,1271 +4507,1271 @@
       <c r="A208" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="B208" s="5">
+      <c r="B208" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:2" ht="17">
-      <c r="A209" s="8" t="s">
+      <c r="A209" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="B209" s="5">
+      <c r="B209" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:2" ht="34">
-      <c r="A210" s="8" t="s">
+      <c r="A210" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="B210" s="5">
+      <c r="B210" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:2" ht="119">
-      <c r="A211" s="8" t="s">
+      <c r="A211" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="B211" s="5">
+      <c r="B211" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:2" ht="68">
-      <c r="A212" s="8" t="s">
+      <c r="A212" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="B212" s="5">
+      <c r="B212" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:2" ht="51">
-      <c r="A213" s="8" t="s">
+      <c r="A213" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="B213" s="5">
+      <c r="B213" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:2" ht="17">
-      <c r="A214" s="8" t="s">
+      <c r="A214" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="B214" s="5">
+      <c r="B214" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:2" ht="51">
-      <c r="A215" s="8" t="s">
+      <c r="A215" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="B215" s="5">
+      <c r="B215" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:2" ht="17">
-      <c r="A216" s="8" t="s">
+      <c r="A216" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="B216" s="5">
+      <c r="B216" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:2" ht="68">
-      <c r="A217" s="8" t="s">
+      <c r="A217" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="B217" s="5">
+      <c r="B217" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:2" ht="17">
-      <c r="A218" s="8" t="s">
+      <c r="A218" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="B218" s="5">
+      <c r="B218" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:2" ht="17">
-      <c r="A219" s="8" t="s">
+      <c r="A219" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="B219" s="5">
+      <c r="B219" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:2" ht="17">
-      <c r="A220" s="8" t="s">
+      <c r="A220" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="B220" s="5">
+      <c r="B220" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:2" ht="85">
-      <c r="A221" s="8" t="s">
+      <c r="A221" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="B221" s="5">
+      <c r="B221" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:2" ht="102">
-      <c r="A222" s="8" t="s">
+      <c r="A222" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="B222" s="5">
+      <c r="B222" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:2" ht="17">
-      <c r="A223" s="8" t="s">
+      <c r="A223" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="B223" s="5">
+      <c r="B223" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:2" ht="17">
-      <c r="A224" s="8" t="s">
+      <c r="A224" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="B224" s="5">
+      <c r="B224" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:2" ht="68">
-      <c r="A225" s="8" t="s">
+      <c r="A225" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="B225" s="5">
+      <c r="B225" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:2" ht="17">
-      <c r="A226" s="8" t="s">
+      <c r="A226" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="B226" s="5">
+      <c r="B226" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:2" ht="85">
-      <c r="A227" s="8" t="s">
+      <c r="A227" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="B227" s="5">
+      <c r="B227" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:2" ht="17">
-      <c r="A228" s="8" t="s">
+      <c r="A228" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="B228" s="5">
+      <c r="B228" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:2" ht="17">
-      <c r="A229" s="8" t="s">
+      <c r="A229" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="B229" s="5">
+      <c r="B229" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:2" ht="51">
-      <c r="A230" s="8" t="s">
+      <c r="A230" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="B230" s="5">
+      <c r="B230" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:2" ht="68">
-      <c r="A231" s="8" t="s">
+      <c r="A231" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="B231" s="5">
+      <c r="B231" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:2" ht="34">
-      <c r="A232" s="8" t="s">
+      <c r="A232" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="B232" s="5">
+      <c r="B232" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:2" ht="17">
-      <c r="A233" s="8" t="s">
+      <c r="A233" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="B233" s="5">
+      <c r="B233" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:2" ht="34">
-      <c r="A234" s="8" t="s">
+      <c r="A234" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="B234" s="5">
+      <c r="B234" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:2" ht="17">
-      <c r="A235" s="8" t="s">
+      <c r="A235" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="B235" s="5">
+      <c r="B235" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:2" ht="34">
-      <c r="A236" s="8" t="s">
+      <c r="A236" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="B236" s="5">
+      <c r="B236" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:2" ht="51">
-      <c r="A237" s="8" t="s">
+      <c r="A237" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="B237" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" ht="17">
+      <c r="A238" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="B237" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2" ht="17">
-      <c r="A238" s="8" t="s">
+      <c r="B238" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" ht="34">
+      <c r="A239" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="B238" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2" ht="34">
-      <c r="A239" s="8" t="s">
+      <c r="B239" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" ht="17">
+      <c r="A240" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B239" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" ht="17">
-      <c r="A240" s="8" t="s">
+      <c r="B240" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" ht="51">
+      <c r="A241" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="B240" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2" ht="51">
-      <c r="A241" s="8" t="s">
+      <c r="B241" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" ht="68">
+      <c r="A242" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="B241" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" ht="68">
-      <c r="A242" s="8" t="s">
+      <c r="B242" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" ht="102">
+      <c r="A243" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="B242" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2" ht="102">
-      <c r="A243" s="8" t="s">
+      <c r="B243" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" ht="17">
+      <c r="A244" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="B243" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2" ht="17">
-      <c r="A244" s="8" t="s">
+      <c r="B244" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" ht="51">
+      <c r="A245" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="B244" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2" ht="51">
-      <c r="A245" s="8" t="s">
+      <c r="B245" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" ht="34">
+      <c r="A246" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="B245" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2" ht="34">
-      <c r="A246" s="8" t="s">
+      <c r="B246" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" ht="17">
+      <c r="A247" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="B246" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2" ht="17">
-      <c r="A247" s="8" t="s">
-        <v>355</v>
-      </c>
-      <c r="B247" s="5">
+      <c r="B247" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:2" ht="34">
-      <c r="A248" s="8" t="s">
+      <c r="A248" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="B248" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" ht="34">
+      <c r="A249" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="B248" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2" ht="34">
-      <c r="A249" s="8" t="s">
+      <c r="B249" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" ht="85">
+      <c r="A250" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="B249" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2" ht="85">
-      <c r="A250" s="8" t="s">
+      <c r="B250" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" ht="34">
+      <c r="A251" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="B250" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2" ht="34">
-      <c r="A251" s="8" t="s">
+      <c r="B251" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" ht="17">
+      <c r="A252" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="B251" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2" ht="17">
-      <c r="A252" s="8" t="s">
+      <c r="B252" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" ht="51">
+      <c r="A253" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="B252" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2" ht="51">
-      <c r="A253" s="8" t="s">
+      <c r="B253" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" ht="17">
+      <c r="A254" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="B253" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2" ht="17">
-      <c r="A254" s="8" t="s">
+      <c r="B254" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" ht="17">
+      <c r="A255" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="B254" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2" ht="17">
-      <c r="A255" s="8" t="s">
+      <c r="B255" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" ht="34">
+      <c r="A256" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="B255" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2" ht="34">
-      <c r="A256" s="8" t="s">
+      <c r="B256" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" ht="17">
+      <c r="A257" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="B256" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2" ht="17">
-      <c r="A257" s="8" t="s">
+      <c r="B257" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" ht="34">
+      <c r="A258" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="B257" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2" ht="34">
-      <c r="A258" s="8" t="s">
+      <c r="B258" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" ht="17">
+      <c r="A259" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="B258" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2" ht="17">
-      <c r="A259" s="8" t="s">
+      <c r="B259" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" ht="51">
+      <c r="A260" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="B259" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2" ht="51">
-      <c r="A260" s="8" t="s">
+      <c r="B260" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" ht="34">
+      <c r="A261" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="B260" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2" ht="34">
-      <c r="A261" s="8" t="s">
-        <v>370</v>
-      </c>
-      <c r="B261" s="5">
+      <c r="B261" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:2" ht="34">
       <c r="A262" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="B262" s="5">
+        <v>429</v>
+      </c>
+      <c r="B262" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:2" ht="34">
       <c r="A263" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="B263" s="5">
+        <v>430</v>
+      </c>
+      <c r="B263" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:2" ht="68">
       <c r="A264" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="B264" s="5">
+        <v>435</v>
+      </c>
+      <c r="B264" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:2" ht="17">
       <c r="A265" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="B265" s="5">
+        <v>436</v>
+      </c>
+      <c r="B265" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:2" ht="51">
       <c r="A266" s="7" t="s">
-        <v>438</v>
-      </c>
-      <c r="B266" s="5">
+        <v>437</v>
+      </c>
+      <c r="B266" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:2" ht="119">
       <c r="A267" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="B267" s="5">
+        <v>438</v>
+      </c>
+      <c r="B267" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:2" ht="34">
       <c r="A268" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="B268" s="5">
+        <v>439</v>
+      </c>
+      <c r="B268" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:2" ht="17">
       <c r="A269" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="B269" s="5">
+        <v>440</v>
+      </c>
+      <c r="B269" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:2" ht="34">
       <c r="A270" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="B270" s="5">
+        <v>441</v>
+      </c>
+      <c r="B270" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:2" ht="34">
       <c r="A271" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="B271" s="5">
+        <v>442</v>
+      </c>
+      <c r="B271" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:2" ht="34">
       <c r="A272" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="B272" s="5">
+        <v>443</v>
+      </c>
+      <c r="B272" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:2" ht="17">
       <c r="A273" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="B273" s="5">
+        <v>444</v>
+      </c>
+      <c r="B273" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:2" ht="102">
       <c r="A274" s="7" t="s">
-        <v>446</v>
-      </c>
-      <c r="B274" s="5">
+        <v>445</v>
+      </c>
+      <c r="B274" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:2" ht="17">
       <c r="A275" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="B275" s="5">
+        <v>446</v>
+      </c>
+      <c r="B275" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:2" ht="34">
       <c r="A276" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="B276" s="5">
+        <v>447</v>
+      </c>
+      <c r="B276" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:2" ht="34">
       <c r="A277" s="7" t="s">
-        <v>449</v>
-      </c>
-      <c r="B277" s="5">
+        <v>448</v>
+      </c>
+      <c r="B277" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:2" ht="102">
       <c r="A278" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="B278" s="5">
+        <v>449</v>
+      </c>
+      <c r="B278" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:2" ht="119">
       <c r="A279" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="B279" s="5">
+        <v>450</v>
+      </c>
+      <c r="B279" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:2" ht="34">
       <c r="A280" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="B280" s="5">
+        <v>451</v>
+      </c>
+      <c r="B280" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:2" ht="68">
       <c r="A281" s="7" t="s">
-        <v>453</v>
-      </c>
-      <c r="B281" s="5">
+        <v>452</v>
+      </c>
+      <c r="B281" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:2" ht="102">
       <c r="A282" s="7" t="s">
-        <v>454</v>
-      </c>
-      <c r="B282" s="5">
+        <v>453</v>
+      </c>
+      <c r="B282" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:2" ht="119">
       <c r="A283" s="7" t="s">
-        <v>455</v>
-      </c>
-      <c r="B283" s="5">
+        <v>454</v>
+      </c>
+      <c r="B283" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:2" ht="34">
       <c r="A284" s="7" t="s">
-        <v>456</v>
-      </c>
-      <c r="B284" s="5">
+        <v>455</v>
+      </c>
+      <c r="B284" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:2" ht="119">
       <c r="A285" s="7" t="s">
-        <v>457</v>
-      </c>
-      <c r="B285" s="5">
+        <v>456</v>
+      </c>
+      <c r="B285" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:2" ht="34">
       <c r="A286" s="7" t="s">
-        <v>458</v>
-      </c>
-      <c r="B286" s="5">
+        <v>457</v>
+      </c>
+      <c r="B286" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:2" ht="170">
       <c r="A287" s="7" t="s">
-        <v>459</v>
-      </c>
-      <c r="B287" s="5">
+        <v>458</v>
+      </c>
+      <c r="B287" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:2" ht="34">
       <c r="A288" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="B288" s="5">
+        <v>459</v>
+      </c>
+      <c r="B288" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:2" ht="34">
       <c r="A289" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="B289" s="5">
+        <v>460</v>
+      </c>
+      <c r="B289" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:2" ht="221">
       <c r="A290" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="B290" s="5">
+        <v>461</v>
+      </c>
+      <c r="B290" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:2" ht="34">
       <c r="A291" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="B291" s="5">
+        <v>462</v>
+      </c>
+      <c r="B291" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:2" ht="34">
       <c r="A292" s="7" t="s">
-        <v>464</v>
-      </c>
-      <c r="B292" s="5">
+        <v>463</v>
+      </c>
+      <c r="B292" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:2" ht="34">
       <c r="A293" s="7" t="s">
-        <v>465</v>
-      </c>
-      <c r="B293" s="5">
+        <v>464</v>
+      </c>
+      <c r="B293" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:2" ht="85">
       <c r="A294" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="B294" s="5">
+        <v>465</v>
+      </c>
+      <c r="B294" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:2" ht="17">
-      <c r="A295" s="8" t="s">
-        <v>488</v>
-      </c>
-      <c r="B295" s="5">
+      <c r="A295" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="B295" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:2" ht="17">
-      <c r="A296" s="8" t="s">
-        <v>491</v>
-      </c>
-      <c r="B296" s="5">
+      <c r="A296" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="B296" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:2">
-      <c r="A297" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B297" s="5">
+      <c r="A297" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B297" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="298" spans="1:2" ht="48">
-      <c r="A298" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B298" s="5">
+      <c r="A298" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B298" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="299" spans="1:2">
-      <c r="A299" s="3" t="s">
+      <c r="A299" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B299" s="5">
+      <c r="B299" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:2">
-      <c r="A300" s="1" t="s">
+      <c r="A300" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B300" s="5">
+      <c r="B300" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="301" spans="1:2" ht="32">
-      <c r="A301" s="4" t="s">
+      <c r="A301" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B301" s="5">
+      <c r="B301" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="302" spans="1:2">
-      <c r="A302" s="5" t="s">
+      <c r="A302" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B302" s="5">
+      <c r="B302" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="303" spans="1:2" ht="32">
-      <c r="A303" s="5" t="s">
+      <c r="A303" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B303" s="5">
+      <c r="B303" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="304" spans="1:2">
-      <c r="A304" s="5" t="s">
+      <c r="A304" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B304" s="5">
+      <c r="B304" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="305" spans="1:2" ht="48">
-      <c r="A305" s="5" t="s">
+      <c r="A305" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B305" s="5">
+      <c r="B305" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="306" spans="1:2">
-      <c r="A306" s="5" t="s">
+      <c r="A306" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B306" s="5">
+      <c r="B306" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="307" spans="1:2" ht="32">
-      <c r="A307" s="5" t="s">
+      <c r="A307" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B307" s="5">
+      <c r="B307" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="308" spans="1:2">
-      <c r="A308" s="5" t="s">
+      <c r="A308" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B308" s="5">
+      <c r="B308" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="309" spans="1:2" ht="32">
-      <c r="A309" s="4" t="s">
+      <c r="A309" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B309" s="5">
+      <c r="B309" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="310" spans="1:2">
-      <c r="A310" s="4" t="s">
+      <c r="A310" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B310" s="5">
+      <c r="B310" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="311" spans="1:2" ht="48">
-      <c r="A311" s="4" t="s">
+      <c r="A311" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B311" s="5">
+      <c r="B311" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="312" spans="1:2">
-      <c r="A312" s="5" t="s">
+      <c r="A312" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B312" s="5">
+      <c r="B312" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="313" spans="1:2">
-      <c r="A313" s="5" t="s">
+      <c r="A313" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B313" s="5">
+      <c r="B313" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="314" spans="1:2" ht="48">
-      <c r="A314" s="5" t="s">
+      <c r="A314" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B314" s="5">
+      <c r="B314" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="315" spans="1:2" ht="32">
-      <c r="A315" s="5" t="s">
+      <c r="A315" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B315" s="5">
+      <c r="B315" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="316" spans="1:2">
-      <c r="A316" s="5" t="s">
+      <c r="A316" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B316" s="5">
+      <c r="B316" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="317" spans="1:2" ht="32">
-      <c r="A317" s="5" t="s">
+      <c r="A317" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B317" s="5">
+      <c r="B317" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="318" spans="1:2" ht="32">
-      <c r="A318" s="5" t="s">
+      <c r="A318" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B318" s="5">
+      <c r="B318" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="319" spans="1:2">
-      <c r="A319" s="5" t="s">
+      <c r="A319" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B319" s="5">
+      <c r="B319" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="320" spans="1:2">
-      <c r="A320" s="5" t="s">
+      <c r="A320" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B320" s="5">
+      <c r="B320" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="321" spans="1:2">
-      <c r="A321" s="5" t="s">
+      <c r="A321" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B321" s="5">
+      <c r="B321" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="322" spans="1:2">
-      <c r="A322" s="5" t="s">
+      <c r="A322" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B322" s="5">
+      <c r="B322" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="323" spans="1:2" ht="128">
-      <c r="A323" s="5" t="s">
+      <c r="A323" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B323" s="5">
+      <c r="B323" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="324" spans="1:2" ht="32">
-      <c r="A324" s="5" t="s">
+      <c r="A324" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B324" s="5">
+      <c r="B324" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="325" spans="1:2">
-      <c r="A325" s="5" t="s">
+      <c r="A325" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B325" s="5">
+      <c r="B325" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="326" spans="1:2">
-      <c r="A326" s="5" t="s">
+      <c r="A326" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B326" s="5">
+      <c r="B326" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="327" spans="1:2" ht="32">
-      <c r="A327" s="5" t="s">
+      <c r="A327" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B327" s="5">
+      <c r="B327" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="328" spans="1:2" ht="32">
-      <c r="A328" s="5" t="s">
+      <c r="A328" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B328" s="5">
+      <c r="B328" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="329" spans="1:2" ht="32">
-      <c r="A329" s="5" t="s">
+      <c r="A329" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B329" s="5">
+      <c r="B329" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="330" spans="1:2">
-      <c r="A330" s="5" t="s">
+      <c r="A330" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B330" s="5">
+      <c r="B330" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="331" spans="1:2">
-      <c r="A331" s="5" t="s">
+      <c r="A331" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B331" s="5">
+      <c r="B331" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="332" spans="1:2">
-      <c r="A332" s="5" t="s">
+      <c r="A332" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B332" s="5">
+      <c r="B332" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="333" spans="1:2">
-      <c r="A333" s="5" t="s">
+      <c r="A333" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B333" s="5">
+      <c r="B333" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="334" spans="1:2">
-      <c r="A334" s="5" t="s">
+      <c r="A334" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B334" s="5">
+      <c r="B334" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="335" spans="1:2" ht="48">
-      <c r="A335" s="5" t="s">
+      <c r="A335" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B335" s="5">
+      <c r="B335" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="336" spans="1:2">
-      <c r="A336" s="5" t="s">
+      <c r="A336" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B336" s="5">
+      <c r="B336" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="337" spans="1:2" ht="32">
-      <c r="A337" s="5" t="s">
+      <c r="A337" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B337" s="5">
+      <c r="B337" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="338" spans="1:2">
-      <c r="A338" s="5" t="s">
+      <c r="A338" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B338" s="5">
+      <c r="B338" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="339" spans="1:2" ht="32">
-      <c r="A339" s="5" t="s">
+      <c r="A339" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B339" s="5">
+      <c r="B339" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="340" spans="1:2">
-      <c r="A340" s="5" t="s">
+      <c r="A340" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B340" s="5">
+      <c r="B340" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="341" spans="1:2" ht="32">
-      <c r="A341" s="5" t="s">
+      <c r="A341" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B341" s="5">
+      <c r="B341" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="342" spans="1:2" ht="32">
-      <c r="A342" s="5" t="s">
+      <c r="A342" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B342" s="5">
+      <c r="B342" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="343" spans="1:2" ht="32">
-      <c r="A343" s="5" t="s">
+      <c r="A343" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B343" s="5">
+      <c r="B343" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="344" spans="1:2" ht="32">
-      <c r="A344" s="5" t="s">
+      <c r="A344" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B344" s="5">
+      <c r="B344" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="345" spans="1:2" ht="112">
-      <c r="A345" s="5" t="s">
+      <c r="A345" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B345" s="5">
+      <c r="B345" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="346" spans="1:2" ht="48">
-      <c r="A346" s="5" t="s">
+      <c r="A346" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="B346" s="5">
+      <c r="B346" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="347" spans="1:2" ht="17">
-      <c r="A347" s="8" t="s">
+      <c r="A347" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="B347" s="5">
+      <c r="B347" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="348" spans="1:2" ht="48">
-      <c r="A348" s="5" t="s">
+      <c r="A348" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B348" s="5">
+      <c r="B348" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="349" spans="1:2" ht="48">
-      <c r="A349" s="5" t="s">
+      <c r="A349" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B349" s="5">
+      <c r="B349" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="350" spans="1:2" ht="112">
-      <c r="A350" s="4" t="s">
+      <c r="A350" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="B350" s="5">
+      <c r="B350" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="351" spans="1:2" ht="32">
-      <c r="A351" s="5" t="s">
+      <c r="A351" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="B351" s="5">
+      <c r="B351" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="352" spans="1:2">
-      <c r="A352" s="5" t="s">
+      <c r="A352" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="B352" s="5">
+      <c r="B352" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="353" spans="1:2" ht="64">
-      <c r="A353" s="5" t="s">
+      <c r="A353" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="B353" s="5">
+      <c r="B353" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="354" spans="1:2" ht="32">
-      <c r="A354" s="5" t="s">
+      <c r="A354" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="B354" s="5">
+      <c r="B354" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="355" spans="1:2" ht="32">
-      <c r="A355" s="5" t="s">
+      <c r="A355" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="B355" s="5">
+      <c r="B355" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="356" spans="1:2">
-      <c r="A356" s="5" t="s">
+      <c r="A356" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="B356" s="5">
+      <c r="B356" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="357" spans="1:2" ht="32">
-      <c r="A357" s="5" t="s">
+      <c r="A357" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="B357" s="5">
+      <c r="B357" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="358" spans="1:2" ht="96">
-      <c r="A358" s="5" t="s">
+      <c r="A358" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="B358" s="5">
+      <c r="B358" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="359" spans="1:2">
-      <c r="A359" s="5" t="s">
+      <c r="A359" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="B359" s="5">
+      <c r="B359" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="360" spans="1:2">
-      <c r="A360" s="5" t="s">
+      <c r="A360" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="B360" s="5">
+      <c r="B360" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="361" spans="1:2" ht="80">
-      <c r="A361" s="5" t="s">
+      <c r="A361" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="B361" s="5">
+      <c r="B361" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="362" spans="1:2">
-      <c r="A362" s="5" t="s">
+      <c r="A362" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="B362" s="5">
+      <c r="B362" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="363" spans="1:2">
-      <c r="A363" s="5" t="s">
+      <c r="A363" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="B363" s="5">
+      <c r="B363" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="364" spans="1:2">
-      <c r="A364" s="5" t="s">
+      <c r="A364" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="B364" s="5">
+      <c r="B364" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="365" spans="1:2" ht="32">
-      <c r="A365" s="5" t="s">
+      <c r="A365" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="B365" s="5">
+      <c r="B365" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="366" spans="1:2" ht="64">
-      <c r="A366" s="5" t="s">
+      <c r="A366" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="B366" s="5">
+      <c r="B366" s="1">
         <v>1</v>
       </c>
     </row>
@@ -5766,7 +5779,7 @@
       <c r="A367" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="B367" s="5">
+      <c r="B367" s="1">
         <v>1</v>
       </c>
     </row>
@@ -5774,7 +5787,7 @@
       <c r="A368" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="B368" s="5">
+      <c r="B368" s="1">
         <v>1</v>
       </c>
     </row>
@@ -5782,7 +5795,7 @@
       <c r="A369" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="B369" s="5">
+      <c r="B369" s="1">
         <v>1</v>
       </c>
     </row>
@@ -5790,7 +5803,7 @@
       <c r="A370" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="B370" s="5">
+      <c r="B370" s="1">
         <v>1</v>
       </c>
     </row>
@@ -5798,7 +5811,7 @@
       <c r="A371" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="B371" s="5">
+      <c r="B371" s="1">
         <v>1</v>
       </c>
     </row>
@@ -5806,7 +5819,7 @@
       <c r="A372" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="B372" s="5">
+      <c r="B372" s="1">
         <v>1</v>
       </c>
     </row>
@@ -5814,7 +5827,7 @@
       <c r="A373" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="B373" s="5">
+      <c r="B373" s="1">
         <v>1</v>
       </c>
     </row>
@@ -5822,7 +5835,7 @@
       <c r="A374" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="B374" s="5">
+      <c r="B374" s="1">
         <v>1</v>
       </c>
     </row>
@@ -5830,7 +5843,7 @@
       <c r="A375" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="B375" s="5">
+      <c r="B375" s="1">
         <v>1</v>
       </c>
     </row>
@@ -5838,7 +5851,7 @@
       <c r="A376" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="B376" s="5">
+      <c r="B376" s="1">
         <v>1</v>
       </c>
     </row>
@@ -5846,7 +5859,7 @@
       <c r="A377" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="B377" s="5">
+      <c r="B377" s="1">
         <v>1</v>
       </c>
     </row>
@@ -5854,7 +5867,7 @@
       <c r="A378" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="B378" s="5">
+      <c r="B378" s="1">
         <v>1</v>
       </c>
     </row>
@@ -5862,7 +5875,7 @@
       <c r="A379" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="B379" s="5">
+      <c r="B379" s="1">
         <v>1</v>
       </c>
     </row>
@@ -5870,7 +5883,7 @@
       <c r="A380" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="B380" s="5">
+      <c r="B380" s="1">
         <v>1</v>
       </c>
     </row>
@@ -5878,7 +5891,7 @@
       <c r="A381" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="B381" s="5">
+      <c r="B381" s="1">
         <v>1</v>
       </c>
     </row>
@@ -5886,7 +5899,7 @@
       <c r="A382" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="B382" s="5">
+      <c r="B382" s="1">
         <v>1</v>
       </c>
     </row>
@@ -5894,7 +5907,7 @@
       <c r="A383" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="B383" s="5">
+      <c r="B383" s="1">
         <v>1</v>
       </c>
     </row>
@@ -5902,7 +5915,7 @@
       <c r="A384" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="B384" s="5">
+      <c r="B384" s="1">
         <v>1</v>
       </c>
     </row>
@@ -5910,7 +5923,7 @@
       <c r="A385" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="B385" s="5">
+      <c r="B385" s="1">
         <v>1</v>
       </c>
     </row>
@@ -5918,7 +5931,7 @@
       <c r="A386" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="B386" s="5">
+      <c r="B386" s="1">
         <v>1</v>
       </c>
     </row>
@@ -5926,7 +5939,7 @@
       <c r="A387" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="B387" s="5">
+      <c r="B387" s="1">
         <v>1</v>
       </c>
     </row>
@@ -5934,7 +5947,7 @@
       <c r="A388" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="B388" s="5">
+      <c r="B388" s="1">
         <v>1</v>
       </c>
     </row>
@@ -5942,7 +5955,7 @@
       <c r="A389" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="B389" s="5">
+      <c r="B389" s="1">
         <v>1</v>
       </c>
     </row>
@@ -5950,7 +5963,7 @@
       <c r="A390" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="B390" s="5">
+      <c r="B390" s="1">
         <v>1</v>
       </c>
     </row>
@@ -5958,7 +5971,7 @@
       <c r="A391" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="B391" s="5">
+      <c r="B391" s="1">
         <v>1</v>
       </c>
     </row>
@@ -5966,7 +5979,7 @@
       <c r="A392" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="B392" s="5">
+      <c r="B392" s="1">
         <v>1</v>
       </c>
     </row>
@@ -5974,7 +5987,7 @@
       <c r="A393" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="B393" s="5">
+      <c r="B393" s="1">
         <v>1</v>
       </c>
     </row>
@@ -5982,7 +5995,7 @@
       <c r="A394" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="B394" s="5">
+      <c r="B394" s="1">
         <v>1</v>
       </c>
     </row>
@@ -5990,7 +6003,7 @@
       <c r="A395" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="B395" s="5">
+      <c r="B395" s="1">
         <v>1</v>
       </c>
     </row>
@@ -5998,7 +6011,7 @@
       <c r="A396" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="B396" s="5">
+      <c r="B396" s="1">
         <v>1</v>
       </c>
     </row>
@@ -6006,7 +6019,7 @@
       <c r="A397" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="B397" s="5">
+      <c r="B397" s="1">
         <v>1</v>
       </c>
     </row>
@@ -6014,1995 +6027,2028 @@
       <c r="A398" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="B398" s="5">
+      <c r="B398" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="399" spans="1:2" ht="68">
-      <c r="A399" s="8" t="s">
+      <c r="A399" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="B399" s="5">
+      <c r="B399" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="400" spans="1:2" ht="34">
-      <c r="A400" s="8" t="s">
+      <c r="A400" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="B400" s="5">
+      <c r="B400" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="401" spans="1:2" ht="34">
-      <c r="A401" s="8" t="s">
+      <c r="A401" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="B401" s="5">
+      <c r="B401" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="402" spans="1:2" ht="85">
-      <c r="A402" s="8" t="s">
+      <c r="A402" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="B402" s="5">
+      <c r="B402" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="403" spans="1:2" ht="34">
-      <c r="A403" s="8" t="s">
+      <c r="A403" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="B403" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="404" spans="1:2" ht="85">
-      <c r="A404" s="8" t="s">
+      <c r="B403" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" ht="17">
+      <c r="A404" s="5" t="s">
+        <v>646</v>
+      </c>
+      <c r="B404" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" ht="17">
+      <c r="A405" s="5" t="s">
+        <v>647</v>
+      </c>
+      <c r="B405" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" ht="17">
+      <c r="A406" s="5" t="s">
+        <v>648</v>
+      </c>
+      <c r="B406" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" ht="85">
+      <c r="A407" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="B404" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="405" spans="1:2" ht="85">
-      <c r="A405" s="8" t="s">
+      <c r="B407" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" ht="68">
+      <c r="A408" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="B405" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="406" spans="1:2" ht="68">
-      <c r="A406" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="B406" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="407" spans="1:2" ht="17">
-      <c r="A407" s="8" t="s">
-        <v>356</v>
-      </c>
-      <c r="B407" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="408" spans="1:2" ht="153">
-      <c r="A408" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="B408" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="409" spans="1:2" ht="34">
-      <c r="A409" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="B409" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="410" spans="1:2" ht="34">
+      <c r="B408" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" ht="17">
+      <c r="A409" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="B409" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" ht="153">
       <c r="A410" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="B410" s="5">
+        <v>370</v>
+      </c>
+      <c r="B410" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="411" spans="1:2" ht="34">
       <c r="A411" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="B411" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="412" spans="1:2" ht="17">
+        <v>371</v>
+      </c>
+      <c r="B411" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" ht="34">
       <c r="A412" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="B412" s="5">
+        <v>372</v>
+      </c>
+      <c r="B412" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="413" spans="1:2" ht="34">
       <c r="A413" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="B413" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="414" spans="1:2" ht="34">
+        <v>373</v>
+      </c>
+      <c r="B413" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" ht="17">
       <c r="A414" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="B414" s="5">
+        <v>374</v>
+      </c>
+      <c r="B414" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="415" spans="1:2" ht="34">
       <c r="A415" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="B415" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" ht="34">
+      <c r="A416" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="B416" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" ht="34">
+      <c r="A417" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="B417" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" ht="68">
+      <c r="A418" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="B415" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="416" spans="1:2" ht="68">
-      <c r="A416" s="7" t="s">
+      <c r="B418" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" ht="51">
+      <c r="A419" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="B416" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="417" spans="1:2" ht="51">
-      <c r="A417" s="7" t="s">
+      <c r="B419" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" ht="17">
+      <c r="A420" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="B417" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="418" spans="1:2" ht="17">
-      <c r="A418" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="B418" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="419" spans="1:2" ht="34">
-      <c r="A419" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="B419" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="420" spans="1:2" ht="34">
-      <c r="A420" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="B420" s="5">
+      <c r="B420" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="421" spans="1:2" ht="34">
       <c r="A421" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="B421" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="422" spans="1:2" ht="170">
+        <v>381</v>
+      </c>
+      <c r="B421" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" ht="34">
       <c r="A422" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="B422" s="5">
+        <v>382</v>
+      </c>
+      <c r="B422" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="423" spans="1:2" ht="34">
       <c r="A423" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="B423" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" ht="170">
+      <c r="A424" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="B424" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" ht="34">
+      <c r="A425" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="B425" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" ht="34">
+      <c r="A426" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="B423" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="424" spans="1:2" ht="34">
-      <c r="A424" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="B424" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="425" spans="1:2" ht="17">
-      <c r="A425" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="B425" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="426" spans="1:2" ht="17">
-      <c r="A426" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="B426" s="5">
+      <c r="B426" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="427" spans="1:2" ht="17">
       <c r="A427" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="B427" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" ht="17">
+      <c r="A428" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="B428" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" ht="17">
+      <c r="A429" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="B429" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" ht="34">
+      <c r="A430" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="B427" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="428" spans="1:2" ht="34">
-      <c r="A428" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="B428" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="429" spans="1:2" ht="34">
-      <c r="A429" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="B429" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="430" spans="1:2" ht="17">
-      <c r="A430" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="B430" s="5">
+      <c r="B430" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="431" spans="1:2" ht="34">
       <c r="A431" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="B431" s="5">
+        <v>391</v>
+      </c>
+      <c r="B431" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="432" spans="1:2" ht="17">
       <c r="A432" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="B432" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="433" spans="1:2" ht="68">
+        <v>392</v>
+      </c>
+      <c r="B432" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" ht="34">
       <c r="A433" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="B433" s="5">
+        <v>393</v>
+      </c>
+      <c r="B433" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="434" spans="1:2" ht="17">
       <c r="A434" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="B434" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="435" spans="1:2" ht="51">
+        <v>394</v>
+      </c>
+      <c r="B434" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" ht="68">
       <c r="A435" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="B435" s="5">
+        <v>395</v>
+      </c>
+      <c r="B435" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="436" spans="1:2" ht="17">
       <c r="A436" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="B436" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="437" spans="1:2" ht="34">
+        <v>396</v>
+      </c>
+      <c r="B436" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" ht="51">
       <c r="A437" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="B437" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="438" spans="1:2" ht="51">
+        <v>397</v>
+      </c>
+      <c r="B437" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" ht="17">
       <c r="A438" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="B438" s="5">
+        <v>398</v>
+      </c>
+      <c r="B438" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="439" spans="1:2" ht="34">
       <c r="A439" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="B439" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="440" spans="1:2" ht="34">
+        <v>399</v>
+      </c>
+      <c r="B439" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" ht="51">
       <c r="A440" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="B440" s="5">
+        <v>400</v>
+      </c>
+      <c r="B440" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="441" spans="1:2" ht="34">
       <c r="A441" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="B441" s="5">
+        <v>401</v>
+      </c>
+      <c r="B441" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="442" spans="1:2" ht="34">
       <c r="A442" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="B442" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="443" spans="1:2" ht="68">
+        <v>402</v>
+      </c>
+      <c r="B442" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" ht="34">
       <c r="A443" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="B443" s="5">
+        <v>403</v>
+      </c>
+      <c r="B443" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="444" spans="1:2" ht="34">
       <c r="A444" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="B444" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" ht="68">
+      <c r="A445" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="B445" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" ht="34">
+      <c r="A446" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="B446" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" ht="17">
+      <c r="A447" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="B444" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="445" spans="1:2" ht="17">
-      <c r="A445" s="7" t="s">
+      <c r="B447" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" ht="17">
+      <c r="A448" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="B445" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="446" spans="1:2" ht="17">
-      <c r="A446" s="7" t="s">
+      <c r="B448" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" ht="85">
+      <c r="A449" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="B446" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="447" spans="1:2" ht="85">
-      <c r="A447" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="B447" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="448" spans="1:2" ht="34">
-      <c r="A448" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="B448" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="449" spans="1:2" ht="34">
-      <c r="A449" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="B449" s="5">
+      <c r="B449" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="450" spans="1:2" ht="34">
       <c r="A450" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="B450" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="451" spans="1:2" ht="17">
+        <v>410</v>
+      </c>
+      <c r="B450" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" ht="34">
       <c r="A451" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="B451" s="5">
+        <v>411</v>
+      </c>
+      <c r="B451" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="452" spans="1:2" ht="34">
       <c r="A452" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="B452" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="453" spans="1:2" ht="34">
+        <v>412</v>
+      </c>
+      <c r="B452" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" ht="17">
       <c r="A453" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="B453" s="5">
+        <v>413</v>
+      </c>
+      <c r="B453" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="454" spans="1:2" ht="34">
       <c r="A454" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="B454" s="5">
+        <v>414</v>
+      </c>
+      <c r="B454" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="455" spans="1:2" ht="34">
       <c r="A455" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="B455" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="456" spans="1:2" ht="51">
+        <v>415</v>
+      </c>
+      <c r="B455" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" ht="34">
       <c r="A456" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="B456" s="5">
+        <v>416</v>
+      </c>
+      <c r="B456" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="457" spans="1:2" ht="34">
       <c r="A457" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="B457" s="5">
+        <v>417</v>
+      </c>
+      <c r="B457" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="458" spans="1:2" ht="51">
       <c r="A458" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="B458" s="5">
+        <v>418</v>
+      </c>
+      <c r="B458" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="459" spans="1:2" ht="34">
       <c r="A459" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="B459" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="460" spans="1:2" ht="68">
+        <v>419</v>
+      </c>
+      <c r="B459" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" ht="51">
       <c r="A460" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="B460" s="5">
+        <v>420</v>
+      </c>
+      <c r="B460" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="461" spans="1:2" ht="34">
       <c r="A461" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="B461" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" ht="68">
+      <c r="A462" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="B462" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" ht="34">
+      <c r="A463" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="B463" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" ht="187">
+      <c r="A464" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="B461" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="462" spans="1:2" ht="187">
-      <c r="A462" s="7" t="s">
+      <c r="B464" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" ht="153">
+      <c r="A465" s="7" t="s">
         <v>425</v>
       </c>
-      <c r="B462" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="463" spans="1:2" ht="153">
-      <c r="A463" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="B463" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="464" spans="1:2" ht="17">
-      <c r="A464" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="B464" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="465" spans="1:2" ht="34">
-      <c r="A465" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="B465" s="5">
+      <c r="B465" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="466" spans="1:2" ht="17">
       <c r="A466" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="B466" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="467" spans="1:2" ht="17">
+        <v>426</v>
+      </c>
+      <c r="B466" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" ht="34">
       <c r="A467" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="B467" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" ht="17">
+      <c r="A468" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="B468" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" ht="17">
+      <c r="A469" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="B469" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" ht="34">
+      <c r="A470" s="7" t="s">
         <v>432</v>
       </c>
-      <c r="B467" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="468" spans="1:2" ht="34">
-      <c r="A468" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="B468" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="469" spans="1:2" ht="34">
-      <c r="A469" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="B469" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="470" spans="1:2" ht="68">
-      <c r="A470" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="B470" s="5">
+      <c r="B470" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="471" spans="1:2" ht="34">
       <c r="A471" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="B471" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" ht="68">
+      <c r="A472" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="B472" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" ht="34">
+      <c r="A473" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="B473" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" ht="51">
+      <c r="A474" s="7" t="s">
         <v>467</v>
       </c>
-      <c r="B471" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="472" spans="1:2" ht="51">
-      <c r="A472" s="7" t="s">
+      <c r="B474" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" ht="17">
+      <c r="A475" s="7" t="s">
         <v>468</v>
       </c>
-      <c r="B472" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="473" spans="1:2" ht="17">
-      <c r="A473" s="7" t="s">
+      <c r="B475" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" ht="17">
+      <c r="A476" s="7" t="s">
         <v>469</v>
       </c>
-      <c r="B473" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="474" spans="1:2" ht="17">
-      <c r="A474" s="7" t="s">
-        <v>470</v>
-      </c>
-      <c r="B474" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="475" spans="1:2" ht="51">
-      <c r="A475" s="7" t="s">
-        <v>471</v>
-      </c>
-      <c r="B475" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="476" spans="1:2" ht="153">
-      <c r="A476" s="7" t="s">
-        <v>472</v>
-      </c>
-      <c r="B476" s="5">
+      <c r="B476" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="477" spans="1:2" ht="51">
       <c r="A477" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="B477" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" ht="153">
+      <c r="A478" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="B478" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" ht="51">
+      <c r="A479" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="B479" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" ht="17">
+      <c r="A480" s="7" t="s">
         <v>473</v>
       </c>
-      <c r="B477" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="478" spans="1:2" ht="17">
-      <c r="A478" s="7" t="s">
-        <v>474</v>
-      </c>
-      <c r="B478" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="479" spans="1:2" ht="17">
-      <c r="A479" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="B479" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="480" spans="1:2" ht="51">
-      <c r="A480" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="B480" s="5">
+      <c r="B480" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="481" spans="1:2" ht="17">
       <c r="A481" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="B481" s="5">
+        <v>474</v>
+      </c>
+      <c r="B481" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="482" spans="1:2" ht="51">
       <c r="A482" s="7" t="s">
-        <v>478</v>
-      </c>
-      <c r="B482" s="5">
+        <v>475</v>
+      </c>
+      <c r="B482" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="483" spans="1:2" ht="17">
       <c r="A483" s="7" t="s">
-        <v>479</v>
-      </c>
-      <c r="B483" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="484" spans="1:2" ht="34">
+        <v>476</v>
+      </c>
+      <c r="B483" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" ht="51">
       <c r="A484" s="7" t="s">
-        <v>480</v>
-      </c>
-      <c r="B484" s="5">
+        <v>477</v>
+      </c>
+      <c r="B484" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="485" spans="1:2" ht="17">
       <c r="A485" s="7" t="s">
-        <v>481</v>
-      </c>
-      <c r="B485" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="486" spans="1:2" ht="17">
+        <v>478</v>
+      </c>
+      <c r="B485" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" ht="34">
       <c r="A486" s="7" t="s">
-        <v>482</v>
-      </c>
-      <c r="B486" s="5">
+        <v>479</v>
+      </c>
+      <c r="B486" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="487" spans="1:2" ht="17">
       <c r="A487" s="7" t="s">
-        <v>483</v>
-      </c>
-      <c r="B487" s="5">
+        <v>480</v>
+      </c>
+      <c r="B487" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="488" spans="1:2" ht="17">
       <c r="A488" s="7" t="s">
-        <v>484</v>
-      </c>
-      <c r="B488" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="489" spans="1:2" ht="34">
+        <v>481</v>
+      </c>
+      <c r="B488" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" ht="17">
       <c r="A489" s="7" t="s">
-        <v>485</v>
-      </c>
-      <c r="B489" s="5">
+        <v>482</v>
+      </c>
+      <c r="B489" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="490" spans="1:2" ht="17">
       <c r="A490" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="B490" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" ht="34">
+      <c r="A491" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="B491" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" ht="17">
+      <c r="A492" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="B492" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" ht="17">
+      <c r="A493" s="7" t="s">
         <v>486</v>
       </c>
-      <c r="B490" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="491" spans="1:2" ht="17">
-      <c r="A491" s="7" t="s">
-        <v>487</v>
-      </c>
-      <c r="B491" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="492" spans="1:2" ht="17">
-      <c r="A492" s="8" t="s">
+      <c r="B493" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" ht="17">
+      <c r="A494" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="B494" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" ht="17">
+      <c r="A495" s="5" t="s">
         <v>492</v>
       </c>
-      <c r="B492" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="493" spans="1:2" ht="17">
-      <c r="A493" s="8" t="s">
+      <c r="B495" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" ht="17">
+      <c r="A496" s="5" t="s">
         <v>493</v>
       </c>
-      <c r="B493" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="494" spans="1:2" ht="17">
-      <c r="A494" s="8" t="s">
+      <c r="B496" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" ht="17">
+      <c r="A497" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="B494" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="495" spans="1:2" ht="17">
-      <c r="A495" s="8" t="s">
+      <c r="B497" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" ht="17">
+      <c r="A498" s="5" t="s">
         <v>495</v>
       </c>
-      <c r="B495" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="496" spans="1:2" ht="17">
-      <c r="A496" s="8" t="s">
+      <c r="B498" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" ht="17">
+      <c r="A499" s="5" t="s">
         <v>496</v>
       </c>
-      <c r="B496" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="497" spans="1:2" ht="17">
-      <c r="A497" s="8" t="s">
+      <c r="B499" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" ht="17">
+      <c r="A500" s="5" t="s">
         <v>497</v>
       </c>
-      <c r="B497" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="498" spans="1:2" ht="17">
-      <c r="A498" s="8" t="s">
+      <c r="B500" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" ht="17">
+      <c r="A501" s="5" t="s">
         <v>498</v>
       </c>
-      <c r="B498" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="499" spans="1:2" ht="17">
-      <c r="A499" s="8" t="s">
+      <c r="B501" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" ht="17">
+      <c r="A502" s="5" t="s">
         <v>499</v>
       </c>
-      <c r="B499" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="500" spans="1:2" ht="17">
-      <c r="A500" s="8" t="s">
+      <c r="B502" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" ht="17">
+      <c r="A503" s="5" t="s">
         <v>500</v>
       </c>
-      <c r="B500" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="501" spans="1:2" ht="17">
-      <c r="A501" s="8" t="s">
+      <c r="B503" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" ht="34">
+      <c r="A504" s="7" t="s">
         <v>501</v>
       </c>
-      <c r="B501" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="502" spans="1:2" ht="34">
-      <c r="A502" s="7" t="s">
+      <c r="B504" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" ht="68">
+      <c r="A505" s="7" t="s">
         <v>502</v>
       </c>
-      <c r="B502" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="503" spans="1:2" ht="68">
-      <c r="A503" s="7" t="s">
+      <c r="B505" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" ht="17">
+      <c r="A506" s="7" t="s">
         <v>503</v>
       </c>
-      <c r="B503" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="504" spans="1:2" ht="17">
-      <c r="A504" s="7" t="s">
-        <v>504</v>
-      </c>
-      <c r="B504" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="505" spans="1:2" ht="34">
-      <c r="A505" s="7" t="s">
-        <v>505</v>
-      </c>
-      <c r="B505" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="506" spans="1:2" ht="34">
-      <c r="A506" s="7" t="s">
-        <v>506</v>
-      </c>
-      <c r="B506" s="10">
-        <v>0</v>
+      <c r="B506" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="507" spans="1:2" ht="34">
       <c r="A507" s="7" t="s">
-        <v>507</v>
-      </c>
-      <c r="B507" s="10">
+        <v>504</v>
+      </c>
+      <c r="B507" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="508" spans="1:2" ht="34">
       <c r="A508" s="7" t="s">
-        <v>508</v>
-      </c>
-      <c r="B508" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="509" spans="1:2" ht="17">
+        <v>505</v>
+      </c>
+      <c r="B508" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" ht="34">
       <c r="A509" s="7" t="s">
-        <v>509</v>
-      </c>
-      <c r="B509" s="10">
+        <v>506</v>
+      </c>
+      <c r="B509" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="510" spans="1:2" ht="34">
       <c r="A510" s="7" t="s">
-        <v>510</v>
-      </c>
-      <c r="B510" s="10">
+        <v>507</v>
+      </c>
+      <c r="B510" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="511" spans="1:2" ht="17">
       <c r="A511" s="7" t="s">
-        <v>511</v>
-      </c>
-      <c r="B511" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="512" spans="1:2" ht="17">
+        <v>508</v>
+      </c>
+      <c r="B511" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" ht="34">
       <c r="A512" s="7" t="s">
-        <v>512</v>
-      </c>
-      <c r="B512" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="513" spans="1:2" ht="51">
+        <v>509</v>
+      </c>
+      <c r="B512" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" ht="17">
       <c r="A513" s="7" t="s">
-        <v>513</v>
-      </c>
-      <c r="B513" s="10">
-        <v>1</v>
+        <v>510</v>
+      </c>
+      <c r="B513" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="514" spans="1:2" ht="17">
       <c r="A514" s="7" t="s">
-        <v>514</v>
-      </c>
-      <c r="B514" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="515" spans="1:2" ht="34">
+        <v>511</v>
+      </c>
+      <c r="B514" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" ht="51">
       <c r="A515" s="7" t="s">
-        <v>515</v>
-      </c>
-      <c r="B515" s="10">
+        <v>512</v>
+      </c>
+      <c r="B515" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="516" spans="1:2" ht="17">
       <c r="A516" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="B516" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" ht="34">
+      <c r="A517" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="B517" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" ht="17">
+      <c r="A518" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="B518" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" ht="85">
+      <c r="A519" s="7" t="s">
         <v>516</v>
       </c>
-      <c r="B516" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="517" spans="1:2" ht="85">
-      <c r="A517" s="7" t="s">
+      <c r="B519" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" ht="34">
+      <c r="A520" s="7" t="s">
         <v>517</v>
       </c>
-      <c r="B517" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="518" spans="1:2" ht="34">
-      <c r="A518" s="7" t="s">
+      <c r="B520" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" ht="34">
+      <c r="A521" s="7" t="s">
         <v>518</v>
       </c>
-      <c r="B518" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="519" spans="1:2" ht="34">
-      <c r="A519" s="7" t="s">
+      <c r="B521" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" ht="51">
+      <c r="A522" s="7" t="s">
         <v>519</v>
       </c>
-      <c r="B519" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="520" spans="1:2" ht="51">
-      <c r="A520" s="7" t="s">
+      <c r="B522" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" ht="68">
+      <c r="A523" s="7" t="s">
         <v>520</v>
       </c>
-      <c r="B520" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="521" spans="1:2" ht="68">
-      <c r="A521" s="7" t="s">
+      <c r="B523" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" ht="85">
+      <c r="A524" s="7" t="s">
         <v>521</v>
       </c>
-      <c r="B521" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="522" spans="1:2" ht="85">
-      <c r="A522" s="7" t="s">
-        <v>522</v>
-      </c>
-      <c r="B522" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="523" spans="1:2" ht="17">
-      <c r="A523" s="7" t="s">
-        <v>523</v>
-      </c>
-      <c r="B523" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="524" spans="1:2" ht="17">
-      <c r="A524" s="7" t="s">
-        <v>524</v>
-      </c>
-      <c r="B524" s="10">
-        <v>0</v>
+      <c r="B524" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="525" spans="1:2" ht="17">
       <c r="A525" s="7" t="s">
-        <v>525</v>
-      </c>
-      <c r="B525" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="526" spans="1:2" ht="51">
+        <v>522</v>
+      </c>
+      <c r="B525" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" ht="17">
       <c r="A526" s="7" t="s">
-        <v>526</v>
-      </c>
-      <c r="B526" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="527" spans="1:2" ht="85">
+        <v>523</v>
+      </c>
+      <c r="B526" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" ht="17">
       <c r="A527" s="7" t="s">
-        <v>527</v>
-      </c>
-      <c r="B527" s="10">
+        <v>524</v>
+      </c>
+      <c r="B527" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="528" spans="1:2" ht="51">
       <c r="A528" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="B528" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" ht="85">
+      <c r="A529" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="B529" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" ht="51">
+      <c r="A530" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="B530" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" ht="68">
+      <c r="A531" s="7" t="s">
         <v>528</v>
       </c>
-      <c r="B528" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="529" spans="1:2" ht="68">
-      <c r="A529" s="7" t="s">
+      <c r="B531" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" ht="34">
+      <c r="A532" s="7" t="s">
         <v>529</v>
       </c>
-      <c r="B529" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="530" spans="1:2" ht="34">
-      <c r="A530" s="7" t="s">
+      <c r="B532" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" ht="51">
+      <c r="A533" s="7" t="s">
         <v>530</v>
       </c>
-      <c r="B530" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="531" spans="1:2" ht="51">
-      <c r="A531" s="7" t="s">
+      <c r="B533" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" ht="17">
+      <c r="A534" s="7" t="s">
         <v>531</v>
       </c>
-      <c r="B531" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="532" spans="1:2" ht="17">
-      <c r="A532" s="7" t="s">
+      <c r="B534" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" ht="17">
+      <c r="A535" s="7" t="s">
         <v>532</v>
       </c>
-      <c r="B532" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="533" spans="1:2" ht="17">
-      <c r="A533" s="7" t="s">
+      <c r="B535" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" ht="34">
+      <c r="A536" s="7" t="s">
         <v>533</v>
       </c>
-      <c r="B533" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="534" spans="1:2" ht="34">
-      <c r="A534" s="7" t="s">
-        <v>534</v>
-      </c>
-      <c r="B534" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="535" spans="1:2" ht="51">
-      <c r="A535" s="7" t="s">
-        <v>535</v>
-      </c>
-      <c r="B535" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="536" spans="1:2" ht="17">
-      <c r="A536" s="11" t="s">
-        <v>536</v>
-      </c>
-      <c r="B536" s="10">
+      <c r="B536" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="537" spans="1:2" ht="51">
       <c r="A537" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="B537" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" ht="17">
+      <c r="A538" s="9" t="s">
+        <v>535</v>
+      </c>
+      <c r="B538" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" ht="51">
+      <c r="A539" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="B539" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" ht="17">
+      <c r="A540" s="7" t="s">
         <v>537</v>
       </c>
-      <c r="B537" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="538" spans="1:2" ht="17">
-      <c r="A538" s="7" t="s">
+      <c r="B540" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" ht="34">
+      <c r="A541" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="B538" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="539" spans="1:2" ht="34">
-      <c r="A539" s="7" t="s">
+      <c r="B541" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" ht="102">
+      <c r="A542" s="7" t="s">
         <v>539</v>
       </c>
-      <c r="B539" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="540" spans="1:2" ht="102">
-      <c r="A540" s="7" t="s">
+      <c r="B542" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" ht="17">
+      <c r="A543" s="7" t="s">
         <v>540</v>
       </c>
-      <c r="B540" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="541" spans="1:2" ht="17">
-      <c r="A541" s="7" t="s">
+      <c r="B543" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" ht="34">
+      <c r="A544" s="7" t="s">
         <v>541</v>
       </c>
-      <c r="B541" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="542" spans="1:2" ht="34">
-      <c r="A542" s="7" t="s">
+      <c r="B544" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" ht="34">
+      <c r="A545" s="7" t="s">
         <v>542</v>
       </c>
-      <c r="B542" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="543" spans="1:2" ht="34">
-      <c r="A543" s="7" t="s">
+      <c r="B545" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" ht="51">
+      <c r="A546" s="7" t="s">
         <v>543</v>
       </c>
-      <c r="B543" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="544" spans="1:2" ht="51">
-      <c r="A544" s="7" t="s">
+      <c r="B546" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2" ht="17">
+      <c r="A547" s="7" t="s">
         <v>544</v>
       </c>
-      <c r="B544" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="545" spans="1:2" ht="17">
-      <c r="A545" s="7" t="s">
+      <c r="B547" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" ht="17">
+      <c r="A548" s="7" t="s">
         <v>545</v>
       </c>
-      <c r="B545" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="546" spans="1:2" ht="17">
-      <c r="A546" s="7" t="s">
+      <c r="B548" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" ht="85">
+      <c r="A549" s="7" t="s">
         <v>546</v>
       </c>
-      <c r="B546" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="547" spans="1:2" ht="85">
-      <c r="A547" s="7" t="s">
+      <c r="B549" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" ht="34">
+      <c r="A550" s="7" t="s">
         <v>547</v>
       </c>
-      <c r="B547" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="548" spans="1:2" ht="34">
-      <c r="A548" s="7" t="s">
+      <c r="B550" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" ht="17">
+      <c r="A551" s="7" t="s">
         <v>548</v>
       </c>
-      <c r="B548" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="549" spans="1:2" ht="17">
-      <c r="A549" s="7" t="s">
+      <c r="B551" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" ht="17">
+      <c r="A552" s="7" t="s">
         <v>549</v>
       </c>
-      <c r="B549" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="550" spans="1:2" ht="17">
-      <c r="A550" s="7" t="s">
+      <c r="B552" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2" ht="34">
+      <c r="A553" s="7" t="s">
         <v>550</v>
       </c>
-      <c r="B550" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="551" spans="1:2" ht="34">
-      <c r="A551" s="7" t="s">
-        <v>551</v>
-      </c>
-      <c r="B551" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="552" spans="1:2" ht="34">
-      <c r="A552" s="7" t="s">
-        <v>552</v>
-      </c>
-      <c r="B552" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="553" spans="1:2" ht="17">
-      <c r="A553" s="7" t="s">
-        <v>553</v>
-      </c>
-      <c r="B553" s="10">
-        <v>0</v>
+      <c r="B553" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="554" spans="1:2" ht="34">
       <c r="A554" s="7" t="s">
-        <v>554</v>
-      </c>
-      <c r="B554" s="10">
+        <v>551</v>
+      </c>
+      <c r="B554" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="555" spans="1:2" ht="17">
       <c r="A555" s="7" t="s">
-        <v>555</v>
-      </c>
-      <c r="B555" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="556" spans="1:2" ht="17">
+        <v>552</v>
+      </c>
+      <c r="B555" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2" ht="34">
       <c r="A556" s="7" t="s">
-        <v>556</v>
-      </c>
-      <c r="B556" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="557" spans="1:2" ht="34">
+        <v>553</v>
+      </c>
+      <c r="B556" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2" ht="17">
       <c r="A557" s="7" t="s">
-        <v>557</v>
-      </c>
-      <c r="B557" s="10">
+        <v>554</v>
+      </c>
+      <c r="B557" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="558" spans="1:2" ht="17">
       <c r="A558" s="7" t="s">
-        <v>558</v>
-      </c>
-      <c r="B558" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="559" spans="1:2" ht="17">
+        <v>555</v>
+      </c>
+      <c r="B558" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2" ht="34">
       <c r="A559" s="7" t="s">
-        <v>559</v>
-      </c>
-      <c r="B559" s="10">
-        <v>1</v>
+        <v>556</v>
+      </c>
+      <c r="B559" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="560" spans="1:2" ht="17">
       <c r="A560" s="7" t="s">
-        <v>560</v>
-      </c>
-      <c r="B560" s="10">
-        <v>1</v>
+        <v>557</v>
+      </c>
+      <c r="B560" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="561" spans="1:2" ht="17">
       <c r="A561" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="B561" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2" ht="17">
+      <c r="A562" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="B562" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2" ht="17">
+      <c r="A563" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="B563" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2" ht="51">
+      <c r="A564" s="7" t="s">
         <v>561</v>
       </c>
-      <c r="B561" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="562" spans="1:2" ht="51">
-      <c r="A562" s="7" t="s">
+      <c r="B564" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2" ht="34">
+      <c r="A565" s="7" t="s">
         <v>562</v>
       </c>
-      <c r="B562" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="563" spans="1:2" ht="34">
-      <c r="A563" s="7" t="s">
+      <c r="B565" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2" ht="17">
+      <c r="A566" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="B566" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2" ht="17">
+      <c r="A567" s="5" t="s">
+        <v>630</v>
+      </c>
+      <c r="B567" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2" ht="17">
+      <c r="A568" s="5" t="s">
+        <v>643</v>
+      </c>
+      <c r="B568" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2" ht="17">
+      <c r="A569" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="B569" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2" ht="34">
+      <c r="A570" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="B563" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="564" spans="1:2" ht="34">
-      <c r="A564" s="7" t="s">
+      <c r="B570" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2" ht="51">
+      <c r="A571" s="7" t="s">
         <v>564</v>
       </c>
-      <c r="B564" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="565" spans="1:2" ht="51">
-      <c r="A565" s="7" t="s">
+      <c r="B571" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2" ht="68">
+      <c r="A572" s="7" t="s">
         <v>565</v>
       </c>
-      <c r="B565" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="566" spans="1:2" ht="68">
-      <c r="A566" s="7" t="s">
+      <c r="B572" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2" ht="51">
+      <c r="A573" s="7" t="s">
         <v>566</v>
       </c>
-      <c r="B566" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="567" spans="1:2" ht="51">
-      <c r="A567" s="7" t="s">
+      <c r="B573" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2" ht="153">
+      <c r="A574" s="7" t="s">
         <v>567</v>
       </c>
-      <c r="B567" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="568" spans="1:2" ht="153">
-      <c r="A568" s="7" t="s">
-        <v>568</v>
-      </c>
-      <c r="B568" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="569" spans="1:2" ht="51">
-      <c r="A569" s="7" t="s">
-        <v>569</v>
-      </c>
-      <c r="B569" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="570" spans="1:2" ht="17">
-      <c r="A570" s="7" t="s">
-        <v>570</v>
-      </c>
-      <c r="B570" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="571" spans="1:2" ht="17">
-      <c r="A571" s="7" t="s">
-        <v>571</v>
-      </c>
-      <c r="B571" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="572" spans="1:2" ht="34">
-      <c r="A572" s="7" t="s">
-        <v>572</v>
-      </c>
-      <c r="B572" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="573" spans="1:2" ht="34">
-      <c r="A573" s="7" t="s">
-        <v>573</v>
-      </c>
-      <c r="B573" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="574" spans="1:2" ht="34">
-      <c r="A574" s="7" t="s">
-        <v>574</v>
-      </c>
-      <c r="B574" s="10">
+      <c r="B574" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="575" spans="1:2" ht="51">
       <c r="A575" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="B575" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2" ht="17">
+      <c r="A576" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="B576" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2" ht="17">
+      <c r="A577" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="B577" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2" ht="34">
+      <c r="A578" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="B578" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2" ht="34">
+      <c r="A579" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="B579" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2" ht="34">
+      <c r="A580" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="B580" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2" ht="51">
+      <c r="A581" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="B581" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2" ht="85">
+      <c r="A582" s="7" t="s">
         <v>575</v>
       </c>
-      <c r="B575" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="576" spans="1:2" ht="85">
-      <c r="A576" s="7" t="s">
+      <c r="B582" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2" ht="51">
+      <c r="A583" s="7" t="s">
         <v>576</v>
       </c>
-      <c r="B576" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="577" spans="1:2" ht="51">
-      <c r="A577" s="7" t="s">
-        <v>577</v>
-      </c>
-      <c r="B577" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="578" spans="1:2" ht="51">
-      <c r="A578" s="7" t="s">
-        <v>578</v>
-      </c>
-      <c r="B578" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="579" spans="1:2" ht="17">
-      <c r="A579" s="7" t="s">
-        <v>579</v>
-      </c>
-      <c r="B579" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="580" spans="1:2" ht="17">
-      <c r="A580" s="7" t="s">
-        <v>580</v>
-      </c>
-      <c r="B580" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="581" spans="1:2" ht="102">
-      <c r="A581" s="7" t="s">
-        <v>581</v>
-      </c>
-      <c r="B581" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="582" spans="1:2" ht="17">
-      <c r="A582" s="7" t="s">
-        <v>582</v>
-      </c>
-      <c r="B582" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="583" spans="1:2" ht="17">
-      <c r="A583" s="7" t="s">
-        <v>583</v>
-      </c>
-      <c r="B583" s="10">
-        <v>0</v>
+      <c r="B583" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="584" spans="1:2" ht="51">
       <c r="A584" s="7" t="s">
-        <v>584</v>
-      </c>
-      <c r="B584" s="10">
-        <v>0</v>
+        <v>577</v>
+      </c>
+      <c r="B584" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="585" spans="1:2" ht="17">
       <c r="A585" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="B585" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2" ht="17">
+      <c r="A586" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="B586" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2" ht="102">
+      <c r="A587" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="B587" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2" ht="17">
+      <c r="A588" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="B588" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2" ht="17">
+      <c r="A589" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="B589" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2" ht="51">
+      <c r="A590" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="B590" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2" ht="17">
+      <c r="A591" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="B591" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2" ht="34">
+      <c r="A592" s="7" t="s">
         <v>585</v>
       </c>
-      <c r="B585" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="586" spans="1:2" ht="34">
-      <c r="A586" s="7" t="s">
-        <v>586</v>
-      </c>
-      <c r="B586" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="587" spans="1:2" ht="34">
-      <c r="A587" s="7" t="s">
-        <v>587</v>
-      </c>
-      <c r="B587" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="588" spans="1:2" ht="51">
-      <c r="A588" s="7" t="s">
-        <v>588</v>
-      </c>
-      <c r="B588" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="589" spans="1:2" ht="34">
-      <c r="A589" s="7" t="s">
-        <v>589</v>
-      </c>
-      <c r="B589" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="590" spans="1:2" ht="34">
-      <c r="A590" s="7" t="s">
-        <v>590</v>
-      </c>
-      <c r="B590" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="591" spans="1:2" ht="34">
-      <c r="A591" s="7" t="s">
-        <v>591</v>
-      </c>
-      <c r="B591" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="592" spans="1:2" ht="119">
-      <c r="A592" s="7" t="s">
-        <v>592</v>
-      </c>
-      <c r="B592" s="10">
+      <c r="B592" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="593" spans="1:2" ht="34">
       <c r="A593" s="7" t="s">
-        <v>593</v>
-      </c>
-      <c r="B593" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="594" spans="1:2" ht="153">
+        <v>586</v>
+      </c>
+      <c r="B593" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2" ht="51">
       <c r="A594" s="7" t="s">
-        <v>594</v>
-      </c>
-      <c r="B594" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="595" spans="1:2" ht="17">
+        <v>587</v>
+      </c>
+      <c r="B594" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2" ht="34">
       <c r="A595" s="7" t="s">
-        <v>595</v>
-      </c>
-      <c r="B595" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="596" spans="1:2" ht="17">
+        <v>588</v>
+      </c>
+      <c r="B595" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2" ht="34">
       <c r="A596" s="7" t="s">
-        <v>596</v>
-      </c>
-      <c r="B596" s="10">
-        <v>1</v>
+        <v>589</v>
+      </c>
+      <c r="B596" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="597" spans="1:2" ht="34">
       <c r="A597" s="7" t="s">
-        <v>597</v>
-      </c>
-      <c r="B597" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="598" spans="1:2" ht="51">
+        <v>590</v>
+      </c>
+      <c r="B597" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2" ht="119">
       <c r="A598" s="7" t="s">
-        <v>598</v>
-      </c>
-      <c r="B598" s="10">
-        <v>1</v>
+        <v>591</v>
+      </c>
+      <c r="B598" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="599" spans="1:2" ht="34">
       <c r="A599" s="7" t="s">
-        <v>599</v>
-      </c>
-      <c r="B599" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="600" spans="1:2" ht="51">
+        <v>640</v>
+      </c>
+      <c r="B599" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2" ht="153">
       <c r="A600" s="7" t="s">
-        <v>600</v>
-      </c>
-      <c r="B600" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="601" spans="1:2" ht="51">
+        <v>592</v>
+      </c>
+      <c r="B600" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2" ht="17">
       <c r="A601" s="7" t="s">
-        <v>601</v>
-      </c>
-      <c r="B601" s="10">
-        <v>0</v>
+        <v>593</v>
+      </c>
+      <c r="B601" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="602" spans="1:2" ht="17">
       <c r="A602" s="7" t="s">
-        <v>602</v>
-      </c>
-      <c r="B602" s="10">
-        <v>0</v>
+        <v>594</v>
+      </c>
+      <c r="B602" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="603" spans="1:2" ht="34">
       <c r="A603" s="7" t="s">
-        <v>603</v>
-      </c>
-      <c r="B603" s="10">
-        <v>0</v>
+        <v>595</v>
+      </c>
+      <c r="B603" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="604" spans="1:2" ht="51">
       <c r="A604" s="7" t="s">
-        <v>604</v>
-      </c>
-      <c r="B604" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="605" spans="1:2" ht="51">
+        <v>596</v>
+      </c>
+      <c r="B604" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2" ht="34">
       <c r="A605" s="7" t="s">
-        <v>605</v>
-      </c>
-      <c r="B605" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="606" spans="1:2" ht="34">
+        <v>597</v>
+      </c>
+      <c r="B605" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2" ht="51">
       <c r="A606" s="7" t="s">
-        <v>606</v>
-      </c>
-      <c r="B606" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="607" spans="1:2" ht="34">
+        <v>598</v>
+      </c>
+      <c r="B606" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2" ht="51">
       <c r="A607" s="7" t="s">
-        <v>607</v>
-      </c>
-      <c r="B607" s="10">
+        <v>599</v>
+      </c>
+      <c r="B607" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="608" spans="1:2" ht="17">
       <c r="A608" s="7" t="s">
-        <v>608</v>
-      </c>
-      <c r="B608" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="609" spans="1:2" ht="17">
+        <v>600</v>
+      </c>
+      <c r="B608" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2" ht="34">
       <c r="A609" s="7" t="s">
-        <v>609</v>
-      </c>
-      <c r="B609" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="610" spans="1:2" ht="17">
+        <v>601</v>
+      </c>
+      <c r="B609" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2" ht="51">
       <c r="A610" s="7" t="s">
-        <v>610</v>
-      </c>
-      <c r="B610" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="611" spans="1:2" ht="34">
+        <v>602</v>
+      </c>
+      <c r="B610" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2" ht="51">
       <c r="A611" s="7" t="s">
-        <v>611</v>
-      </c>
-      <c r="B611" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="612" spans="1:2" ht="85">
+        <v>603</v>
+      </c>
+      <c r="B611" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2" ht="34">
       <c r="A612" s="7" t="s">
-        <v>612</v>
-      </c>
-      <c r="B612" s="10">
-        <v>1</v>
+        <v>604</v>
+      </c>
+      <c r="B612" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="613" spans="1:2" ht="34">
       <c r="A613" s="7" t="s">
-        <v>613</v>
-      </c>
-      <c r="B613" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="614" spans="1:2" ht="34">
+        <v>605</v>
+      </c>
+      <c r="B613" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2" ht="17">
       <c r="A614" s="7" t="s">
-        <v>614</v>
-      </c>
-      <c r="B614" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="615" spans="1:2" ht="51">
+        <v>606</v>
+      </c>
+      <c r="B614" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2" ht="17">
       <c r="A615" s="7" t="s">
-        <v>615</v>
-      </c>
-      <c r="B615" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="616" spans="1:2" ht="34">
+        <v>607</v>
+      </c>
+      <c r="B615" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2" ht="17">
       <c r="A616" s="7" t="s">
-        <v>616</v>
-      </c>
-      <c r="B616" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="617" spans="1:2" ht="85">
+        <v>608</v>
+      </c>
+      <c r="B616" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2" ht="34">
       <c r="A617" s="7" t="s">
-        <v>617</v>
-      </c>
-      <c r="B617" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="618" spans="1:2" ht="34">
+        <v>609</v>
+      </c>
+      <c r="B617" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2" ht="85">
       <c r="A618" s="7" t="s">
-        <v>618</v>
-      </c>
-      <c r="B618" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="619" spans="1:2" ht="85">
+        <v>610</v>
+      </c>
+      <c r="B618" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2" ht="34">
       <c r="A619" s="7" t="s">
-        <v>619</v>
-      </c>
-      <c r="B619" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="620" spans="1:2" ht="85">
+        <v>611</v>
+      </c>
+      <c r="B619" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2" ht="34">
       <c r="A620" s="7" t="s">
-        <v>620</v>
-      </c>
-      <c r="B620" s="10">
-        <v>0</v>
+        <v>612</v>
+      </c>
+      <c r="B620" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="621" spans="1:2" ht="51">
       <c r="A621" s="7" t="s">
-        <v>621</v>
-      </c>
-      <c r="B621" s="10">
-        <v>0</v>
+        <v>613</v>
+      </c>
+      <c r="B621" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="622" spans="1:2" ht="34">
       <c r="A622" s="7" t="s">
-        <v>622</v>
-      </c>
-      <c r="B622" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="623" spans="1:2" ht="34">
+        <v>614</v>
+      </c>
+      <c r="B622" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="623" spans="1:2" ht="85">
       <c r="A623" s="7" t="s">
-        <v>623</v>
-      </c>
-      <c r="B623" s="10">
-        <v>0</v>
+        <v>615</v>
+      </c>
+      <c r="B623" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="624" spans="1:2" ht="34">
       <c r="A624" s="7" t="s">
-        <v>624</v>
-      </c>
-      <c r="B624" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="625" spans="1:2" ht="17">
+        <v>616</v>
+      </c>
+      <c r="B624" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2" ht="85">
       <c r="A625" s="7" t="s">
-        <v>625</v>
-      </c>
-      <c r="B625" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="626" spans="1:2" ht="51">
-      <c r="A626" s="11" t="s">
-        <v>626</v>
-      </c>
-      <c r="B626" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="627" spans="1:2" ht="17">
+        <v>617</v>
+      </c>
+      <c r="B625" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="626" spans="1:2" ht="85">
+      <c r="A626" s="7" t="s">
+        <v>618</v>
+      </c>
+      <c r="B626" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="627" spans="1:2" ht="51">
       <c r="A627" s="7" t="s">
-        <v>627</v>
-      </c>
-      <c r="B627" s="10">
-        <v>1</v>
+        <v>619</v>
+      </c>
+      <c r="B627" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="628" spans="1:2" ht="34">
       <c r="A628" s="7" t="s">
-        <v>628</v>
-      </c>
-      <c r="B628" s="10">
-        <v>1</v>
+        <v>620</v>
+      </c>
+      <c r="B628" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="629" spans="1:2" ht="34">
       <c r="A629" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="B629" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="630" spans="1:2" ht="34">
+      <c r="A630" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="B630" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="631" spans="1:2" ht="17">
+      <c r="A631" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="B631" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="632" spans="1:2" ht="51">
+      <c r="A632" s="9" t="s">
+        <v>624</v>
+      </c>
+      <c r="B632" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="633" spans="1:2" ht="34">
+      <c r="A633" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="B633" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="634" spans="1:2" ht="34">
+      <c r="A634" s="7" t="s">
+        <v>626</v>
+      </c>
+      <c r="B634" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="635" spans="1:2" ht="221">
+      <c r="A635" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="B635" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="636" spans="1:2" ht="153">
+      <c r="A636" s="7" t="s">
+        <v>628</v>
+      </c>
+      <c r="B636" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="637" spans="1:2" ht="17">
+      <c r="A637" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="B637" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2" ht="17">
+      <c r="A638" s="5" t="s">
         <v>629</v>
       </c>
-      <c r="B629" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="630" spans="1:2" ht="221">
-      <c r="A630" s="7" t="s">
-        <v>630</v>
-      </c>
-      <c r="B630" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="631" spans="1:2" ht="153">
-      <c r="A631" s="7" t="s">
+      <c r="B638" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="639" spans="1:2" ht="17">
+      <c r="A639" s="5" t="s">
+        <v>644</v>
+      </c>
+      <c r="B639" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="640" spans="1:2" ht="17">
+      <c r="A640" s="5" t="s">
+        <v>645</v>
+      </c>
+      <c r="B640" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="641" spans="1:2" ht="17">
+      <c r="A641" s="7" t="s">
+        <v>638</v>
+      </c>
+      <c r="B641" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="642" spans="1:2" ht="17">
+      <c r="A642" s="7" t="s">
+        <v>639</v>
+      </c>
+      <c r="B642" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="643" spans="1:2" ht="17">
+      <c r="A643" s="5" t="s">
+        <v>634</v>
+      </c>
+      <c r="B643" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="644" spans="1:2" ht="17">
+      <c r="A644" s="5" t="s">
+        <v>635</v>
+      </c>
+      <c r="B644" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="645" spans="1:2" ht="17">
+      <c r="A645" s="5" t="s">
+        <v>636</v>
+      </c>
+      <c r="B645" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="646" spans="1:2" ht="17">
+      <c r="A646" s="5" t="s">
+        <v>641</v>
+      </c>
+      <c r="B646" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="647" spans="1:2" ht="17">
+      <c r="A647" s="5" t="s">
+        <v>650</v>
+      </c>
+      <c r="B647" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="648" spans="1:2" ht="17">
+      <c r="A648" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="B648" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="649" spans="1:2" ht="17">
+      <c r="A649" s="5" t="s">
         <v>631</v>
       </c>
-      <c r="B631" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="632" spans="1:2" ht="17">
-      <c r="A632" s="8" t="s">
+      <c r="B649" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="650" spans="1:2" ht="17">
+      <c r="A650" s="5" t="s">
         <v>632</v>
       </c>
-      <c r="B632" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="633" spans="1:2" ht="17">
-      <c r="A633" s="8" t="s">
-        <v>633</v>
-      </c>
-      <c r="B633" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="634" spans="1:2" ht="17">
-      <c r="A634" s="8" t="s">
-        <v>639</v>
-      </c>
-      <c r="B634" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="635" spans="1:2" ht="17">
-      <c r="A635" s="8" t="s">
-        <v>634</v>
-      </c>
-      <c r="B635" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="636" spans="1:2" ht="17">
-      <c r="A636" s="8" t="s">
-        <v>635</v>
-      </c>
-      <c r="B636" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="637" spans="1:2" ht="17">
-      <c r="A637" s="8" t="s">
-        <v>636</v>
-      </c>
-      <c r="B637" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="638" spans="1:2" ht="17">
-      <c r="A638" s="8" t="s">
-        <v>642</v>
-      </c>
-      <c r="B638" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="639" spans="1:2" ht="17">
-      <c r="A639" s="8" t="s">
-        <v>637</v>
-      </c>
-      <c r="B639" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="640" spans="1:2" ht="17">
-      <c r="A640" s="8" t="s">
-        <v>638</v>
-      </c>
-      <c r="B640" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="641" spans="1:2" ht="17">
-      <c r="A641" s="8" t="s">
-        <v>641</v>
-      </c>
-      <c r="B641" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="642" spans="1:2" ht="17">
-      <c r="A642" s="8" t="s">
-        <v>640</v>
-      </c>
-      <c r="B642" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="643" spans="1:2" ht="17">
-      <c r="A643" s="8" t="s">
-        <v>643</v>
-      </c>
-      <c r="B643" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="644" spans="1:2" ht="17">
-      <c r="A644" s="8" t="s">
-        <v>644</v>
-      </c>
-      <c r="B644" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="645" spans="1:2" ht="17">
-      <c r="A645" s="8" t="s">
-        <v>645</v>
-      </c>
-      <c r="B645" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="646" spans="1:2" ht="17">
-      <c r="A646" s="8" t="s">
-        <v>646</v>
-      </c>
-      <c r="B646" s="5">
-        <v>1</v>
+      <c r="B650" s="4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B1:B650" xr:uid="{1E1660CB-F90C-D948-AD30-3246F10DFD03}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
